--- a/src/modules/mail/templates/excels/ni_mcit_p_01_13.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01_13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C63C22-6F4C-4810-B421-5E212B651042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0E6D9-8C9C-409C-A7A0-219A514F8DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="887" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -8700,6 +8700,52 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8730,24 +8776,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8769,76 +8797,16 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8852,6 +8820,24 @@
     </xf>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8874,38 +8860,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8916,26 +8947,32 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8973,15 +9010,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -8989,34 +9017,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14265,7 +14265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14868,7 +14868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15519,7 +15519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22977,10 +22977,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="319" t="s">
+      <c r="N10" s="335" t="s">
         <v>739</v>
       </c>
-      <c r="O10" s="320"/>
+      <c r="O10" s="336"/>
       <c r="P10" s="270">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v>20.100000000000001</v>
@@ -23010,10 +23010,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="321" t="s">
+      <c r="N11" s="337" t="s">
         <v>740</v>
       </c>
-      <c r="O11" s="322"/>
+      <c r="O11" s="338"/>
       <c r="P11" s="272">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v>20.399999999999999</v>
@@ -23238,23 +23238,23 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="323" t="s">
+      <c r="Y123" s="339" t="s">
         <v>741</v>
       </c>
-      <c r="Z123" s="324"/>
-      <c r="AA123" s="324"/>
-      <c r="AB123" s="325"/>
+      <c r="Z123" s="340"/>
+      <c r="AA123" s="340"/>
+      <c r="AB123" s="341"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="201" t="s">
         <v>544</v>
       </c>
-      <c r="Y124" s="326" t="s">
+      <c r="Y124" s="342" t="s">
         <v>742</v>
       </c>
-      <c r="Z124" s="327"/>
-      <c r="AA124" s="327"/>
-      <c r="AB124" s="328"/>
+      <c r="Z124" s="343"/>
+      <c r="AA124" s="343"/>
+      <c r="AB124" s="344"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="201" t="s">
@@ -23501,6 +23501,26 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="29">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -23510,26 +23530,6 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -23587,18 +23587,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="423" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="424" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="414"/>
+      <c r="C3" s="424"/>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -29568,24 +29568,24 @@
       <c r="AV11" s="27"/>
     </row>
     <row r="12" spans="2:62" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="336" t="s">
+      <c r="C12" s="346" t="s">
         <v>584</v>
       </c>
-      <c r="D12" s="336"/>
-      <c r="E12" s="336"/>
-      <c r="F12" s="336"/>
-      <c r="G12" s="336" t="s">
+      <c r="D12" s="346"/>
+      <c r="E12" s="346"/>
+      <c r="F12" s="346"/>
+      <c r="G12" s="346" t="s">
         <v>583</v>
       </c>
-      <c r="H12" s="336"/>
-      <c r="I12" s="336"/>
-      <c r="J12" s="336"/>
-      <c r="K12" s="336" t="s">
+      <c r="H12" s="346"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="346"/>
+      <c r="K12" s="346" t="s">
         <v>585</v>
       </c>
-      <c r="L12" s="336"/>
-      <c r="M12" s="336"/>
-      <c r="N12" s="336"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -29609,30 +29609,30 @@
       <c r="B13" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="335" t="s">
+      <c r="C13" s="345" t="s">
         <v>586</v>
       </c>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335" t="s">
+      <c r="D13" s="345"/>
+      <c r="E13" s="345" t="s">
         <v>587</v>
       </c>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335" t="s">
+      <c r="F13" s="345"/>
+      <c r="G13" s="345" t="s">
         <v>588</v>
       </c>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335" t="s">
+      <c r="H13" s="345"/>
+      <c r="I13" s="345" t="s">
         <v>589</v>
       </c>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335" t="s">
+      <c r="J13" s="345"/>
+      <c r="K13" s="345" t="s">
         <v>590</v>
       </c>
-      <c r="L13" s="335"/>
-      <c r="M13" s="335" t="s">
+      <c r="L13" s="345"/>
+      <c r="M13" s="345" t="s">
         <v>591</v>
       </c>
-      <c r="N13" s="335"/>
+      <c r="N13" s="345"/>
       <c r="S13" s="17" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
@@ -34240,7 +34240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -34274,17 +34274,17 @@
       <c r="N2" s="92"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
-      <c r="U2" s="340" t="s">
+      <c r="U2" s="350" t="s">
         <v>632</v>
       </c>
-      <c r="V2" s="340"/>
-      <c r="W2" s="340"/>
-      <c r="X2" s="340"/>
-      <c r="Y2" s="340"/>
-      <c r="Z2" s="340"/>
-      <c r="AA2" s="340"/>
-      <c r="AB2" s="340"/>
-      <c r="AC2" s="340"/>
+      <c r="V2" s="350"/>
+      <c r="W2" s="350"/>
+      <c r="X2" s="350"/>
+      <c r="Y2" s="350"/>
+      <c r="Z2" s="350"/>
+      <c r="AA2" s="350"/>
+      <c r="AB2" s="350"/>
+      <c r="AC2" s="350"/>
       <c r="AD2" s="296" t="s">
         <v>545</v>
       </c>
@@ -34423,21 +34423,21 @@
       <c r="E5" s="75">
         <v>30</v>
       </c>
-      <c r="U5" s="340" t="s">
+      <c r="U5" s="350" t="s">
         <v>632</v>
       </c>
-      <c r="V5" s="340"/>
-      <c r="W5" s="340"/>
-      <c r="X5" s="340"/>
-      <c r="Y5" s="340"/>
-      <c r="Z5" s="340"/>
-      <c r="AA5" s="340"/>
-      <c r="AB5" s="340"/>
-      <c r="AC5" s="341" t="str">
+      <c r="V5" s="350"/>
+      <c r="W5" s="350"/>
+      <c r="X5" s="350"/>
+      <c r="Y5" s="350"/>
+      <c r="Z5" s="350"/>
+      <c r="AA5" s="350"/>
+      <c r="AB5" s="350"/>
+      <c r="AC5" s="351" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="AD5" s="341"/>
+      <c r="AD5" s="351"/>
       <c r="AG5" s="300" t="s">
         <v>545</v>
       </c>
@@ -34576,34 +34576,34 @@
       <c r="F8" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="G8" s="420" t="s">
+      <c r="G8" s="324" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="420" t="s">
+      <c r="H8" s="324" t="s">
         <v>457</v>
       </c>
-      <c r="I8" s="420" t="s">
+      <c r="I8" s="324" t="s">
         <v>458</v>
       </c>
-      <c r="J8" s="420" t="s">
+      <c r="J8" s="324" t="s">
         <v>459</v>
       </c>
-      <c r="K8" s="420" t="s">
+      <c r="K8" s="324" t="s">
         <v>460</v>
       </c>
-      <c r="L8" s="420" t="s">
+      <c r="L8" s="324" t="s">
         <v>461</v>
       </c>
-      <c r="M8" s="420" t="s">
+      <c r="M8" s="324" t="s">
         <v>462</v>
       </c>
-      <c r="N8" s="420" t="s">
+      <c r="N8" s="324" t="s">
         <v>463</v>
       </c>
-      <c r="O8" s="420" t="s">
+      <c r="O8" s="324" t="s">
         <v>464</v>
       </c>
-      <c r="P8" s="420" t="s">
+      <c r="P8" s="324" t="s">
         <v>465</v>
       </c>
       <c r="AG8" s="300" t="s">
@@ -34618,7 +34618,7 @@
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B9" s="417" t="s">
+      <c r="B9" s="321" t="s">
         <v>427</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -34686,7 +34686,7 @@
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B10" s="417" t="s">
+      <c r="B10" s="321" t="s">
         <v>443</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -34753,7 +34753,7 @@
       </c>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="321" t="s">
         <v>452</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -34821,7 +34821,7 @@
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="321" t="s">
         <v>428</v>
       </c>
       <c r="C12" s="55" t="s">
@@ -34889,7 +34889,7 @@
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B13" s="417" t="s">
+      <c r="B13" s="321" t="s">
         <v>631</v>
       </c>
       <c r="C13" s="55" t="s">
@@ -34957,7 +34957,7 @@
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="418" t="s">
+      <c r="B14" s="322" t="s">
         <v>632</v>
       </c>
       <c r="C14" s="202" t="s">
@@ -35024,7 +35024,7 @@
       </c>
     </row>
     <row r="15" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="417" t="s">
+      <c r="B15" s="321" t="s">
         <v>426</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -35092,7 +35092,7 @@
       </c>
     </row>
     <row r="16" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="417" t="s">
+      <c r="B16" s="321" t="s">
         <v>425</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -35160,7 +35160,7 @@
       </c>
     </row>
     <row r="17" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="419" t="s">
+      <c r="B17" s="323" t="s">
         <v>652</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -35228,7 +35228,7 @@
       </c>
     </row>
     <row r="18" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="418" t="s">
+      <c r="B18" s="322" t="s">
         <v>654</v>
       </c>
       <c r="C18" s="55" t="s">
@@ -35286,20 +35286,20 @@
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B19" s="417" t="s">
+      <c r="B19" s="321" t="s">
         <v>466</v>
       </c>
-      <c r="C19" s="421" t="s">
+      <c r="C19" s="325" t="s">
         <v>513</v>
       </c>
-      <c r="D19" s="422" t="s">
+      <c r="D19" s="326" t="s">
         <v>514</v>
       </c>
-      <c r="E19" s="423" t="str">
+      <c r="E19" s="327" t="str">
         <f>CONCATENATE("Todo en [psi]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="F19" s="424"/>
+      <c r="F19" s="328"/>
       <c r="G19" s="102">
         <f t="shared" ref="G19:P19" ca="1" si="2">SQRT(SUMSQ(G9:G18))</f>
         <v>0.15722231327806252</v>
@@ -36570,30 +36570,30 @@
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="337" t="s">
+      <c r="C68" s="347" t="s">
         <v>1111</v>
       </c>
-      <c r="D68" s="338"/>
-      <c r="E68" s="338"/>
-      <c r="F68" s="338"/>
-      <c r="G68" s="338"/>
-      <c r="H68" s="338"/>
-      <c r="I68" s="338"/>
-      <c r="J68" s="338"/>
-      <c r="K68" s="338"/>
-      <c r="L68" s="338"/>
-      <c r="M68" s="338"/>
-      <c r="N68" s="338"/>
-      <c r="O68" s="338"/>
-      <c r="P68" s="338"/>
-      <c r="Q68" s="338"/>
-      <c r="R68" s="338"/>
-      <c r="S68" s="338"/>
-      <c r="T68" s="338"/>
-      <c r="U68" s="338"/>
-      <c r="V68" s="338"/>
-      <c r="W68" s="338"/>
-      <c r="X68" s="339"/>
+      <c r="D68" s="348"/>
+      <c r="E68" s="348"/>
+      <c r="F68" s="348"/>
+      <c r="G68" s="348"/>
+      <c r="H68" s="348"/>
+      <c r="I68" s="348"/>
+      <c r="J68" s="348"/>
+      <c r="K68" s="348"/>
+      <c r="L68" s="348"/>
+      <c r="M68" s="348"/>
+      <c r="N68" s="348"/>
+      <c r="O68" s="348"/>
+      <c r="P68" s="348"/>
+      <c r="Q68" s="348"/>
+      <c r="R68" s="348"/>
+      <c r="S68" s="348"/>
+      <c r="T68" s="348"/>
+      <c r="U68" s="348"/>
+      <c r="V68" s="348"/>
+      <c r="W68" s="348"/>
+      <c r="X68" s="349"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C69" s="295" t="s">
@@ -36847,10 +36847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:Y129"/>
+  <dimension ref="A6:Y128"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A87" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:X114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36896,20 +36896,20 @@
       <c r="K8" s="226"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="382" t="str">
+      <c r="N8" s="360" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="361"/>
+      <c r="P8" s="361"/>
+      <c r="Q8" s="361"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="361"/>
+      <c r="T8" s="361"/>
+      <c r="U8" s="361"/>
+      <c r="V8" s="361"/>
+      <c r="W8" s="361"/>
+      <c r="X8" s="361"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="223" t="s">
@@ -36926,20 +36926,20 @@
       <c r="K9" s="226"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="381" t="str">
+      <c r="N9" s="362" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="363"/>
+      <c r="S9" s="363"/>
+      <c r="T9" s="363"/>
+      <c r="U9" s="363"/>
+      <c r="V9" s="363"/>
+      <c r="W9" s="363"/>
+      <c r="X9" s="363"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="223" t="s">
@@ -36956,20 +36956,20 @@
       <c r="K10" s="226"/>
       <c r="L10" s="227"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="383" t="str">
+      <c r="N10" s="364" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="383"/>
-      <c r="P10" s="383"/>
-      <c r="Q10" s="383"/>
-      <c r="R10" s="383"/>
-      <c r="S10" s="383"/>
-      <c r="T10" s="383"/>
-      <c r="U10" s="383"/>
-      <c r="V10" s="383"/>
-      <c r="W10" s="383"/>
-      <c r="X10" s="383"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
+      <c r="T10" s="364"/>
+      <c r="U10" s="364"/>
+      <c r="V10" s="364"/>
+      <c r="W10" s="364"/>
+      <c r="X10" s="364"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="223" t="s">
@@ -36986,13 +36986,13 @@
       <c r="K11" s="226"/>
       <c r="L11" s="227"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="383">
+      <c r="N11" s="364">
         <f ca="1">NOW()</f>
-        <v>45616.656537499999</v>
-      </c>
-      <c r="O11" s="383"/>
-      <c r="P11" s="383"/>
-      <c r="Q11" s="383"/>
+        <v>45735.950672569445</v>
+      </c>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
       <c r="R11" s="294"/>
       <c r="S11" s="294"/>
       <c r="T11" s="294"/>
@@ -37016,20 +37016,20 @@
       <c r="K12" s="226"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="381" t="str">
+      <c r="N12" s="362" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="363"/>
+      <c r="U12" s="363"/>
+      <c r="V12" s="363"/>
+      <c r="W12" s="363"/>
+      <c r="X12" s="363"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="223" t="s">
@@ -37046,20 +37046,20 @@
       <c r="K13" s="226"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="381" t="str">
+      <c r="N13" s="362" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="363"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="363"/>
+      <c r="S13" s="363"/>
+      <c r="T13" s="363"/>
+      <c r="U13" s="363"/>
+      <c r="V13" s="363"/>
+      <c r="W13" s="363"/>
+      <c r="X13" s="363"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="223" t="s">
@@ -37076,20 +37076,20 @@
       <c r="K14" s="226"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="381" t="str">
+      <c r="N14" s="362" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="363"/>
+      <c r="P14" s="363"/>
+      <c r="Q14" s="363"/>
+      <c r="R14" s="363"/>
+      <c r="S14" s="363"/>
+      <c r="T14" s="363"/>
+      <c r="U14" s="363"/>
+      <c r="V14" s="363"/>
+      <c r="W14" s="363"/>
+      <c r="X14" s="363"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="223" t="s">
@@ -37106,20 +37106,20 @@
       <c r="K15" s="226"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="381" t="str">
+      <c r="N15" s="362" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="363"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="363"/>
+      <c r="R15" s="363"/>
+      <c r="S15" s="363"/>
+      <c r="T15" s="363"/>
+      <c r="U15" s="363"/>
+      <c r="V15" s="363"/>
+      <c r="W15" s="363"/>
+      <c r="X15" s="363"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="223" t="s">
@@ -37136,20 +37136,20 @@
       <c r="K16" s="226"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="381" t="str">
+      <c r="N16" s="362" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="363"/>
+      <c r="U16" s="363"/>
+      <c r="V16" s="363"/>
+      <c r="W16" s="363"/>
+      <c r="X16" s="363"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="223" t="s">
@@ -37166,16 +37166,16 @@
       <c r="K17" s="226"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="381" t="str">
+      <c r="N17" s="362" t="str">
         <f>General!F15</f>
         <v>0.5</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="381" t="str">
+      <c r="O17" s="363"/>
+      <c r="P17" s="362" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="363"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -37199,20 +37199,20 @@
       <c r="K18" s="226"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="381" t="str">
+      <c r="N18" s="362" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="363"/>
+      <c r="P18" s="363"/>
+      <c r="Q18" s="363"/>
+      <c r="R18" s="363"/>
+      <c r="S18" s="363"/>
+      <c r="T18" s="363"/>
+      <c r="U18" s="363"/>
+      <c r="V18" s="363"/>
+      <c r="W18" s="363"/>
+      <c r="X18" s="363"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="223" t="s">
@@ -37229,20 +37229,20 @@
       <c r="K19" s="226"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="381" t="str">
+      <c r="N19" s="362" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="363"/>
+      <c r="P19" s="363"/>
+      <c r="Q19" s="363"/>
+      <c r="R19" s="363"/>
+      <c r="S19" s="363"/>
+      <c r="T19" s="363"/>
+      <c r="U19" s="363"/>
+      <c r="V19" s="363"/>
+      <c r="W19" s="363"/>
+      <c r="X19" s="363"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="228" t="s">
@@ -37259,20 +37259,20 @@
       <c r="K20" s="226"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="363" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="363"/>
+      <c r="P20" s="363"/>
+      <c r="Q20" s="363"/>
+      <c r="R20" s="363"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="363"/>
+      <c r="U20" s="363"/>
+      <c r="V20" s="363"/>
+      <c r="W20" s="363"/>
+      <c r="X20" s="363"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="223" t="s">
@@ -37289,34 +37289,34 @@
       <c r="K21" s="226"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="384" t="str">
+      <c r="N21" s="365" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="384"/>
-      <c r="P21" s="384"/>
-      <c r="Q21" s="384"/>
-      <c r="R21" s="384"/>
-      <c r="S21" s="384"/>
-      <c r="T21" s="384"/>
-      <c r="U21" s="384"/>
-      <c r="V21" s="384"/>
-      <c r="W21" s="384"/>
-      <c r="X21" s="384"/>
+      <c r="O21" s="365"/>
+      <c r="P21" s="365"/>
+      <c r="Q21" s="365"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="365"/>
+      <c r="T21" s="365"/>
+      <c r="U21" s="365"/>
+      <c r="V21" s="365"/>
+      <c r="W21" s="365"/>
+      <c r="X21" s="365"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="223"/>
-      <c r="N22" s="384"/>
-      <c r="O22" s="384"/>
-      <c r="P22" s="384"/>
-      <c r="Q22" s="384"/>
-      <c r="R22" s="384"/>
-      <c r="S22" s="384"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="384"/>
-      <c r="V22" s="384"/>
-      <c r="W22" s="384"/>
-      <c r="X22" s="384"/>
+      <c r="N22" s="365"/>
+      <c r="O22" s="365"/>
+      <c r="P22" s="365"/>
+      <c r="Q22" s="365"/>
+      <c r="R22" s="365"/>
+      <c r="S22" s="365"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="365"/>
+      <c r="W22" s="365"/>
+      <c r="X22" s="365"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="223" t="s">
@@ -37331,1041 +37331,1041 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="370" t="s">
+      <c r="D24" s="366" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="370"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="370"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="370"/>
-      <c r="J24" s="370"/>
-      <c r="K24" s="370"/>
-      <c r="L24" s="370"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="370"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="370"/>
-      <c r="U24" s="370"/>
-      <c r="V24" s="370"/>
-      <c r="W24" s="370"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
+      <c r="K24" s="366"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="366"/>
+      <c r="O24" s="366"/>
+      <c r="P24" s="366"/>
+      <c r="Q24" s="366"/>
+      <c r="R24" s="366"/>
+      <c r="S24" s="366"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="366"/>
+      <c r="V24" s="366"/>
+      <c r="W24" s="366"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="371" t="s">
+      <c r="D25" s="367" t="s">
         <v>628</v>
       </c>
-      <c r="E25" s="371"/>
-      <c r="F25" s="372" t="s">
+      <c r="E25" s="367"/>
+      <c r="F25" s="368" t="s">
         <v>693</v>
       </c>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
-      <c r="I25" s="372"/>
-      <c r="J25" s="372"/>
-      <c r="K25" s="372"/>
-      <c r="L25" s="372" t="s">
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
+      <c r="J25" s="368"/>
+      <c r="K25" s="368"/>
+      <c r="L25" s="368" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="372"/>
-      <c r="N25" s="372"/>
-      <c r="O25" s="372"/>
-      <c r="P25" s="372"/>
-      <c r="Q25" s="372"/>
-      <c r="R25" s="371" t="s">
+      <c r="M25" s="368"/>
+      <c r="N25" s="368"/>
+      <c r="O25" s="368"/>
+      <c r="P25" s="368"/>
+      <c r="Q25" s="368"/>
+      <c r="R25" s="367" t="s">
         <v>694</v>
       </c>
-      <c r="S25" s="371"/>
-      <c r="T25" s="371"/>
-      <c r="U25" s="371"/>
-      <c r="V25" s="371"/>
-      <c r="W25" s="371"/>
+      <c r="S25" s="367"/>
+      <c r="T25" s="367"/>
+      <c r="U25" s="367"/>
+      <c r="V25" s="367"/>
+      <c r="W25" s="367"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="371"/>
-      <c r="E26" s="371"/>
-      <c r="F26" s="372"/>
-      <c r="G26" s="372"/>
-      <c r="H26" s="372"/>
-      <c r="I26" s="372"/>
-      <c r="J26" s="372"/>
-      <c r="K26" s="372"/>
-      <c r="L26" s="372"/>
-      <c r="M26" s="372"/>
-      <c r="N26" s="372"/>
-      <c r="O26" s="372"/>
-      <c r="P26" s="372"/>
-      <c r="Q26" s="372"/>
-      <c r="R26" s="371"/>
-      <c r="S26" s="371"/>
-      <c r="T26" s="371"/>
-      <c r="U26" s="371"/>
-      <c r="V26" s="371"/>
-      <c r="W26" s="371"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368"/>
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="373" t="str">
+      <c r="D27" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="373"/>
-      <c r="F27" s="374" t="str">
+      <c r="E27" s="369"/>
+      <c r="F27" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="375"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="375"/>
-      <c r="J27" s="375"/>
-      <c r="K27" s="376"/>
-      <c r="L27" s="374" t="str">
+      <c r="G27" s="371"/>
+      <c r="H27" s="371"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="372"/>
+      <c r="L27" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="375"/>
-      <c r="N27" s="375"/>
-      <c r="O27" s="375"/>
-      <c r="P27" s="375"/>
-      <c r="Q27" s="376"/>
-      <c r="R27" s="374" t="str">
+      <c r="M27" s="371"/>
+      <c r="N27" s="371"/>
+      <c r="O27" s="371"/>
+      <c r="P27" s="371"/>
+      <c r="Q27" s="372"/>
+      <c r="R27" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="375"/>
-      <c r="T27" s="375"/>
-      <c r="U27" s="375"/>
-      <c r="V27" s="375"/>
-      <c r="W27" s="376"/>
+      <c r="S27" s="371"/>
+      <c r="T27" s="371"/>
+      <c r="U27" s="371"/>
+      <c r="V27" s="371"/>
+      <c r="W27" s="372"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="377">
+      <c r="D28" s="352">
         <f ca="1">Calibración!C38</f>
         <v>6.9374475000000002</v>
       </c>
-      <c r="E28" s="377"/>
-      <c r="F28" s="378">
+      <c r="E28" s="352"/>
+      <c r="F28" s="353">
         <f ca="1">Calibración!D38</f>
         <v>7</v>
       </c>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="379"/>
-      <c r="K28" s="380"/>
-      <c r="L28" s="378">
+      <c r="G28" s="354"/>
+      <c r="H28" s="354"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="355"/>
+      <c r="L28" s="353">
         <f ca="1">Calibración!E38</f>
         <v>-6.2552499999999789E-2</v>
       </c>
-      <c r="M28" s="379"/>
-      <c r="N28" s="379"/>
-      <c r="O28" s="379"/>
-      <c r="P28" s="379"/>
-      <c r="Q28" s="380"/>
-      <c r="R28" s="378">
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="355"/>
+      <c r="R28" s="353">
         <f ca="1">Calibración!F38</f>
         <v>0.31444462655612504</v>
       </c>
-      <c r="S28" s="379"/>
-      <c r="T28" s="379"/>
-      <c r="U28" s="379"/>
-      <c r="V28" s="379"/>
-      <c r="W28" s="380"/>
+      <c r="S28" s="354"/>
+      <c r="T28" s="354"/>
+      <c r="U28" s="354"/>
+      <c r="V28" s="354"/>
+      <c r="W28" s="355"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="377">
+      <c r="D29" s="352">
         <f ca="1">Calibración!C39</f>
         <v>9.9586176000000002</v>
       </c>
-      <c r="E29" s="377"/>
-      <c r="F29" s="378">
+      <c r="E29" s="352"/>
+      <c r="F29" s="353">
         <f ca="1">Calibración!D39</f>
         <v>10</v>
       </c>
-      <c r="G29" s="379"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="379"/>
-      <c r="J29" s="379"/>
-      <c r="K29" s="380"/>
-      <c r="L29" s="378">
+      <c r="G29" s="354"/>
+      <c r="H29" s="354"/>
+      <c r="I29" s="354"/>
+      <c r="J29" s="354"/>
+      <c r="K29" s="355"/>
+      <c r="L29" s="353">
         <f ca="1">Calibración!E39</f>
         <v>-4.1382399999999819E-2</v>
       </c>
-      <c r="M29" s="379"/>
-      <c r="N29" s="379"/>
-      <c r="O29" s="379"/>
-      <c r="P29" s="379"/>
-      <c r="Q29" s="380"/>
-      <c r="R29" s="378">
+      <c r="M29" s="354"/>
+      <c r="N29" s="354"/>
+      <c r="O29" s="354"/>
+      <c r="P29" s="354"/>
+      <c r="Q29" s="355"/>
+      <c r="R29" s="353">
         <f ca="1">Calibración!F39</f>
         <v>0.3029624617203534</v>
       </c>
-      <c r="S29" s="379"/>
-      <c r="T29" s="379"/>
-      <c r="U29" s="379"/>
-      <c r="V29" s="379"/>
-      <c r="W29" s="380"/>
+      <c r="S29" s="354"/>
+      <c r="T29" s="354"/>
+      <c r="U29" s="354"/>
+      <c r="V29" s="354"/>
+      <c r="W29" s="355"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="377">
+      <c r="D30" s="352">
         <f ca="1">Calibración!C40</f>
         <v>17.942603100000003</v>
       </c>
-      <c r="E30" s="377"/>
-      <c r="F30" s="378">
+      <c r="E30" s="352"/>
+      <c r="F30" s="353">
         <f ca="1">Calibración!D40</f>
         <v>18</v>
       </c>
-      <c r="G30" s="379"/>
-      <c r="H30" s="379"/>
-      <c r="I30" s="379"/>
-      <c r="J30" s="379"/>
-      <c r="K30" s="380"/>
-      <c r="L30" s="378">
+      <c r="G30" s="354"/>
+      <c r="H30" s="354"/>
+      <c r="I30" s="354"/>
+      <c r="J30" s="354"/>
+      <c r="K30" s="355"/>
+      <c r="L30" s="353">
         <f ca="1">Calibración!E40</f>
         <v>-5.7396899999996975E-2</v>
       </c>
-      <c r="M30" s="379"/>
-      <c r="N30" s="379"/>
-      <c r="O30" s="379"/>
-      <c r="P30" s="379"/>
-      <c r="Q30" s="380"/>
-      <c r="R30" s="378">
+      <c r="M30" s="354"/>
+      <c r="N30" s="354"/>
+      <c r="O30" s="354"/>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="355"/>
+      <c r="R30" s="353">
         <f ca="1">Calibración!F40</f>
         <v>0.30169230724994645</v>
       </c>
-      <c r="S30" s="379"/>
-      <c r="T30" s="379"/>
-      <c r="U30" s="379"/>
-      <c r="V30" s="379"/>
-      <c r="W30" s="380"/>
+      <c r="S30" s="354"/>
+      <c r="T30" s="354"/>
+      <c r="U30" s="354"/>
+      <c r="V30" s="354"/>
+      <c r="W30" s="355"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="377">
+      <c r="D31" s="352">
         <f ca="1">Calibración!C41</f>
         <v>24.944520900000001</v>
       </c>
-      <c r="E31" s="377"/>
-      <c r="F31" s="378">
+      <c r="E31" s="352"/>
+      <c r="F31" s="353">
         <f ca="1">Calibración!D41</f>
         <v>25</v>
       </c>
-      <c r="G31" s="379"/>
-      <c r="H31" s="379"/>
-      <c r="I31" s="379"/>
-      <c r="J31" s="379"/>
-      <c r="K31" s="380"/>
-      <c r="L31" s="378">
+      <c r="G31" s="354"/>
+      <c r="H31" s="354"/>
+      <c r="I31" s="354"/>
+      <c r="J31" s="354"/>
+      <c r="K31" s="355"/>
+      <c r="L31" s="353">
         <f ca="1">Calibración!E41</f>
         <v>-5.5479099999999448E-2</v>
       </c>
-      <c r="M31" s="379"/>
-      <c r="N31" s="379"/>
-      <c r="O31" s="379"/>
-      <c r="P31" s="379"/>
-      <c r="Q31" s="380"/>
-      <c r="R31" s="378">
+      <c r="M31" s="354"/>
+      <c r="N31" s="354"/>
+      <c r="O31" s="354"/>
+      <c r="P31" s="354"/>
+      <c r="Q31" s="355"/>
+      <c r="R31" s="353">
         <f ca="1">Calibración!F41</f>
         <v>0.3084262967178707</v>
       </c>
-      <c r="S31" s="379"/>
-      <c r="T31" s="379"/>
-      <c r="U31" s="379"/>
-      <c r="V31" s="379"/>
-      <c r="W31" s="380"/>
+      <c r="S31" s="354"/>
+      <c r="T31" s="354"/>
+      <c r="U31" s="354"/>
+      <c r="V31" s="354"/>
+      <c r="W31" s="355"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="377">
+      <c r="D32" s="352">
         <f ca="1">Calibración!C42</f>
         <v>34.915131899999992</v>
       </c>
-      <c r="E32" s="377"/>
-      <c r="F32" s="378">
+      <c r="E32" s="352"/>
+      <c r="F32" s="353">
         <f ca="1">Calibración!D42</f>
         <v>35</v>
       </c>
-      <c r="G32" s="379"/>
-      <c r="H32" s="379"/>
-      <c r="I32" s="379"/>
-      <c r="J32" s="379"/>
-      <c r="K32" s="380"/>
-      <c r="L32" s="378">
+      <c r="G32" s="354"/>
+      <c r="H32" s="354"/>
+      <c r="I32" s="354"/>
+      <c r="J32" s="354"/>
+      <c r="K32" s="355"/>
+      <c r="L32" s="353">
         <f ca="1">Calibración!E42</f>
         <v>-8.486810000000844E-2</v>
       </c>
-      <c r="M32" s="379"/>
-      <c r="N32" s="379"/>
-      <c r="O32" s="379"/>
-      <c r="P32" s="379"/>
-      <c r="Q32" s="380"/>
-      <c r="R32" s="378">
+      <c r="M32" s="354"/>
+      <c r="N32" s="354"/>
+      <c r="O32" s="354"/>
+      <c r="P32" s="354"/>
+      <c r="Q32" s="355"/>
+      <c r="R32" s="353">
         <f ca="1">Calibración!F42</f>
         <v>0.33362408938287968</v>
       </c>
-      <c r="S32" s="379"/>
-      <c r="T32" s="379"/>
-      <c r="U32" s="379"/>
-      <c r="V32" s="379"/>
-      <c r="W32" s="380"/>
+      <c r="S32" s="354"/>
+      <c r="T32" s="354"/>
+      <c r="U32" s="354"/>
+      <c r="V32" s="354"/>
+      <c r="W32" s="355"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="377">
+      <c r="D33" s="352">
         <f ca="1">Calibración!C43</f>
         <v>52.946237200000006</v>
       </c>
-      <c r="E33" s="377"/>
-      <c r="F33" s="378">
+      <c r="E33" s="352"/>
+      <c r="F33" s="353">
         <f ca="1">Calibración!D43</f>
         <v>53</v>
       </c>
-      <c r="G33" s="379"/>
-      <c r="H33" s="379"/>
-      <c r="I33" s="379"/>
-      <c r="J33" s="379"/>
-      <c r="K33" s="380"/>
-      <c r="L33" s="378">
+      <c r="G33" s="354"/>
+      <c r="H33" s="354"/>
+      <c r="I33" s="354"/>
+      <c r="J33" s="354"/>
+      <c r="K33" s="355"/>
+      <c r="L33" s="353">
         <f ca="1">Calibración!E43</f>
         <v>-5.3762799999994115E-2</v>
       </c>
-      <c r="M33" s="379"/>
-      <c r="N33" s="379"/>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="380"/>
-      <c r="R33" s="378">
+      <c r="M33" s="354"/>
+      <c r="N33" s="354"/>
+      <c r="O33" s="354"/>
+      <c r="P33" s="354"/>
+      <c r="Q33" s="355"/>
+      <c r="R33" s="353">
         <f ca="1">Calibración!F43</f>
         <v>0.30844957614128898</v>
       </c>
-      <c r="S33" s="379"/>
-      <c r="T33" s="379"/>
-      <c r="U33" s="379"/>
-      <c r="V33" s="379"/>
-      <c r="W33" s="380"/>
+      <c r="S33" s="354"/>
+      <c r="T33" s="354"/>
+      <c r="U33" s="354"/>
+      <c r="V33" s="354"/>
+      <c r="W33" s="355"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="377">
+      <c r="D34" s="352">
         <f ca="1">Calibración!C44</f>
         <v>69.935096200000004</v>
       </c>
-      <c r="E34" s="377"/>
-      <c r="F34" s="378">
+      <c r="E34" s="352"/>
+      <c r="F34" s="353">
         <f ca="1">Calibración!D44</f>
         <v>70</v>
       </c>
-      <c r="G34" s="379"/>
-      <c r="H34" s="379"/>
-      <c r="I34" s="379"/>
-      <c r="J34" s="379"/>
-      <c r="K34" s="380"/>
-      <c r="L34" s="378">
+      <c r="G34" s="354"/>
+      <c r="H34" s="354"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="354"/>
+      <c r="K34" s="355"/>
+      <c r="L34" s="353">
         <f ca="1">Calibración!E44</f>
         <v>-6.4903799999996181E-2</v>
       </c>
-      <c r="M34" s="379"/>
-      <c r="N34" s="379"/>
-      <c r="O34" s="379"/>
-      <c r="P34" s="379"/>
-      <c r="Q34" s="380"/>
-      <c r="R34" s="378">
+      <c r="M34" s="354"/>
+      <c r="N34" s="354"/>
+      <c r="O34" s="354"/>
+      <c r="P34" s="354"/>
+      <c r="Q34" s="355"/>
+      <c r="R34" s="353">
         <f ca="1">Calibración!F44</f>
         <v>0.30371455016151777</v>
       </c>
-      <c r="S34" s="379"/>
-      <c r="T34" s="379"/>
-      <c r="U34" s="379"/>
-      <c r="V34" s="379"/>
-      <c r="W34" s="380"/>
+      <c r="S34" s="354"/>
+      <c r="T34" s="354"/>
+      <c r="U34" s="354"/>
+      <c r="V34" s="354"/>
+      <c r="W34" s="355"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="377">
+      <c r="D35" s="352">
         <f ca="1">Calibración!C45</f>
         <v>200.08298425000001</v>
       </c>
-      <c r="E35" s="377"/>
-      <c r="F35" s="378">
+      <c r="E35" s="352"/>
+      <c r="F35" s="353">
         <f ca="1">Calibración!D45</f>
         <v>200</v>
       </c>
-      <c r="G35" s="379"/>
-      <c r="H35" s="379"/>
-      <c r="I35" s="379"/>
-      <c r="J35" s="379"/>
-      <c r="K35" s="380"/>
-      <c r="L35" s="378">
+      <c r="G35" s="354"/>
+      <c r="H35" s="354"/>
+      <c r="I35" s="354"/>
+      <c r="J35" s="354"/>
+      <c r="K35" s="355"/>
+      <c r="L35" s="353">
         <f ca="1">Calibración!E45</f>
         <v>8.2984250000009752E-2</v>
       </c>
-      <c r="M35" s="379"/>
-      <c r="N35" s="379"/>
-      <c r="O35" s="379"/>
-      <c r="P35" s="379"/>
-      <c r="Q35" s="380"/>
-      <c r="R35" s="378">
+      <c r="M35" s="354"/>
+      <c r="N35" s="354"/>
+      <c r="O35" s="354"/>
+      <c r="P35" s="354"/>
+      <c r="Q35" s="355"/>
+      <c r="R35" s="353">
         <f ca="1">Calibración!F45</f>
         <v>0.30253243749182424</v>
       </c>
-      <c r="S35" s="379"/>
-      <c r="T35" s="379"/>
-      <c r="U35" s="379"/>
-      <c r="V35" s="379"/>
-      <c r="W35" s="380"/>
+      <c r="S35" s="354"/>
+      <c r="T35" s="354"/>
+      <c r="U35" s="354"/>
+      <c r="V35" s="354"/>
+      <c r="W35" s="355"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="377" t="str">
+      <c r="D36" s="352" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="377"/>
-      <c r="F36" s="378" t="str">
+      <c r="E36" s="352"/>
+      <c r="F36" s="353" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="379"/>
-      <c r="H36" s="379"/>
-      <c r="I36" s="379"/>
-      <c r="J36" s="379"/>
-      <c r="K36" s="380"/>
-      <c r="L36" s="378" t="str">
+      <c r="G36" s="354"/>
+      <c r="H36" s="354"/>
+      <c r="I36" s="354"/>
+      <c r="J36" s="354"/>
+      <c r="K36" s="355"/>
+      <c r="L36" s="353" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="379"/>
-      <c r="N36" s="379"/>
-      <c r="O36" s="379"/>
-      <c r="P36" s="379"/>
-      <c r="Q36" s="380"/>
-      <c r="R36" s="378" t="str">
+      <c r="M36" s="354"/>
+      <c r="N36" s="354"/>
+      <c r="O36" s="354"/>
+      <c r="P36" s="354"/>
+      <c r="Q36" s="355"/>
+      <c r="R36" s="353" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="379"/>
-      <c r="T36" s="379"/>
-      <c r="U36" s="379"/>
-      <c r="V36" s="379"/>
-      <c r="W36" s="380"/>
+      <c r="S36" s="354"/>
+      <c r="T36" s="354"/>
+      <c r="U36" s="354"/>
+      <c r="V36" s="354"/>
+      <c r="W36" s="355"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="377" t="str">
+      <c r="D37" s="352" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="377"/>
-      <c r="F37" s="378" t="str">
+      <c r="E37" s="352"/>
+      <c r="F37" s="353" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="380"/>
-      <c r="L37" s="378" t="str">
+      <c r="G37" s="354"/>
+      <c r="H37" s="354"/>
+      <c r="I37" s="354"/>
+      <c r="J37" s="354"/>
+      <c r="K37" s="355"/>
+      <c r="L37" s="353" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="380"/>
-      <c r="R37" s="378" t="str">
+      <c r="M37" s="354"/>
+      <c r="N37" s="354"/>
+      <c r="O37" s="354"/>
+      <c r="P37" s="354"/>
+      <c r="Q37" s="355"/>
+      <c r="R37" s="353" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="379"/>
-      <c r="T37" s="379"/>
-      <c r="U37" s="379"/>
-      <c r="V37" s="379"/>
-      <c r="W37" s="380"/>
+      <c r="S37" s="354"/>
+      <c r="T37" s="354"/>
+      <c r="U37" s="354"/>
+      <c r="V37" s="354"/>
+      <c r="W37" s="355"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="377" t="str">
+      <c r="D38" s="352" t="str">
         <f ca="1">Calibración!C48</f>
         <v/>
       </c>
-      <c r="E38" s="377"/>
-      <c r="F38" s="378" t="str">
+      <c r="E38" s="352"/>
+      <c r="F38" s="353" t="str">
         <f ca="1">Calibración!D48</f>
         <v/>
       </c>
-      <c r="G38" s="379"/>
-      <c r="H38" s="379"/>
-      <c r="I38" s="379"/>
-      <c r="J38" s="379"/>
-      <c r="K38" s="380"/>
-      <c r="L38" s="378" t="str">
+      <c r="G38" s="354"/>
+      <c r="H38" s="354"/>
+      <c r="I38" s="354"/>
+      <c r="J38" s="354"/>
+      <c r="K38" s="355"/>
+      <c r="L38" s="353" t="str">
         <f ca="1">Calibración!E48</f>
         <v/>
       </c>
-      <c r="M38" s="379"/>
-      <c r="N38" s="379"/>
-      <c r="O38" s="379"/>
-      <c r="P38" s="379"/>
-      <c r="Q38" s="380"/>
-      <c r="R38" s="378" t="str">
+      <c r="M38" s="354"/>
+      <c r="N38" s="354"/>
+      <c r="O38" s="354"/>
+      <c r="P38" s="354"/>
+      <c r="Q38" s="355"/>
+      <c r="R38" s="353" t="str">
         <f ca="1">Calibración!F48</f>
         <v/>
       </c>
-      <c r="S38" s="379"/>
-      <c r="T38" s="379"/>
-      <c r="U38" s="379"/>
-      <c r="V38" s="379"/>
-      <c r="W38" s="380"/>
+      <c r="S38" s="354"/>
+      <c r="T38" s="354"/>
+      <c r="U38" s="354"/>
+      <c r="V38" s="354"/>
+      <c r="W38" s="355"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="377" t="str">
+      <c r="D39" s="352" t="str">
         <f ca="1">Calibración!C49</f>
         <v/>
       </c>
-      <c r="E39" s="377"/>
-      <c r="F39" s="378" t="str">
+      <c r="E39" s="352"/>
+      <c r="F39" s="353" t="str">
         <f ca="1">Calibración!D49</f>
         <v/>
       </c>
-      <c r="G39" s="379"/>
-      <c r="H39" s="379"/>
-      <c r="I39" s="379"/>
-      <c r="J39" s="379"/>
-      <c r="K39" s="380"/>
-      <c r="L39" s="378" t="str">
+      <c r="G39" s="354"/>
+      <c r="H39" s="354"/>
+      <c r="I39" s="354"/>
+      <c r="J39" s="354"/>
+      <c r="K39" s="355"/>
+      <c r="L39" s="353" t="str">
         <f ca="1">Calibración!E49</f>
         <v/>
       </c>
-      <c r="M39" s="379"/>
-      <c r="N39" s="379"/>
-      <c r="O39" s="379"/>
-      <c r="P39" s="379"/>
-      <c r="Q39" s="380"/>
-      <c r="R39" s="378" t="str">
+      <c r="M39" s="354"/>
+      <c r="N39" s="354"/>
+      <c r="O39" s="354"/>
+      <c r="P39" s="354"/>
+      <c r="Q39" s="355"/>
+      <c r="R39" s="353" t="str">
         <f ca="1">Calibración!F49</f>
         <v/>
       </c>
-      <c r="S39" s="379"/>
-      <c r="T39" s="379"/>
-      <c r="U39" s="379"/>
-      <c r="V39" s="379"/>
-      <c r="W39" s="380"/>
+      <c r="S39" s="354"/>
+      <c r="T39" s="354"/>
+      <c r="U39" s="354"/>
+      <c r="V39" s="354"/>
+      <c r="W39" s="355"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="377" t="str">
+      <c r="D40" s="352" t="str">
         <f ca="1">Calibración!C50</f>
         <v/>
       </c>
-      <c r="E40" s="377"/>
-      <c r="F40" s="378" t="str">
+      <c r="E40" s="352"/>
+      <c r="F40" s="353" t="str">
         <f ca="1">Calibración!D50</f>
         <v/>
       </c>
-      <c r="G40" s="379"/>
-      <c r="H40" s="379"/>
-      <c r="I40" s="379"/>
-      <c r="J40" s="379"/>
-      <c r="K40" s="380"/>
-      <c r="L40" s="378" t="str">
+      <c r="G40" s="354"/>
+      <c r="H40" s="354"/>
+      <c r="I40" s="354"/>
+      <c r="J40" s="354"/>
+      <c r="K40" s="355"/>
+      <c r="L40" s="353" t="str">
         <f ca="1">Calibración!E50</f>
         <v/>
       </c>
-      <c r="M40" s="379"/>
-      <c r="N40" s="379"/>
-      <c r="O40" s="379"/>
-      <c r="P40" s="379"/>
-      <c r="Q40" s="380"/>
-      <c r="R40" s="378" t="str">
+      <c r="M40" s="354"/>
+      <c r="N40" s="354"/>
+      <c r="O40" s="354"/>
+      <c r="P40" s="354"/>
+      <c r="Q40" s="355"/>
+      <c r="R40" s="353" t="str">
         <f ca="1">Calibración!F50</f>
         <v/>
       </c>
-      <c r="S40" s="379"/>
-      <c r="T40" s="379"/>
-      <c r="U40" s="379"/>
-      <c r="V40" s="379"/>
-      <c r="W40" s="380"/>
+      <c r="S40" s="354"/>
+      <c r="T40" s="354"/>
+      <c r="U40" s="354"/>
+      <c r="V40" s="354"/>
+      <c r="W40" s="355"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="377" t="str">
+      <c r="D41" s="352" t="str">
         <f ca="1">Calibración!C51</f>
         <v/>
       </c>
-      <c r="E41" s="377"/>
-      <c r="F41" s="378" t="str">
+      <c r="E41" s="352"/>
+      <c r="F41" s="353" t="str">
         <f ca="1">Calibración!D51</f>
         <v/>
       </c>
-      <c r="G41" s="379"/>
-      <c r="H41" s="379"/>
-      <c r="I41" s="379"/>
-      <c r="J41" s="379"/>
-      <c r="K41" s="380"/>
-      <c r="L41" s="378" t="str">
+      <c r="G41" s="354"/>
+      <c r="H41" s="354"/>
+      <c r="I41" s="354"/>
+      <c r="J41" s="354"/>
+      <c r="K41" s="355"/>
+      <c r="L41" s="353" t="str">
         <f ca="1">Calibración!E51</f>
         <v/>
       </c>
-      <c r="M41" s="379"/>
-      <c r="N41" s="379"/>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="380"/>
-      <c r="R41" s="378" t="str">
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="354"/>
+      <c r="P41" s="354"/>
+      <c r="Q41" s="355"/>
+      <c r="R41" s="353" t="str">
         <f ca="1">Calibración!F51</f>
         <v/>
       </c>
-      <c r="S41" s="379"/>
-      <c r="T41" s="379"/>
-      <c r="U41" s="379"/>
-      <c r="V41" s="379"/>
-      <c r="W41" s="380"/>
+      <c r="S41" s="354"/>
+      <c r="T41" s="354"/>
+      <c r="U41" s="354"/>
+      <c r="V41" s="354"/>
+      <c r="W41" s="355"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="415"/>
-      <c r="E42" s="415"/>
-      <c r="F42" s="415"/>
-      <c r="G42" s="415"/>
-      <c r="H42" s="415"/>
-      <c r="I42" s="415"/>
-      <c r="J42" s="415"/>
-      <c r="K42" s="415"/>
-      <c r="L42" s="415"/>
-      <c r="M42" s="415"/>
-      <c r="N42" s="415"/>
-      <c r="O42" s="415"/>
-      <c r="P42" s="415"/>
-      <c r="Q42" s="415"/>
-      <c r="R42" s="415"/>
-      <c r="S42" s="415"/>
-      <c r="T42" s="415"/>
-      <c r="U42" s="415"/>
-      <c r="V42" s="415"/>
-      <c r="W42" s="415"/>
+      <c r="D42" s="319"/>
+      <c r="E42" s="319"/>
+      <c r="F42" s="319"/>
+      <c r="G42" s="319"/>
+      <c r="H42" s="319"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="319"/>
+      <c r="N42" s="319"/>
+      <c r="O42" s="319"/>
+      <c r="P42" s="319"/>
+      <c r="Q42" s="319"/>
+      <c r="R42" s="319"/>
+      <c r="S42" s="319"/>
+      <c r="T42" s="319"/>
+      <c r="U42" s="319"/>
+      <c r="V42" s="319"/>
+      <c r="W42" s="319"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="415"/>
-      <c r="E43" s="415"/>
-      <c r="F43" s="415"/>
-      <c r="G43" s="415"/>
-      <c r="H43" s="415"/>
-      <c r="I43" s="415"/>
-      <c r="J43" s="415"/>
-      <c r="K43" s="415"/>
-      <c r="L43" s="415"/>
-      <c r="M43" s="415"/>
-      <c r="N43" s="415"/>
-      <c r="O43" s="415"/>
-      <c r="P43" s="415"/>
-      <c r="Q43" s="415"/>
-      <c r="R43" s="415"/>
-      <c r="S43" s="415"/>
-      <c r="T43" s="415"/>
-      <c r="U43" s="415"/>
-      <c r="V43" s="415"/>
-      <c r="W43" s="415"/>
+      <c r="D43" s="319"/>
+      <c r="E43" s="319"/>
+      <c r="F43" s="319"/>
+      <c r="G43" s="319"/>
+      <c r="H43" s="319"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="319"/>
+      <c r="N43" s="319"/>
+      <c r="O43" s="319"/>
+      <c r="P43" s="319"/>
+      <c r="Q43" s="319"/>
+      <c r="R43" s="319"/>
+      <c r="S43" s="319"/>
+      <c r="T43" s="319"/>
+      <c r="U43" s="319"/>
+      <c r="V43" s="319"/>
+      <c r="W43" s="319"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="415"/>
-      <c r="E44" s="415"/>
-      <c r="F44" s="415"/>
-      <c r="G44" s="415"/>
-      <c r="H44" s="415"/>
-      <c r="I44" s="415"/>
-      <c r="J44" s="415"/>
-      <c r="K44" s="415"/>
-      <c r="L44" s="415"/>
-      <c r="M44" s="415"/>
-      <c r="N44" s="415"/>
-      <c r="O44" s="415"/>
-      <c r="P44" s="415"/>
-      <c r="Q44" s="415"/>
-      <c r="R44" s="415"/>
-      <c r="S44" s="415"/>
-      <c r="T44" s="415"/>
-      <c r="U44" s="415"/>
-      <c r="V44" s="415"/>
-      <c r="W44" s="415"/>
+      <c r="D44" s="319"/>
+      <c r="E44" s="319"/>
+      <c r="F44" s="319"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="319"/>
+      <c r="I44" s="319"/>
+      <c r="J44" s="319"/>
+      <c r="K44" s="319"/>
+      <c r="L44" s="319"/>
+      <c r="M44" s="319"/>
+      <c r="N44" s="319"/>
+      <c r="O44" s="319"/>
+      <c r="P44" s="319"/>
+      <c r="Q44" s="319"/>
+      <c r="R44" s="319"/>
+      <c r="S44" s="319"/>
+      <c r="T44" s="319"/>
+      <c r="U44" s="319"/>
+      <c r="V44" s="319"/>
+      <c r="W44" s="319"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="415"/>
-      <c r="E45" s="415"/>
-      <c r="F45" s="415"/>
-      <c r="G45" s="415"/>
-      <c r="H45" s="415"/>
-      <c r="I45" s="415"/>
-      <c r="J45" s="415"/>
-      <c r="K45" s="415"/>
-      <c r="L45" s="415"/>
-      <c r="M45" s="415"/>
-      <c r="N45" s="415"/>
-      <c r="O45" s="415"/>
-      <c r="P45" s="415"/>
-      <c r="Q45" s="415"/>
-      <c r="R45" s="415"/>
-      <c r="S45" s="415"/>
-      <c r="T45" s="415"/>
-      <c r="U45" s="415"/>
-      <c r="V45" s="415"/>
-      <c r="W45" s="415"/>
+      <c r="D45" s="319"/>
+      <c r="E45" s="319"/>
+      <c r="F45" s="319"/>
+      <c r="G45" s="319"/>
+      <c r="H45" s="319"/>
+      <c r="I45" s="319"/>
+      <c r="J45" s="319"/>
+      <c r="K45" s="319"/>
+      <c r="L45" s="319"/>
+      <c r="M45" s="319"/>
+      <c r="N45" s="319"/>
+      <c r="O45" s="319"/>
+      <c r="P45" s="319"/>
+      <c r="Q45" s="319"/>
+      <c r="R45" s="319"/>
+      <c r="S45" s="319"/>
+      <c r="T45" s="319"/>
+      <c r="U45" s="319"/>
+      <c r="V45" s="319"/>
+      <c r="W45" s="319"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="415"/>
-      <c r="E46" s="415"/>
-      <c r="F46" s="415"/>
-      <c r="G46" s="415"/>
-      <c r="H46" s="415"/>
-      <c r="I46" s="415"/>
-      <c r="J46" s="415"/>
-      <c r="K46" s="415"/>
-      <c r="L46" s="415"/>
-      <c r="M46" s="415"/>
-      <c r="N46" s="415"/>
-      <c r="O46" s="415"/>
-      <c r="P46" s="415"/>
-      <c r="Q46" s="415"/>
-      <c r="R46" s="415"/>
-      <c r="S46" s="415"/>
-      <c r="T46" s="415"/>
-      <c r="U46" s="415"/>
-      <c r="V46" s="415"/>
-      <c r="W46" s="415"/>
+      <c r="D46" s="319"/>
+      <c r="E46" s="319"/>
+      <c r="F46" s="319"/>
+      <c r="G46" s="319"/>
+      <c r="H46" s="319"/>
+      <c r="I46" s="319"/>
+      <c r="J46" s="319"/>
+      <c r="K46" s="319"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
+      <c r="N46" s="319"/>
+      <c r="O46" s="319"/>
+      <c r="P46" s="319"/>
+      <c r="Q46" s="319"/>
+      <c r="R46" s="319"/>
+      <c r="S46" s="319"/>
+      <c r="T46" s="319"/>
+      <c r="U46" s="319"/>
+      <c r="V46" s="319"/>
+      <c r="W46" s="319"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="415"/>
-      <c r="E47" s="415"/>
-      <c r="F47" s="415"/>
-      <c r="G47" s="415"/>
-      <c r="H47" s="415"/>
-      <c r="I47" s="415"/>
-      <c r="J47" s="415"/>
-      <c r="K47" s="415"/>
-      <c r="L47" s="415"/>
-      <c r="M47" s="415"/>
-      <c r="N47" s="415"/>
-      <c r="O47" s="415"/>
-      <c r="P47" s="415"/>
-      <c r="Q47" s="415"/>
-      <c r="R47" s="415"/>
-      <c r="S47" s="415"/>
-      <c r="T47" s="415"/>
-      <c r="U47" s="415"/>
-      <c r="V47" s="415"/>
-      <c r="W47" s="415"/>
+      <c r="D47" s="319"/>
+      <c r="E47" s="319"/>
+      <c r="F47" s="319"/>
+      <c r="G47" s="319"/>
+      <c r="H47" s="319"/>
+      <c r="I47" s="319"/>
+      <c r="J47" s="319"/>
+      <c r="K47" s="319"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="319"/>
+      <c r="N47" s="319"/>
+      <c r="O47" s="319"/>
+      <c r="P47" s="319"/>
+      <c r="Q47" s="319"/>
+      <c r="R47" s="319"/>
+      <c r="S47" s="319"/>
+      <c r="T47" s="319"/>
+      <c r="U47" s="319"/>
+      <c r="V47" s="319"/>
+      <c r="W47" s="319"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="415"/>
-      <c r="E48" s="415"/>
-      <c r="F48" s="415"/>
-      <c r="G48" s="415"/>
-      <c r="H48" s="415"/>
-      <c r="I48" s="415"/>
-      <c r="J48" s="415"/>
-      <c r="K48" s="415"/>
-      <c r="L48" s="415"/>
-      <c r="M48" s="415"/>
-      <c r="N48" s="415"/>
-      <c r="O48" s="415"/>
-      <c r="P48" s="415"/>
-      <c r="Q48" s="415"/>
-      <c r="R48" s="415"/>
-      <c r="S48" s="415"/>
-      <c r="T48" s="415"/>
-      <c r="U48" s="415"/>
-      <c r="V48" s="415"/>
-      <c r="W48" s="415"/>
+      <c r="D48" s="319"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="319"/>
+      <c r="G48" s="319"/>
+      <c r="H48" s="319"/>
+      <c r="I48" s="319"/>
+      <c r="J48" s="319"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="319"/>
+      <c r="M48" s="319"/>
+      <c r="N48" s="319"/>
+      <c r="O48" s="319"/>
+      <c r="P48" s="319"/>
+      <c r="Q48" s="319"/>
+      <c r="R48" s="319"/>
+      <c r="S48" s="319"/>
+      <c r="T48" s="319"/>
+      <c r="U48" s="319"/>
+      <c r="V48" s="319"/>
+      <c r="W48" s="319"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="415"/>
-      <c r="E49" s="415"/>
-      <c r="F49" s="415"/>
-      <c r="G49" s="415"/>
-      <c r="H49" s="415"/>
-      <c r="I49" s="415"/>
-      <c r="J49" s="415"/>
-      <c r="K49" s="415"/>
-      <c r="L49" s="415"/>
-      <c r="M49" s="415"/>
-      <c r="N49" s="415"/>
-      <c r="O49" s="415"/>
-      <c r="P49" s="415"/>
-      <c r="Q49" s="415"/>
-      <c r="R49" s="415"/>
-      <c r="S49" s="415"/>
-      <c r="T49" s="415"/>
-      <c r="U49" s="415"/>
-      <c r="V49" s="415"/>
-      <c r="W49" s="415"/>
+      <c r="D49" s="319"/>
+      <c r="E49" s="319"/>
+      <c r="F49" s="319"/>
+      <c r="G49" s="319"/>
+      <c r="H49" s="319"/>
+      <c r="I49" s="319"/>
+      <c r="J49" s="319"/>
+      <c r="K49" s="319"/>
+      <c r="L49" s="319"/>
+      <c r="M49" s="319"/>
+      <c r="N49" s="319"/>
+      <c r="O49" s="319"/>
+      <c r="P49" s="319"/>
+      <c r="Q49" s="319"/>
+      <c r="R49" s="319"/>
+      <c r="S49" s="319"/>
+      <c r="T49" s="319"/>
+      <c r="U49" s="319"/>
+      <c r="V49" s="319"/>
+      <c r="W49" s="319"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="415"/>
-      <c r="E50" s="415"/>
-      <c r="F50" s="415"/>
-      <c r="G50" s="415"/>
-      <c r="H50" s="415"/>
-      <c r="I50" s="415"/>
-      <c r="J50" s="415"/>
-      <c r="K50" s="415"/>
-      <c r="L50" s="415"/>
-      <c r="M50" s="415"/>
-      <c r="N50" s="415"/>
-      <c r="O50" s="415"/>
-      <c r="P50" s="415"/>
-      <c r="Q50" s="415"/>
-      <c r="R50" s="415"/>
-      <c r="S50" s="415"/>
-      <c r="T50" s="415"/>
-      <c r="U50" s="415"/>
-      <c r="V50" s="415"/>
-      <c r="W50" s="415"/>
+      <c r="D50" s="319"/>
+      <c r="E50" s="319"/>
+      <c r="F50" s="319"/>
+      <c r="G50" s="319"/>
+      <c r="H50" s="319"/>
+      <c r="I50" s="319"/>
+      <c r="J50" s="319"/>
+      <c r="K50" s="319"/>
+      <c r="L50" s="319"/>
+      <c r="M50" s="319"/>
+      <c r="N50" s="319"/>
+      <c r="O50" s="319"/>
+      <c r="P50" s="319"/>
+      <c r="Q50" s="319"/>
+      <c r="R50" s="319"/>
+      <c r="S50" s="319"/>
+      <c r="T50" s="319"/>
+      <c r="U50" s="319"/>
+      <c r="V50" s="319"/>
+      <c r="W50" s="319"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="415"/>
-      <c r="E51" s="415"/>
-      <c r="F51" s="415"/>
-      <c r="G51" s="415"/>
-      <c r="H51" s="415"/>
-      <c r="I51" s="415"/>
-      <c r="J51" s="415"/>
-      <c r="K51" s="415"/>
-      <c r="L51" s="415"/>
-      <c r="M51" s="415"/>
-      <c r="N51" s="415"/>
-      <c r="O51" s="415"/>
-      <c r="P51" s="415"/>
-      <c r="Q51" s="415"/>
-      <c r="R51" s="415"/>
-      <c r="S51" s="415"/>
-      <c r="T51" s="415"/>
-      <c r="U51" s="415"/>
-      <c r="V51" s="415"/>
-      <c r="W51" s="415"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="319"/>
+      <c r="K51" s="319"/>
+      <c r="L51" s="319"/>
+      <c r="M51" s="319"/>
+      <c r="N51" s="319"/>
+      <c r="O51" s="319"/>
+      <c r="P51" s="319"/>
+      <c r="Q51" s="319"/>
+      <c r="R51" s="319"/>
+      <c r="S51" s="319"/>
+      <c r="T51" s="319"/>
+      <c r="U51" s="319"/>
+      <c r="V51" s="319"/>
+      <c r="W51" s="319"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="415"/>
-      <c r="E52" s="415"/>
-      <c r="F52" s="415"/>
-      <c r="G52" s="415"/>
-      <c r="H52" s="415"/>
-      <c r="I52" s="415"/>
-      <c r="J52" s="415"/>
-      <c r="K52" s="415"/>
-      <c r="L52" s="415"/>
-      <c r="M52" s="415"/>
-      <c r="N52" s="415"/>
-      <c r="O52" s="415"/>
-      <c r="P52" s="415"/>
-      <c r="Q52" s="415"/>
-      <c r="R52" s="415"/>
-      <c r="S52" s="415"/>
-      <c r="T52" s="415"/>
-      <c r="U52" s="415"/>
-      <c r="V52" s="415"/>
-      <c r="W52" s="415"/>
+      <c r="D52" s="319"/>
+      <c r="E52" s="319"/>
+      <c r="F52" s="319"/>
+      <c r="G52" s="319"/>
+      <c r="H52" s="319"/>
+      <c r="I52" s="319"/>
+      <c r="J52" s="319"/>
+      <c r="K52" s="319"/>
+      <c r="L52" s="319"/>
+      <c r="M52" s="319"/>
+      <c r="N52" s="319"/>
+      <c r="O52" s="319"/>
+      <c r="P52" s="319"/>
+      <c r="Q52" s="319"/>
+      <c r="R52" s="319"/>
+      <c r="S52" s="319"/>
+      <c r="T52" s="319"/>
+      <c r="U52" s="319"/>
+      <c r="V52" s="319"/>
+      <c r="W52" s="319"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="415"/>
-      <c r="E53" s="415"/>
-      <c r="F53" s="415"/>
-      <c r="G53" s="415"/>
-      <c r="H53" s="415"/>
-      <c r="I53" s="415"/>
-      <c r="J53" s="415"/>
-      <c r="K53" s="415"/>
-      <c r="L53" s="415"/>
-      <c r="M53" s="415"/>
-      <c r="N53" s="415"/>
-      <c r="O53" s="415"/>
-      <c r="P53" s="415"/>
-      <c r="Q53" s="415"/>
-      <c r="R53" s="415"/>
-      <c r="S53" s="415"/>
-      <c r="T53" s="415"/>
-      <c r="U53" s="415"/>
-      <c r="V53" s="415"/>
-      <c r="W53" s="415"/>
+      <c r="D53" s="319"/>
+      <c r="E53" s="319"/>
+      <c r="F53" s="319"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="319"/>
+      <c r="I53" s="319"/>
+      <c r="J53" s="319"/>
+      <c r="K53" s="319"/>
+      <c r="L53" s="319"/>
+      <c r="M53" s="319"/>
+      <c r="N53" s="319"/>
+      <c r="O53" s="319"/>
+      <c r="P53" s="319"/>
+      <c r="Q53" s="319"/>
+      <c r="R53" s="319"/>
+      <c r="S53" s="319"/>
+      <c r="T53" s="319"/>
+      <c r="U53" s="319"/>
+      <c r="V53" s="319"/>
+      <c r="W53" s="319"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="415"/>
-      <c r="E54" s="415"/>
-      <c r="F54" s="415"/>
-      <c r="G54" s="415"/>
-      <c r="H54" s="415"/>
-      <c r="I54" s="415"/>
-      <c r="J54" s="415"/>
-      <c r="K54" s="415"/>
-      <c r="L54" s="415"/>
-      <c r="M54" s="415"/>
-      <c r="N54" s="415"/>
-      <c r="O54" s="415"/>
-      <c r="P54" s="415"/>
-      <c r="Q54" s="415"/>
-      <c r="R54" s="415"/>
-      <c r="S54" s="415"/>
-      <c r="T54" s="415"/>
-      <c r="U54" s="415"/>
-      <c r="V54" s="415"/>
-      <c r="W54" s="415"/>
+      <c r="D54" s="319"/>
+      <c r="E54" s="319"/>
+      <c r="F54" s="319"/>
+      <c r="G54" s="319"/>
+      <c r="H54" s="319"/>
+      <c r="I54" s="319"/>
+      <c r="J54" s="319"/>
+      <c r="K54" s="319"/>
+      <c r="L54" s="319"/>
+      <c r="M54" s="319"/>
+      <c r="N54" s="319"/>
+      <c r="O54" s="319"/>
+      <c r="P54" s="319"/>
+      <c r="Q54" s="319"/>
+      <c r="R54" s="319"/>
+      <c r="S54" s="319"/>
+      <c r="T54" s="319"/>
+      <c r="U54" s="319"/>
+      <c r="V54" s="319"/>
+      <c r="W54" s="319"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="415"/>
-      <c r="E55" s="415"/>
-      <c r="F55" s="415"/>
-      <c r="G55" s="415"/>
-      <c r="H55" s="415"/>
-      <c r="I55" s="415"/>
-      <c r="J55" s="415"/>
-      <c r="K55" s="415"/>
-      <c r="L55" s="415"/>
-      <c r="M55" s="415"/>
-      <c r="N55" s="415"/>
-      <c r="O55" s="415"/>
-      <c r="P55" s="415"/>
-      <c r="Q55" s="415"/>
-      <c r="R55" s="415"/>
-      <c r="S55" s="415"/>
-      <c r="T55" s="415"/>
-      <c r="U55" s="415"/>
-      <c r="V55" s="415"/>
-      <c r="W55" s="415"/>
+      <c r="D55" s="319"/>
+      <c r="E55" s="319"/>
+      <c r="F55" s="319"/>
+      <c r="G55" s="319"/>
+      <c r="H55" s="319"/>
+      <c r="I55" s="319"/>
+      <c r="J55" s="319"/>
+      <c r="K55" s="319"/>
+      <c r="L55" s="319"/>
+      <c r="M55" s="319"/>
+      <c r="N55" s="319"/>
+      <c r="O55" s="319"/>
+      <c r="P55" s="319"/>
+      <c r="Q55" s="319"/>
+      <c r="R55" s="319"/>
+      <c r="S55" s="319"/>
+      <c r="T55" s="319"/>
+      <c r="U55" s="319"/>
+      <c r="V55" s="319"/>
+      <c r="W55" s="319"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="415"/>
-      <c r="E56" s="415"/>
-      <c r="F56" s="415"/>
-      <c r="G56" s="415"/>
-      <c r="H56" s="415"/>
-      <c r="I56" s="415"/>
-      <c r="J56" s="415"/>
-      <c r="K56" s="415"/>
-      <c r="L56" s="415"/>
-      <c r="M56" s="415"/>
-      <c r="N56" s="415"/>
-      <c r="O56" s="415"/>
-      <c r="P56" s="415"/>
-      <c r="Q56" s="415"/>
-      <c r="R56" s="415"/>
-      <c r="S56" s="415"/>
-      <c r="T56" s="415"/>
-      <c r="U56" s="415"/>
-      <c r="V56" s="415"/>
-      <c r="W56" s="415"/>
+      <c r="D56" s="319"/>
+      <c r="E56" s="319"/>
+      <c r="F56" s="319"/>
+      <c r="G56" s="319"/>
+      <c r="H56" s="319"/>
+      <c r="I56" s="319"/>
+      <c r="J56" s="319"/>
+      <c r="K56" s="319"/>
+      <c r="L56" s="319"/>
+      <c r="M56" s="319"/>
+      <c r="N56" s="319"/>
+      <c r="O56" s="319"/>
+      <c r="P56" s="319"/>
+      <c r="Q56" s="319"/>
+      <c r="R56" s="319"/>
+      <c r="S56" s="319"/>
+      <c r="T56" s="319"/>
+      <c r="U56" s="319"/>
+      <c r="V56" s="319"/>
+      <c r="W56" s="319"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="415"/>
-      <c r="E57" s="415"/>
-      <c r="F57" s="415"/>
-      <c r="G57" s="415"/>
-      <c r="H57" s="415"/>
-      <c r="I57" s="415"/>
-      <c r="J57" s="415"/>
-      <c r="K57" s="415"/>
-      <c r="L57" s="415"/>
-      <c r="M57" s="415"/>
-      <c r="N57" s="415"/>
-      <c r="O57" s="415"/>
-      <c r="P57" s="415"/>
-      <c r="Q57" s="415"/>
-      <c r="R57" s="415"/>
-      <c r="S57" s="415"/>
-      <c r="T57" s="415"/>
-      <c r="U57" s="415"/>
-      <c r="V57" s="415"/>
-      <c r="W57" s="415"/>
+      <c r="D57" s="319"/>
+      <c r="E57" s="319"/>
+      <c r="F57" s="319"/>
+      <c r="G57" s="319"/>
+      <c r="H57" s="319"/>
+      <c r="I57" s="319"/>
+      <c r="J57" s="319"/>
+      <c r="K57" s="319"/>
+      <c r="L57" s="319"/>
+      <c r="M57" s="319"/>
+      <c r="N57" s="319"/>
+      <c r="O57" s="319"/>
+      <c r="P57" s="319"/>
+      <c r="Q57" s="319"/>
+      <c r="R57" s="319"/>
+      <c r="S57" s="319"/>
+      <c r="T57" s="319"/>
+      <c r="U57" s="319"/>
+      <c r="V57" s="319"/>
+      <c r="W57" s="319"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D58" s="229"/>
@@ -38418,642 +38418,642 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="370" t="s">
+      <c r="D60" s="366" t="s">
         <v>363</v>
       </c>
-      <c r="E60" s="370"/>
-      <c r="F60" s="370"/>
-      <c r="G60" s="370"/>
-      <c r="H60" s="370"/>
-      <c r="I60" s="370"/>
-      <c r="J60" s="370"/>
-      <c r="K60" s="370"/>
-      <c r="L60" s="370"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="370"/>
-      <c r="O60" s="370"/>
-      <c r="P60" s="370"/>
-      <c r="Q60" s="370"/>
-      <c r="R60" s="370"/>
-      <c r="S60" s="370"/>
-      <c r="T60" s="370"/>
-      <c r="U60" s="370"/>
-      <c r="V60" s="370"/>
-      <c r="W60" s="370"/>
+      <c r="E60" s="366"/>
+      <c r="F60" s="366"/>
+      <c r="G60" s="366"/>
+      <c r="H60" s="366"/>
+      <c r="I60" s="366"/>
+      <c r="J60" s="366"/>
+      <c r="K60" s="366"/>
+      <c r="L60" s="366"/>
+      <c r="M60" s="366"/>
+      <c r="N60" s="366"/>
+      <c r="O60" s="366"/>
+      <c r="P60" s="366"/>
+      <c r="Q60" s="366"/>
+      <c r="R60" s="366"/>
+      <c r="S60" s="366"/>
+      <c r="T60" s="366"/>
+      <c r="U60" s="366"/>
+      <c r="V60" s="366"/>
+      <c r="W60" s="366"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="371" t="s">
+      <c r="D61" s="367" t="s">
         <v>628</v>
       </c>
-      <c r="E61" s="371"/>
-      <c r="F61" s="372" t="s">
+      <c r="E61" s="367"/>
+      <c r="F61" s="368" t="s">
         <v>693</v>
       </c>
-      <c r="G61" s="372"/>
-      <c r="H61" s="372"/>
-      <c r="I61" s="372"/>
-      <c r="J61" s="372"/>
-      <c r="K61" s="372"/>
-      <c r="L61" s="372" t="s">
+      <c r="G61" s="368"/>
+      <c r="H61" s="368"/>
+      <c r="I61" s="368"/>
+      <c r="J61" s="368"/>
+      <c r="K61" s="368"/>
+      <c r="L61" s="368" t="s">
         <v>364</v>
       </c>
-      <c r="M61" s="372"/>
-      <c r="N61" s="372"/>
-      <c r="O61" s="372"/>
-      <c r="P61" s="372"/>
-      <c r="Q61" s="372"/>
-      <c r="R61" s="371" t="s">
+      <c r="M61" s="368"/>
+      <c r="N61" s="368"/>
+      <c r="O61" s="368"/>
+      <c r="P61" s="368"/>
+      <c r="Q61" s="368"/>
+      <c r="R61" s="367" t="s">
         <v>694</v>
       </c>
-      <c r="S61" s="371"/>
-      <c r="T61" s="371"/>
-      <c r="U61" s="371"/>
-      <c r="V61" s="371"/>
-      <c r="W61" s="371"/>
+      <c r="S61" s="367"/>
+      <c r="T61" s="367"/>
+      <c r="U61" s="367"/>
+      <c r="V61" s="367"/>
+      <c r="W61" s="367"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="371"/>
-      <c r="E62" s="371"/>
-      <c r="F62" s="372"/>
-      <c r="G62" s="372"/>
-      <c r="H62" s="372"/>
-      <c r="I62" s="372"/>
-      <c r="J62" s="372"/>
-      <c r="K62" s="372"/>
-      <c r="L62" s="372"/>
-      <c r="M62" s="372"/>
-      <c r="N62" s="372"/>
-      <c r="O62" s="372"/>
-      <c r="P62" s="372"/>
-      <c r="Q62" s="372"/>
-      <c r="R62" s="371"/>
-      <c r="S62" s="371"/>
-      <c r="T62" s="371"/>
-      <c r="U62" s="371"/>
-      <c r="V62" s="371"/>
-      <c r="W62" s="371"/>
+      <c r="D62" s="367"/>
+      <c r="E62" s="367"/>
+      <c r="F62" s="368"/>
+      <c r="G62" s="368"/>
+      <c r="H62" s="368"/>
+      <c r="I62" s="368"/>
+      <c r="J62" s="368"/>
+      <c r="K62" s="368"/>
+      <c r="L62" s="368"/>
+      <c r="M62" s="368"/>
+      <c r="N62" s="368"/>
+      <c r="O62" s="368"/>
+      <c r="P62" s="368"/>
+      <c r="Q62" s="368"/>
+      <c r="R62" s="367"/>
+      <c r="S62" s="367"/>
+      <c r="T62" s="367"/>
+      <c r="U62" s="367"/>
+      <c r="V62" s="367"/>
+      <c r="W62" s="367"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="373" t="str">
+      <c r="D63" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E63" s="373"/>
-      <c r="F63" s="374" t="str">
+      <c r="E63" s="369"/>
+      <c r="F63" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G63" s="375"/>
-      <c r="H63" s="375"/>
-      <c r="I63" s="375"/>
-      <c r="J63" s="375"/>
-      <c r="K63" s="376"/>
-      <c r="L63" s="373" t="str">
+      <c r="G63" s="371"/>
+      <c r="H63" s="371"/>
+      <c r="I63" s="371"/>
+      <c r="J63" s="371"/>
+      <c r="K63" s="372"/>
+      <c r="L63" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M63" s="373"/>
-      <c r="N63" s="373"/>
-      <c r="O63" s="373"/>
-      <c r="P63" s="373"/>
-      <c r="Q63" s="373"/>
-      <c r="R63" s="373" t="str">
+      <c r="M63" s="369"/>
+      <c r="N63" s="369"/>
+      <c r="O63" s="369"/>
+      <c r="P63" s="369"/>
+      <c r="Q63" s="369"/>
+      <c r="R63" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S63" s="373"/>
-      <c r="T63" s="373"/>
-      <c r="U63" s="373"/>
-      <c r="V63" s="373"/>
-      <c r="W63" s="373"/>
+      <c r="S63" s="369"/>
+      <c r="T63" s="369"/>
+      <c r="U63" s="369"/>
+      <c r="V63" s="369"/>
+      <c r="W63" s="369"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="366">
+      <c r="D64" s="356">
         <f ca="1">Calibración!G38</f>
         <v>47.832014712757505</v>
       </c>
-      <c r="E64" s="366"/>
-      <c r="F64" s="367">
+      <c r="E64" s="356"/>
+      <c r="F64" s="357">
         <f ca="1">Calibración!H38</f>
         <v>48.263299000000004</v>
       </c>
-      <c r="G64" s="368"/>
-      <c r="H64" s="368"/>
-      <c r="I64" s="368"/>
-      <c r="J64" s="368"/>
-      <c r="K64" s="369"/>
-      <c r="L64" s="366">
+      <c r="G64" s="358"/>
+      <c r="H64" s="358"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="359"/>
+      <c r="L64" s="356">
         <f ca="1">Calibración!I38</f>
         <v>-0.43128428724249857</v>
       </c>
-      <c r="M64" s="366"/>
-      <c r="N64" s="366"/>
-      <c r="O64" s="366"/>
-      <c r="P64" s="366"/>
-      <c r="Q64" s="366"/>
-      <c r="R64" s="366">
+      <c r="M64" s="356"/>
+      <c r="N64" s="356"/>
+      <c r="O64" s="356"/>
+      <c r="P64" s="356"/>
+      <c r="Q64" s="356"/>
+      <c r="R64" s="356">
         <f ca="1">Calibración!J38</f>
         <v>2.1680192900602293</v>
       </c>
-      <c r="S64" s="366"/>
-      <c r="T64" s="366"/>
-      <c r="U64" s="366"/>
-      <c r="V64" s="366"/>
-      <c r="W64" s="366"/>
+      <c r="S64" s="356"/>
+      <c r="T64" s="356"/>
+      <c r="U64" s="356"/>
+      <c r="V64" s="356"/>
+      <c r="W64" s="356"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="366">
+      <c r="D65" s="356">
         <f ca="1">Calibración!G39</f>
         <v>68.662248407923201</v>
       </c>
-      <c r="E65" s="366"/>
-      <c r="F65" s="367">
+      <c r="E65" s="356"/>
+      <c r="F65" s="357">
         <f ca="1">Calibración!H39</f>
         <v>68.947569999999999</v>
       </c>
-      <c r="G65" s="368"/>
-      <c r="H65" s="368"/>
-      <c r="I65" s="368"/>
-      <c r="J65" s="368"/>
-      <c r="K65" s="369"/>
-      <c r="L65" s="366">
+      <c r="G65" s="358"/>
+      <c r="H65" s="358"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="359"/>
+      <c r="L65" s="356">
         <f ca="1">Calibración!I39</f>
         <v>-0.28532159207679875</v>
       </c>
-      <c r="M65" s="366"/>
-      <c r="N65" s="366"/>
-      <c r="O65" s="366"/>
-      <c r="P65" s="366"/>
-      <c r="Q65" s="366"/>
-      <c r="R65" s="366">
+      <c r="M65" s="356"/>
+      <c r="N65" s="356"/>
+      <c r="O65" s="356"/>
+      <c r="P65" s="356"/>
+      <c r="Q65" s="356"/>
+      <c r="R65" s="356">
         <f ca="1">Calibración!J39</f>
         <v>2.0888525536836386</v>
       </c>
-      <c r="S65" s="366"/>
-      <c r="T65" s="366"/>
-      <c r="U65" s="366"/>
-      <c r="V65" s="366"/>
-      <c r="W65" s="366"/>
+      <c r="S65" s="356"/>
+      <c r="T65" s="356"/>
+      <c r="U65" s="356"/>
+      <c r="V65" s="356"/>
+      <c r="W65" s="356"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="366">
+      <c r="D66" s="356">
         <f ca="1">Calibración!G40</f>
         <v>123.70988832194672</v>
       </c>
-      <c r="E66" s="366"/>
-      <c r="F66" s="367">
+      <c r="E66" s="356"/>
+      <c r="F66" s="357">
         <f ca="1">Calibración!H40</f>
         <v>124.105626</v>
       </c>
-      <c r="G66" s="368"/>
-      <c r="H66" s="368"/>
-      <c r="I66" s="368"/>
-      <c r="J66" s="368"/>
-      <c r="K66" s="369"/>
-      <c r="L66" s="366">
+      <c r="G66" s="358"/>
+      <c r="H66" s="358"/>
+      <c r="I66" s="358"/>
+      <c r="J66" s="358"/>
+      <c r="K66" s="359"/>
+      <c r="L66" s="356">
         <f ca="1">Calibración!I40</f>
         <v>-0.39573767805327914</v>
       </c>
-      <c r="M66" s="366"/>
-      <c r="N66" s="366"/>
-      <c r="O66" s="366"/>
-      <c r="P66" s="366"/>
-      <c r="Q66" s="366"/>
-      <c r="R66" s="366">
+      <c r="M66" s="356"/>
+      <c r="N66" s="356"/>
+      <c r="O66" s="356"/>
+      <c r="P66" s="356"/>
+      <c r="Q66" s="356"/>
+      <c r="R66" s="356">
         <f ca="1">Calibración!J40</f>
         <v>2.0800951472577189</v>
       </c>
-      <c r="S66" s="366"/>
-      <c r="T66" s="366"/>
-      <c r="U66" s="366"/>
-      <c r="V66" s="366"/>
-      <c r="W66" s="366"/>
+      <c r="S66" s="356"/>
+      <c r="T66" s="356"/>
+      <c r="U66" s="356"/>
+      <c r="V66" s="356"/>
+      <c r="W66" s="356"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="366">
+      <c r="D67" s="356">
         <f ca="1">Calibración!G41</f>
         <v>171.9864100869213</v>
       </c>
-      <c r="E67" s="366"/>
-      <c r="F67" s="367">
+      <c r="E67" s="356"/>
+      <c r="F67" s="357">
         <f ca="1">Calibración!H41</f>
         <v>172.36892500000002</v>
       </c>
-      <c r="G67" s="368"/>
-      <c r="H67" s="368"/>
-      <c r="I67" s="368"/>
-      <c r="J67" s="368"/>
-      <c r="K67" s="369"/>
-      <c r="L67" s="366">
+      <c r="G67" s="358"/>
+      <c r="H67" s="358"/>
+      <c r="I67" s="358"/>
+      <c r="J67" s="358"/>
+      <c r="K67" s="359"/>
+      <c r="L67" s="356">
         <f ca="1">Calibración!I41</f>
         <v>-0.38251491307869623</v>
       </c>
-      <c r="M67" s="366"/>
-      <c r="N67" s="366"/>
-      <c r="O67" s="366"/>
-      <c r="P67" s="366"/>
-      <c r="Q67" s="366"/>
-      <c r="R67" s="366">
+      <c r="M67" s="356"/>
+      <c r="N67" s="356"/>
+      <c r="O67" s="356"/>
+      <c r="P67" s="356"/>
+      <c r="Q67" s="356"/>
+      <c r="R67" s="356">
         <f ca="1">Calibración!J41</f>
         <v>2.126524368279616</v>
       </c>
-      <c r="S67" s="366"/>
-      <c r="T67" s="366"/>
-      <c r="U67" s="366"/>
-      <c r="V67" s="366"/>
-      <c r="W67" s="366"/>
+      <c r="S67" s="356"/>
+      <c r="T67" s="356"/>
+      <c r="U67" s="356"/>
+      <c r="V67" s="356"/>
+      <c r="W67" s="356"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="366">
+      <c r="D68" s="356">
         <f ca="1">Calibración!G42</f>
         <v>240.73135007344825</v>
       </c>
-      <c r="E68" s="366"/>
-      <c r="F68" s="367">
+      <c r="E68" s="356"/>
+      <c r="F68" s="357">
         <f ca="1">Calibración!H42</f>
         <v>241.316495</v>
       </c>
-      <c r="G68" s="368"/>
-      <c r="H68" s="368"/>
-      <c r="I68" s="368"/>
-      <c r="J68" s="368"/>
-      <c r="K68" s="369"/>
-      <c r="L68" s="366">
+      <c r="G68" s="358"/>
+      <c r="H68" s="358"/>
+      <c r="I68" s="358"/>
+      <c r="J68" s="358"/>
+      <c r="K68" s="359"/>
+      <c r="L68" s="356">
         <f ca="1">Calibración!I42</f>
         <v>-0.5851449265517582</v>
       </c>
-      <c r="M68" s="366"/>
-      <c r="N68" s="366"/>
-      <c r="O68" s="366"/>
-      <c r="P68" s="366"/>
-      <c r="Q68" s="366"/>
-      <c r="R68" s="366">
+      <c r="M68" s="356"/>
+      <c r="N68" s="356"/>
+      <c r="O68" s="356"/>
+      <c r="P68" s="356"/>
+      <c r="Q68" s="356"/>
+      <c r="R68" s="356">
         <f ca="1">Calibración!J42</f>
         <v>2.3002570256412356</v>
       </c>
-      <c r="S68" s="366"/>
-      <c r="T68" s="366"/>
-      <c r="U68" s="366"/>
-      <c r="V68" s="366"/>
-      <c r="W68" s="366"/>
+      <c r="S68" s="356"/>
+      <c r="T68" s="356"/>
+      <c r="U68" s="356"/>
+      <c r="V68" s="356"/>
+      <c r="W68" s="356"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="366">
+      <c r="D69" s="356">
         <f ca="1">Calibración!G43</f>
         <v>365.05143955836047</v>
       </c>
-      <c r="E69" s="366"/>
-      <c r="F69" s="367">
+      <c r="E69" s="356"/>
+      <c r="F69" s="357">
         <f ca="1">Calibración!H43</f>
         <v>365.422121</v>
       </c>
-      <c r="G69" s="368"/>
-      <c r="H69" s="368"/>
-      <c r="I69" s="368"/>
-      <c r="J69" s="368"/>
-      <c r="K69" s="369"/>
-      <c r="L69" s="366">
+      <c r="G69" s="358"/>
+      <c r="H69" s="358"/>
+      <c r="I69" s="358"/>
+      <c r="J69" s="358"/>
+      <c r="K69" s="359"/>
+      <c r="L69" s="356">
         <f ca="1">Calibración!I43</f>
         <v>-0.37068144163955946</v>
       </c>
-      <c r="M69" s="366"/>
-      <c r="N69" s="366"/>
-      <c r="O69" s="366"/>
-      <c r="P69" s="366"/>
-      <c r="Q69" s="366"/>
-      <c r="R69" s="366">
+      <c r="M69" s="356"/>
+      <c r="N69" s="356"/>
+      <c r="O69" s="356"/>
+      <c r="P69" s="356"/>
+      <c r="Q69" s="356"/>
+      <c r="R69" s="356">
         <f ca="1">Calibración!J43</f>
         <v>2.1266848742471853</v>
       </c>
-      <c r="S69" s="366"/>
-      <c r="T69" s="366"/>
-      <c r="U69" s="366"/>
-      <c r="V69" s="366"/>
-      <c r="W69" s="366"/>
+      <c r="S69" s="356"/>
+      <c r="T69" s="356"/>
+      <c r="U69" s="356"/>
+      <c r="V69" s="356"/>
+      <c r="W69" s="356"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="366">
+      <c r="D70" s="356">
         <f ca="1">Calibración!G44</f>
         <v>482.18549407062346</v>
       </c>
-      <c r="E70" s="366"/>
-      <c r="F70" s="367">
+      <c r="E70" s="356"/>
+      <c r="F70" s="357">
         <f ca="1">Calibración!H44</f>
         <v>482.63299000000001</v>
       </c>
-      <c r="G70" s="368"/>
-      <c r="H70" s="368"/>
-      <c r="I70" s="368"/>
-      <c r="J70" s="368"/>
-      <c r="K70" s="369"/>
-      <c r="L70" s="366">
+      <c r="G70" s="358"/>
+      <c r="H70" s="358"/>
+      <c r="I70" s="358"/>
+      <c r="J70" s="358"/>
+      <c r="K70" s="359"/>
+      <c r="L70" s="356">
         <f ca="1">Calibración!I44</f>
         <v>-0.44749592937657368</v>
       </c>
-      <c r="M70" s="366"/>
-      <c r="N70" s="366"/>
-      <c r="O70" s="366"/>
-      <c r="P70" s="366"/>
-      <c r="Q70" s="366"/>
-      <c r="R70" s="366">
+      <c r="M70" s="356"/>
+      <c r="N70" s="356"/>
+      <c r="O70" s="356"/>
+      <c r="P70" s="356"/>
+      <c r="Q70" s="356"/>
+      <c r="R70" s="356">
         <f ca="1">Calibración!J44</f>
         <v>2.0940380207279761</v>
       </c>
-      <c r="S70" s="366"/>
-      <c r="T70" s="366"/>
-      <c r="U70" s="366"/>
-      <c r="V70" s="366"/>
-      <c r="W70" s="366"/>
+      <c r="S70" s="356"/>
+      <c r="T70" s="356"/>
+      <c r="U70" s="356"/>
+      <c r="V70" s="356"/>
+      <c r="W70" s="356"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="366">
+      <c r="D71" s="356">
         <f ca="1">Calibración!G45</f>
         <v>1379.5235562385774</v>
       </c>
-      <c r="E71" s="366"/>
-      <c r="F71" s="367">
+      <c r="E71" s="356"/>
+      <c r="F71" s="357">
         <f ca="1">Calibración!H45</f>
         <v>1378.9514000000001</v>
       </c>
-      <c r="G71" s="368"/>
-      <c r="H71" s="368"/>
-      <c r="I71" s="368"/>
-      <c r="J71" s="368"/>
-      <c r="K71" s="369"/>
-      <c r="L71" s="366">
+      <c r="G71" s="358"/>
+      <c r="H71" s="358"/>
+      <c r="I71" s="358"/>
+      <c r="J71" s="358"/>
+      <c r="K71" s="359"/>
+      <c r="L71" s="356">
         <f ca="1">Calibración!I45</f>
         <v>0.57215623857731723</v>
       </c>
-      <c r="M71" s="366"/>
-      <c r="N71" s="366"/>
-      <c r="O71" s="366"/>
-      <c r="P71" s="366"/>
-      <c r="Q71" s="366"/>
-      <c r="R71" s="366">
+      <c r="M71" s="356"/>
+      <c r="N71" s="356"/>
+      <c r="O71" s="356"/>
+      <c r="P71" s="356"/>
+      <c r="Q71" s="356"/>
+      <c r="R71" s="356">
         <f ca="1">Calibración!J45</f>
         <v>2.0858876411238176</v>
       </c>
-      <c r="S71" s="366"/>
-      <c r="T71" s="366"/>
-      <c r="U71" s="366"/>
-      <c r="V71" s="366"/>
-      <c r="W71" s="366"/>
+      <c r="S71" s="356"/>
+      <c r="T71" s="356"/>
+      <c r="U71" s="356"/>
+      <c r="V71" s="356"/>
+      <c r="W71" s="356"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="366" t="str">
+      <c r="D72" s="356" t="str">
         <f ca="1">Calibración!G46</f>
         <v/>
       </c>
-      <c r="E72" s="366"/>
-      <c r="F72" s="367" t="str">
+      <c r="E72" s="356"/>
+      <c r="F72" s="357" t="str">
         <f ca="1">Calibración!H46</f>
         <v/>
       </c>
-      <c r="G72" s="368"/>
-      <c r="H72" s="368"/>
-      <c r="I72" s="368"/>
-      <c r="J72" s="368"/>
-      <c r="K72" s="369"/>
-      <c r="L72" s="366" t="str">
+      <c r="G72" s="358"/>
+      <c r="H72" s="358"/>
+      <c r="I72" s="358"/>
+      <c r="J72" s="358"/>
+      <c r="K72" s="359"/>
+      <c r="L72" s="356" t="str">
         <f ca="1">Calibración!I46</f>
         <v/>
       </c>
-      <c r="M72" s="366"/>
-      <c r="N72" s="366"/>
-      <c r="O72" s="366"/>
-      <c r="P72" s="366"/>
-      <c r="Q72" s="366"/>
-      <c r="R72" s="366" t="str">
+      <c r="M72" s="356"/>
+      <c r="N72" s="356"/>
+      <c r="O72" s="356"/>
+      <c r="P72" s="356"/>
+      <c r="Q72" s="356"/>
+      <c r="R72" s="356" t="str">
         <f ca="1">Calibración!J46</f>
         <v/>
       </c>
-      <c r="S72" s="366"/>
-      <c r="T72" s="366"/>
-      <c r="U72" s="366"/>
-      <c r="V72" s="366"/>
-      <c r="W72" s="366"/>
+      <c r="S72" s="356"/>
+      <c r="T72" s="356"/>
+      <c r="U72" s="356"/>
+      <c r="V72" s="356"/>
+      <c r="W72" s="356"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="366" t="str">
+      <c r="D73" s="356" t="str">
         <f ca="1">Calibración!G47</f>
         <v/>
       </c>
-      <c r="E73" s="366"/>
-      <c r="F73" s="367" t="str">
+      <c r="E73" s="356"/>
+      <c r="F73" s="357" t="str">
         <f ca="1">Calibración!H47</f>
         <v/>
       </c>
-      <c r="G73" s="368"/>
-      <c r="H73" s="368"/>
-      <c r="I73" s="368"/>
-      <c r="J73" s="368"/>
-      <c r="K73" s="369"/>
-      <c r="L73" s="366" t="str">
+      <c r="G73" s="358"/>
+      <c r="H73" s="358"/>
+      <c r="I73" s="358"/>
+      <c r="J73" s="358"/>
+      <c r="K73" s="359"/>
+      <c r="L73" s="356" t="str">
         <f ca="1">Calibración!I47</f>
         <v/>
       </c>
-      <c r="M73" s="366"/>
-      <c r="N73" s="366"/>
-      <c r="O73" s="366"/>
-      <c r="P73" s="366"/>
-      <c r="Q73" s="366"/>
-      <c r="R73" s="366" t="str">
+      <c r="M73" s="356"/>
+      <c r="N73" s="356"/>
+      <c r="O73" s="356"/>
+      <c r="P73" s="356"/>
+      <c r="Q73" s="356"/>
+      <c r="R73" s="356" t="str">
         <f ca="1">Calibración!J47</f>
         <v/>
       </c>
-      <c r="S73" s="366"/>
-      <c r="T73" s="366"/>
-      <c r="U73" s="366"/>
-      <c r="V73" s="366"/>
-      <c r="W73" s="366"/>
+      <c r="S73" s="356"/>
+      <c r="T73" s="356"/>
+      <c r="U73" s="356"/>
+      <c r="V73" s="356"/>
+      <c r="W73" s="356"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="366" t="str">
+      <c r="D74" s="356" t="str">
         <f ca="1">Calibración!G48</f>
         <v/>
       </c>
-      <c r="E74" s="366"/>
-      <c r="F74" s="367" t="str">
+      <c r="E74" s="356"/>
+      <c r="F74" s="357" t="str">
         <f ca="1">Calibración!H48</f>
         <v/>
       </c>
-      <c r="G74" s="368"/>
-      <c r="H74" s="368"/>
-      <c r="I74" s="368"/>
-      <c r="J74" s="368"/>
-      <c r="K74" s="369"/>
-      <c r="L74" s="366" t="str">
+      <c r="G74" s="358"/>
+      <c r="H74" s="358"/>
+      <c r="I74" s="358"/>
+      <c r="J74" s="358"/>
+      <c r="K74" s="359"/>
+      <c r="L74" s="356" t="str">
         <f ca="1">Calibración!I48</f>
         <v/>
       </c>
-      <c r="M74" s="366"/>
-      <c r="N74" s="366"/>
-      <c r="O74" s="366"/>
-      <c r="P74" s="366"/>
-      <c r="Q74" s="366"/>
-      <c r="R74" s="366" t="str">
+      <c r="M74" s="356"/>
+      <c r="N74" s="356"/>
+      <c r="O74" s="356"/>
+      <c r="P74" s="356"/>
+      <c r="Q74" s="356"/>
+      <c r="R74" s="356" t="str">
         <f ca="1">Calibración!J48</f>
         <v/>
       </c>
-      <c r="S74" s="366"/>
-      <c r="T74" s="366"/>
-      <c r="U74" s="366"/>
-      <c r="V74" s="366"/>
-      <c r="W74" s="366"/>
+      <c r="S74" s="356"/>
+      <c r="T74" s="356"/>
+      <c r="U74" s="356"/>
+      <c r="V74" s="356"/>
+      <c r="W74" s="356"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="366" t="str">
+      <c r="D75" s="356" t="str">
         <f ca="1">Calibración!G49</f>
         <v/>
       </c>
-      <c r="E75" s="366"/>
-      <c r="F75" s="367" t="str">
+      <c r="E75" s="356"/>
+      <c r="F75" s="357" t="str">
         <f ca="1">Calibración!H49</f>
         <v/>
       </c>
-      <c r="G75" s="368"/>
-      <c r="H75" s="368"/>
-      <c r="I75" s="368"/>
-      <c r="J75" s="368"/>
-      <c r="K75" s="369"/>
-      <c r="L75" s="366" t="str">
+      <c r="G75" s="358"/>
+      <c r="H75" s="358"/>
+      <c r="I75" s="358"/>
+      <c r="J75" s="358"/>
+      <c r="K75" s="359"/>
+      <c r="L75" s="356" t="str">
         <f ca="1">Calibración!I49</f>
         <v/>
       </c>
-      <c r="M75" s="366"/>
-      <c r="N75" s="366"/>
-      <c r="O75" s="366"/>
-      <c r="P75" s="366"/>
-      <c r="Q75" s="366"/>
-      <c r="R75" s="366" t="str">
+      <c r="M75" s="356"/>
+      <c r="N75" s="356"/>
+      <c r="O75" s="356"/>
+      <c r="P75" s="356"/>
+      <c r="Q75" s="356"/>
+      <c r="R75" s="356" t="str">
         <f ca="1">Calibración!J49</f>
         <v/>
       </c>
-      <c r="S75" s="366"/>
-      <c r="T75" s="366"/>
-      <c r="U75" s="366"/>
-      <c r="V75" s="366"/>
-      <c r="W75" s="366"/>
+      <c r="S75" s="356"/>
+      <c r="T75" s="356"/>
+      <c r="U75" s="356"/>
+      <c r="V75" s="356"/>
+      <c r="W75" s="356"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="416"/>
-      <c r="E76" s="416"/>
-      <c r="F76" s="416"/>
-      <c r="G76" s="416"/>
-      <c r="H76" s="416"/>
-      <c r="I76" s="416"/>
-      <c r="J76" s="416"/>
-      <c r="K76" s="416"/>
-      <c r="L76" s="416"/>
-      <c r="M76" s="416"/>
-      <c r="N76" s="416"/>
-      <c r="O76" s="416"/>
-      <c r="P76" s="416"/>
-      <c r="Q76" s="416"/>
-      <c r="R76" s="416"/>
-      <c r="S76" s="416"/>
-      <c r="T76" s="416"/>
-      <c r="U76" s="416"/>
-      <c r="V76" s="416"/>
-      <c r="W76" s="416"/>
+      <c r="D76" s="320"/>
+      <c r="E76" s="320"/>
+      <c r="F76" s="320"/>
+      <c r="G76" s="320"/>
+      <c r="H76" s="320"/>
+      <c r="I76" s="320"/>
+      <c r="J76" s="320"/>
+      <c r="K76" s="320"/>
+      <c r="L76" s="320"/>
+      <c r="M76" s="320"/>
+      <c r="N76" s="320"/>
+      <c r="O76" s="320"/>
+      <c r="P76" s="320"/>
+      <c r="Q76" s="320"/>
+      <c r="R76" s="320"/>
+      <c r="S76" s="320"/>
+      <c r="T76" s="320"/>
+      <c r="U76" s="320"/>
+      <c r="V76" s="320"/>
+      <c r="W76" s="320"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="416"/>
-      <c r="E77" s="416"/>
-      <c r="F77" s="416"/>
-      <c r="G77" s="416"/>
-      <c r="H77" s="416"/>
-      <c r="I77" s="416"/>
-      <c r="J77" s="416"/>
-      <c r="K77" s="416"/>
-      <c r="L77" s="416"/>
-      <c r="M77" s="416"/>
-      <c r="N77" s="416"/>
-      <c r="O77" s="416"/>
-      <c r="P77" s="416"/>
-      <c r="Q77" s="416"/>
-      <c r="R77" s="416"/>
-      <c r="S77" s="416"/>
-      <c r="T77" s="416"/>
-      <c r="U77" s="416"/>
-      <c r="V77" s="416"/>
-      <c r="W77" s="416"/>
+      <c r="D77" s="320"/>
+      <c r="E77" s="320"/>
+      <c r="F77" s="320"/>
+      <c r="G77" s="320"/>
+      <c r="H77" s="320"/>
+      <c r="I77" s="320"/>
+      <c r="J77" s="320"/>
+      <c r="K77" s="320"/>
+      <c r="L77" s="320"/>
+      <c r="M77" s="320"/>
+      <c r="N77" s="320"/>
+      <c r="O77" s="320"/>
+      <c r="P77" s="320"/>
+      <c r="Q77" s="320"/>
+      <c r="R77" s="320"/>
+      <c r="S77" s="320"/>
+      <c r="T77" s="320"/>
+      <c r="U77" s="320"/>
+      <c r="V77" s="320"/>
+      <c r="W77" s="320"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="416"/>
-      <c r="E78" s="416"/>
-      <c r="F78" s="416"/>
-      <c r="G78" s="416"/>
-      <c r="H78" s="416"/>
-      <c r="I78" s="416"/>
-      <c r="J78" s="416"/>
-      <c r="K78" s="416"/>
-      <c r="L78" s="416"/>
-      <c r="M78" s="416"/>
-      <c r="N78" s="416"/>
-      <c r="O78" s="416"/>
-      <c r="P78" s="416"/>
-      <c r="Q78" s="416"/>
-      <c r="R78" s="416"/>
-      <c r="S78" s="416"/>
-      <c r="T78" s="416"/>
-      <c r="U78" s="416"/>
-      <c r="V78" s="416"/>
-      <c r="W78" s="416"/>
+      <c r="D78" s="320"/>
+      <c r="E78" s="320"/>
+      <c r="F78" s="320"/>
+      <c r="G78" s="320"/>
+      <c r="H78" s="320"/>
+      <c r="I78" s="320"/>
+      <c r="J78" s="320"/>
+      <c r="K78" s="320"/>
+      <c r="L78" s="320"/>
+      <c r="M78" s="320"/>
+      <c r="N78" s="320"/>
+      <c r="O78" s="320"/>
+      <c r="P78" s="320"/>
+      <c r="Q78" s="320"/>
+      <c r="R78" s="320"/>
+      <c r="S78" s="320"/>
+      <c r="T78" s="320"/>
+      <c r="U78" s="320"/>
+      <c r="V78" s="320"/>
+      <c r="W78" s="320"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="223" t="s">
@@ -39087,11 +39087,11 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="233"/>
-      <c r="B80" s="363" t="s">
+      <c r="B80" s="380" t="s">
         <v>698</v>
       </c>
-      <c r="C80" s="363"/>
-      <c r="D80" s="363"/>
+      <c r="C80" s="380"/>
+      <c r="D80" s="380"/>
       <c r="E80" s="234">
         <f>CertTempC</f>
         <v>20.25</v>
@@ -39108,8 +39108,8 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="364"/>
-      <c r="L80" s="364"/>
+      <c r="K80" s="363"/>
+      <c r="L80" s="363"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -39119,11 +39119,11 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="365">
+      <c r="T80" s="381">
         <f>General!I18</f>
         <v>1001</v>
       </c>
-      <c r="U80" s="365"/>
+      <c r="U80" s="381"/>
       <c r="V80" s="235" t="s">
         <v>700</v>
       </c>
@@ -39215,20 +39215,20 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="362" t="str">
+      <c r="N92" s="361" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O92" s="362"/>
-      <c r="P92" s="362"/>
-      <c r="Q92" s="362"/>
-      <c r="R92" s="362"/>
-      <c r="S92" s="362"/>
-      <c r="T92" s="362"/>
-      <c r="U92" s="362"/>
-      <c r="V92" s="362"/>
-      <c r="W92" s="362"/>
-      <c r="X92" s="362"/>
+      <c r="O92" s="361"/>
+      <c r="P92" s="361"/>
+      <c r="Q92" s="361"/>
+      <c r="R92" s="361"/>
+      <c r="S92" s="361"/>
+      <c r="T92" s="361"/>
+      <c r="U92" s="361"/>
+      <c r="V92" s="361"/>
+      <c r="W92" s="361"/>
+      <c r="X92" s="361"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O93" s="231"/>
@@ -39265,32 +39265,32 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="352" t="s">
+      <c r="A96" s="373" t="s">
         <v>1123</v>
       </c>
-      <c r="B96" s="352"/>
-      <c r="C96" s="352"/>
-      <c r="D96" s="352"/>
-      <c r="E96" s="352"/>
-      <c r="F96" s="352"/>
-      <c r="G96" s="352"/>
-      <c r="H96" s="352"/>
-      <c r="I96" s="352"/>
-      <c r="J96" s="352"/>
-      <c r="K96" s="352"/>
-      <c r="L96" s="352"/>
-      <c r="M96" s="352"/>
-      <c r="N96" s="352"/>
-      <c r="O96" s="352"/>
-      <c r="P96" s="352"/>
-      <c r="Q96" s="352"/>
-      <c r="R96" s="352"/>
-      <c r="S96" s="352"/>
-      <c r="T96" s="352"/>
-      <c r="U96" s="352"/>
-      <c r="V96" s="352"/>
-      <c r="W96" s="352"/>
-      <c r="X96" s="352"/>
+      <c r="B96" s="373"/>
+      <c r="C96" s="373"/>
+      <c r="D96" s="373"/>
+      <c r="E96" s="373"/>
+      <c r="F96" s="373"/>
+      <c r="G96" s="373"/>
+      <c r="H96" s="373"/>
+      <c r="I96" s="373"/>
+      <c r="J96" s="373"/>
+      <c r="K96" s="373"/>
+      <c r="L96" s="373"/>
+      <c r="M96" s="373"/>
+      <c r="N96" s="373"/>
+      <c r="O96" s="373"/>
+      <c r="P96" s="373"/>
+      <c r="Q96" s="373"/>
+      <c r="R96" s="373"/>
+      <c r="S96" s="373"/>
+      <c r="T96" s="373"/>
+      <c r="U96" s="373"/>
+      <c r="V96" s="373"/>
+      <c r="W96" s="373"/>
+      <c r="X96" s="373"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B97" s="16"/>
@@ -39345,136 +39345,136 @@
       <c r="X98" s="16"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="352" t="s">
+      <c r="A99" s="373" t="s">
         <v>706</v>
       </c>
-      <c r="B99" s="352"/>
-      <c r="C99" s="352"/>
-      <c r="D99" s="352"/>
-      <c r="E99" s="352"/>
-      <c r="F99" s="352"/>
-      <c r="G99" s="352"/>
-      <c r="H99" s="352"/>
-      <c r="I99" s="352"/>
-      <c r="J99" s="352"/>
-      <c r="K99" s="352"/>
-      <c r="L99" s="352"/>
-      <c r="M99" s="352"/>
-      <c r="N99" s="352"/>
-      <c r="O99" s="352"/>
-      <c r="P99" s="352"/>
-      <c r="Q99" s="352"/>
-      <c r="R99" s="352"/>
-      <c r="S99" s="352"/>
-      <c r="T99" s="352"/>
-      <c r="U99" s="352"/>
-      <c r="V99" s="352"/>
-      <c r="W99" s="352"/>
-      <c r="X99" s="352"/>
+      <c r="B99" s="373"/>
+      <c r="C99" s="373"/>
+      <c r="D99" s="373"/>
+      <c r="E99" s="373"/>
+      <c r="F99" s="373"/>
+      <c r="G99" s="373"/>
+      <c r="H99" s="373"/>
+      <c r="I99" s="373"/>
+      <c r="J99" s="373"/>
+      <c r="K99" s="373"/>
+      <c r="L99" s="373"/>
+      <c r="M99" s="373"/>
+      <c r="N99" s="373"/>
+      <c r="O99" s="373"/>
+      <c r="P99" s="373"/>
+      <c r="Q99" s="373"/>
+      <c r="R99" s="373"/>
+      <c r="S99" s="373"/>
+      <c r="T99" s="373"/>
+      <c r="U99" s="373"/>
+      <c r="V99" s="373"/>
+      <c r="W99" s="373"/>
+      <c r="X99" s="373"/>
     </row>
     <row r="100" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="352"/>
-      <c r="B100" s="352"/>
-      <c r="C100" s="352"/>
-      <c r="D100" s="352"/>
-      <c r="E100" s="352"/>
-      <c r="F100" s="352"/>
-      <c r="G100" s="352"/>
-      <c r="H100" s="352"/>
-      <c r="I100" s="352"/>
-      <c r="J100" s="352"/>
-      <c r="K100" s="352"/>
-      <c r="L100" s="352"/>
-      <c r="M100" s="352"/>
-      <c r="N100" s="352"/>
-      <c r="O100" s="352"/>
-      <c r="P100" s="352"/>
-      <c r="Q100" s="352"/>
-      <c r="R100" s="352"/>
-      <c r="S100" s="352"/>
-      <c r="T100" s="352"/>
-      <c r="U100" s="352"/>
-      <c r="V100" s="352"/>
-      <c r="W100" s="352"/>
-      <c r="X100" s="352"/>
+      <c r="A100" s="373"/>
+      <c r="B100" s="373"/>
+      <c r="C100" s="373"/>
+      <c r="D100" s="373"/>
+      <c r="E100" s="373"/>
+      <c r="F100" s="373"/>
+      <c r="G100" s="373"/>
+      <c r="H100" s="373"/>
+      <c r="I100" s="373"/>
+      <c r="J100" s="373"/>
+      <c r="K100" s="373"/>
+      <c r="L100" s="373"/>
+      <c r="M100" s="373"/>
+      <c r="N100" s="373"/>
+      <c r="O100" s="373"/>
+      <c r="P100" s="373"/>
+      <c r="Q100" s="373"/>
+      <c r="R100" s="373"/>
+      <c r="S100" s="373"/>
+      <c r="T100" s="373"/>
+      <c r="U100" s="373"/>
+      <c r="V100" s="373"/>
+      <c r="W100" s="373"/>
+      <c r="X100" s="373"/>
     </row>
     <row r="101" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="352"/>
-      <c r="B101" s="352"/>
-      <c r="C101" s="352"/>
-      <c r="D101" s="352"/>
-      <c r="E101" s="352"/>
-      <c r="F101" s="352"/>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
-      <c r="K101" s="352"/>
-      <c r="L101" s="352"/>
-      <c r="M101" s="352"/>
-      <c r="N101" s="352"/>
-      <c r="O101" s="352"/>
-      <c r="P101" s="352"/>
-      <c r="Q101" s="352"/>
-      <c r="R101" s="352"/>
-      <c r="S101" s="352"/>
-      <c r="T101" s="352"/>
-      <c r="U101" s="352"/>
-      <c r="V101" s="352"/>
-      <c r="W101" s="352"/>
-      <c r="X101" s="352"/>
+      <c r="A101" s="373"/>
+      <c r="B101" s="373"/>
+      <c r="C101" s="373"/>
+      <c r="D101" s="373"/>
+      <c r="E101" s="373"/>
+      <c r="F101" s="373"/>
+      <c r="G101" s="373"/>
+      <c r="H101" s="373"/>
+      <c r="I101" s="373"/>
+      <c r="J101" s="373"/>
+      <c r="K101" s="373"/>
+      <c r="L101" s="373"/>
+      <c r="M101" s="373"/>
+      <c r="N101" s="373"/>
+      <c r="O101" s="373"/>
+      <c r="P101" s="373"/>
+      <c r="Q101" s="373"/>
+      <c r="R101" s="373"/>
+      <c r="S101" s="373"/>
+      <c r="T101" s="373"/>
+      <c r="U101" s="373"/>
+      <c r="V101" s="373"/>
+      <c r="W101" s="373"/>
+      <c r="X101" s="373"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A102" s="352"/>
-      <c r="B102" s="352"/>
-      <c r="C102" s="352"/>
-      <c r="D102" s="352"/>
-      <c r="E102" s="352"/>
-      <c r="F102" s="352"/>
-      <c r="G102" s="352"/>
-      <c r="H102" s="352"/>
-      <c r="I102" s="352"/>
-      <c r="J102" s="352"/>
-      <c r="K102" s="352"/>
-      <c r="L102" s="352"/>
-      <c r="M102" s="352"/>
-      <c r="N102" s="352"/>
-      <c r="O102" s="352"/>
-      <c r="P102" s="352"/>
-      <c r="Q102" s="352"/>
-      <c r="R102" s="352"/>
-      <c r="S102" s="352"/>
-      <c r="T102" s="352"/>
-      <c r="U102" s="352"/>
-      <c r="V102" s="352"/>
-      <c r="W102" s="352"/>
-      <c r="X102" s="352"/>
+      <c r="A102" s="373"/>
+      <c r="B102" s="373"/>
+      <c r="C102" s="373"/>
+      <c r="D102" s="373"/>
+      <c r="E102" s="373"/>
+      <c r="F102" s="373"/>
+      <c r="G102" s="373"/>
+      <c r="H102" s="373"/>
+      <c r="I102" s="373"/>
+      <c r="J102" s="373"/>
+      <c r="K102" s="373"/>
+      <c r="L102" s="373"/>
+      <c r="M102" s="373"/>
+      <c r="N102" s="373"/>
+      <c r="O102" s="373"/>
+      <c r="P102" s="373"/>
+      <c r="Q102" s="373"/>
+      <c r="R102" s="373"/>
+      <c r="S102" s="373"/>
+      <c r="T102" s="373"/>
+      <c r="U102" s="373"/>
+      <c r="V102" s="373"/>
+      <c r="W102" s="373"/>
+      <c r="X102" s="373"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" s="352"/>
-      <c r="B103" s="352"/>
-      <c r="C103" s="352"/>
-      <c r="D103" s="352"/>
-      <c r="E103" s="352"/>
-      <c r="F103" s="352"/>
-      <c r="G103" s="352"/>
-      <c r="H103" s="352"/>
-      <c r="I103" s="352"/>
-      <c r="J103" s="352"/>
-      <c r="K103" s="352"/>
-      <c r="L103" s="352"/>
-      <c r="M103" s="352"/>
-      <c r="N103" s="352"/>
-      <c r="O103" s="352"/>
-      <c r="P103" s="352"/>
-      <c r="Q103" s="352"/>
-      <c r="R103" s="352"/>
-      <c r="S103" s="352"/>
-      <c r="T103" s="352"/>
-      <c r="U103" s="352"/>
-      <c r="V103" s="352"/>
-      <c r="W103" s="352"/>
-      <c r="X103" s="352"/>
+      <c r="A103" s="373"/>
+      <c r="B103" s="373"/>
+      <c r="C103" s="373"/>
+      <c r="D103" s="373"/>
+      <c r="E103" s="373"/>
+      <c r="F103" s="373"/>
+      <c r="G103" s="373"/>
+      <c r="H103" s="373"/>
+      <c r="I103" s="373"/>
+      <c r="J103" s="373"/>
+      <c r="K103" s="373"/>
+      <c r="L103" s="373"/>
+      <c r="M103" s="373"/>
+      <c r="N103" s="373"/>
+      <c r="O103" s="373"/>
+      <c r="P103" s="373"/>
+      <c r="Q103" s="373"/>
+      <c r="R103" s="373"/>
+      <c r="S103" s="373"/>
+      <c r="T103" s="373"/>
+      <c r="U103" s="373"/>
+      <c r="V103" s="373"/>
+      <c r="W103" s="373"/>
+      <c r="X103" s="373"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -39528,175 +39528,177 @@
       <c r="V105" s="9"/>
     </row>
     <row r="106" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="356" t="s">
+      <c r="A106" s="374" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="357"/>
-      <c r="C106" s="357"/>
-      <c r="D106" s="357"/>
-      <c r="E106" s="357"/>
-      <c r="F106" s="358"/>
-      <c r="G106" s="356" t="s">
+      <c r="B106" s="375"/>
+      <c r="C106" s="375"/>
+      <c r="D106" s="375"/>
+      <c r="E106" s="375"/>
+      <c r="F106" s="376"/>
+      <c r="G106" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="H106" s="357"/>
-      <c r="I106" s="358"/>
-      <c r="J106" s="359" t="s">
+      <c r="H106" s="375"/>
+      <c r="I106" s="376"/>
+      <c r="J106" s="377" t="s">
         <v>369</v>
       </c>
-      <c r="K106" s="360"/>
-      <c r="L106" s="360"/>
-      <c r="M106" s="360"/>
-      <c r="N106" s="361"/>
-      <c r="O106" s="356" t="s">
+      <c r="K106" s="378"/>
+      <c r="L106" s="378"/>
+      <c r="M106" s="378"/>
+      <c r="N106" s="379"/>
+      <c r="O106" s="374" t="s">
         <v>708</v>
       </c>
-      <c r="P106" s="357"/>
-      <c r="Q106" s="357"/>
-      <c r="R106" s="357"/>
-      <c r="S106" s="357"/>
-      <c r="T106" s="358"/>
-      <c r="U106" s="359" t="s">
+      <c r="P106" s="375"/>
+      <c r="Q106" s="375"/>
+      <c r="R106" s="375"/>
+      <c r="S106" s="375"/>
+      <c r="T106" s="376"/>
+      <c r="U106" s="377" t="s">
         <v>709</v>
       </c>
-      <c r="V106" s="360"/>
-      <c r="W106" s="360"/>
-      <c r="X106" s="361"/>
+      <c r="V106" s="378"/>
+      <c r="W106" s="378"/>
+      <c r="X106" s="379"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A107" s="346"/>
-      <c r="B107" s="347"/>
-      <c r="C107" s="347"/>
-      <c r="D107" s="347"/>
-      <c r="E107" s="347"/>
-      <c r="F107" s="348"/>
-      <c r="G107" s="346"/>
-      <c r="H107" s="347"/>
-      <c r="I107" s="348"/>
-      <c r="J107" s="349"/>
-      <c r="K107" s="350"/>
-      <c r="L107" s="350"/>
-      <c r="M107" s="350"/>
-      <c r="N107" s="351"/>
-      <c r="O107" s="353"/>
-      <c r="P107" s="354"/>
-      <c r="Q107" s="354"/>
-      <c r="R107" s="354"/>
-      <c r="S107" s="354"/>
-      <c r="T107" s="355"/>
-      <c r="U107" s="349"/>
-      <c r="V107" s="350"/>
-      <c r="W107" s="350"/>
-      <c r="X107" s="351"/>
+      <c r="A107" s="382"/>
+      <c r="B107" s="383"/>
+      <c r="C107" s="383"/>
+      <c r="D107" s="383"/>
+      <c r="E107" s="383"/>
+      <c r="F107" s="384"/>
+      <c r="G107" s="382"/>
+      <c r="H107" s="383"/>
+      <c r="I107" s="384"/>
+      <c r="J107" s="385"/>
+      <c r="K107" s="386"/>
+      <c r="L107" s="386"/>
+      <c r="M107" s="386"/>
+      <c r="N107" s="387"/>
+      <c r="O107" s="388"/>
+      <c r="P107" s="389"/>
+      <c r="Q107" s="389"/>
+      <c r="R107" s="389"/>
+      <c r="S107" s="389"/>
+      <c r="T107" s="390"/>
+      <c r="U107" s="385"/>
+      <c r="V107" s="386"/>
+      <c r="W107" s="386"/>
+      <c r="X107" s="387"/>
     </row>
     <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="346"/>
-      <c r="B108" s="347"/>
-      <c r="C108" s="347"/>
-      <c r="D108" s="347"/>
-      <c r="E108" s="347"/>
-      <c r="F108" s="348"/>
-      <c r="G108" s="346"/>
-      <c r="H108" s="347"/>
-      <c r="I108" s="348"/>
-      <c r="J108" s="349"/>
-      <c r="K108" s="350"/>
-      <c r="L108" s="350"/>
-      <c r="M108" s="350"/>
-      <c r="N108" s="351"/>
-      <c r="O108" s="346"/>
-      <c r="P108" s="347"/>
-      <c r="Q108" s="347"/>
-      <c r="R108" s="347"/>
-      <c r="S108" s="347"/>
-      <c r="T108" s="348"/>
-      <c r="U108" s="349"/>
-      <c r="V108" s="350"/>
-      <c r="W108" s="350"/>
-      <c r="X108" s="351"/>
+      <c r="A108" s="382"/>
+      <c r="B108" s="383"/>
+      <c r="C108" s="383"/>
+      <c r="D108" s="383"/>
+      <c r="E108" s="383"/>
+      <c r="F108" s="384"/>
+      <c r="G108" s="382"/>
+      <c r="H108" s="383"/>
+      <c r="I108" s="384"/>
+      <c r="J108" s="385"/>
+      <c r="K108" s="386"/>
+      <c r="L108" s="386"/>
+      <c r="M108" s="386"/>
+      <c r="N108" s="387"/>
+      <c r="O108" s="382"/>
+      <c r="P108" s="383"/>
+      <c r="Q108" s="383"/>
+      <c r="R108" s="383"/>
+      <c r="S108" s="383"/>
+      <c r="T108" s="384"/>
+      <c r="U108" s="385"/>
+      <c r="V108" s="386"/>
+      <c r="W108" s="386"/>
+      <c r="X108" s="387"/>
     </row>
     <row r="109" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="346"/>
-      <c r="B109" s="347"/>
-      <c r="C109" s="347"/>
-      <c r="D109" s="347"/>
-      <c r="E109" s="347"/>
-      <c r="F109" s="348"/>
-      <c r="G109" s="346"/>
-      <c r="H109" s="347"/>
-      <c r="I109" s="348"/>
-      <c r="J109" s="349"/>
-      <c r="K109" s="350"/>
-      <c r="L109" s="350"/>
-      <c r="M109" s="350"/>
-      <c r="N109" s="351"/>
-      <c r="O109" s="346"/>
-      <c r="P109" s="347"/>
-      <c r="Q109" s="347"/>
-      <c r="R109" s="347"/>
-      <c r="S109" s="347"/>
-      <c r="T109" s="348"/>
-      <c r="U109" s="349"/>
-      <c r="V109" s="350"/>
-      <c r="W109" s="350"/>
-      <c r="X109" s="351"/>
-    </row>
-    <row r="110" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="237"/>
-      <c r="B110" s="237"/>
-      <c r="C110" s="237"/>
-      <c r="D110" s="237"/>
-      <c r="E110" s="237"/>
-      <c r="F110" s="237"/>
-      <c r="G110" s="237"/>
-      <c r="H110" s="237"/>
-      <c r="I110" s="237"/>
-      <c r="J110" s="237"/>
-      <c r="K110" s="237"/>
-      <c r="L110" s="237"/>
-      <c r="M110" s="237"/>
-      <c r="N110" s="237"/>
-      <c r="O110" s="237"/>
-      <c r="P110" s="237"/>
-      <c r="Q110" s="237"/>
-      <c r="R110" s="237"/>
-      <c r="S110" s="237"/>
-      <c r="T110" s="237"/>
-      <c r="U110" s="237"/>
-      <c r="V110" s="237"/>
-      <c r="W110" s="237"/>
-      <c r="X110" s="237"/>
+      <c r="A109" s="382"/>
+      <c r="B109" s="383"/>
+      <c r="C109" s="383"/>
+      <c r="D109" s="383"/>
+      <c r="E109" s="383"/>
+      <c r="F109" s="384"/>
+      <c r="G109" s="382"/>
+      <c r="H109" s="383"/>
+      <c r="I109" s="384"/>
+      <c r="J109" s="385"/>
+      <c r="K109" s="386"/>
+      <c r="L109" s="386"/>
+      <c r="M109" s="386"/>
+      <c r="N109" s="387"/>
+      <c r="O109" s="382"/>
+      <c r="P109" s="383"/>
+      <c r="Q109" s="383"/>
+      <c r="R109" s="383"/>
+      <c r="S109" s="383"/>
+      <c r="T109" s="384"/>
+      <c r="U109" s="385"/>
+      <c r="V109" s="386"/>
+      <c r="W109" s="386"/>
+      <c r="X109" s="387"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A110" s="223" t="s">
+        <v>710</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A111" s="223" t="s">
-        <v>710</v>
+      <c r="A111" s="238" t="s">
+        <v>711</v>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="9"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A112" s="238" t="s">
-        <v>711</v>
+      <c r="A112" s="239" t="s">
+        <v>767</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="16"/>
@@ -39723,93 +39725,93 @@
       <c r="X112" s="9"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="239" t="s">
-        <v>767</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="16"/>
-      <c r="W113" s="16"/>
-      <c r="X113" s="9"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="352" t="str">
+      <c r="A113" s="373" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B114" s="352"/>
-      <c r="C114" s="352"/>
-      <c r="D114" s="352"/>
-      <c r="E114" s="352"/>
-      <c r="F114" s="352"/>
-      <c r="G114" s="352"/>
-      <c r="H114" s="352"/>
-      <c r="I114" s="352"/>
-      <c r="J114" s="352"/>
-      <c r="K114" s="352"/>
-      <c r="L114" s="352"/>
-      <c r="M114" s="352"/>
-      <c r="N114" s="352"/>
-      <c r="O114" s="352"/>
-      <c r="P114" s="352"/>
-      <c r="Q114" s="352"/>
-      <c r="R114" s="352"/>
-      <c r="S114" s="352"/>
-      <c r="T114" s="352"/>
-      <c r="U114" s="352"/>
-      <c r="V114" s="352"/>
-      <c r="W114" s="352"/>
-      <c r="X114" s="352"/>
+      <c r="B113" s="373"/>
+      <c r="C113" s="373"/>
+      <c r="D113" s="373"/>
+      <c r="E113" s="373"/>
+      <c r="F113" s="373"/>
+      <c r="G113" s="373"/>
+      <c r="H113" s="373"/>
+      <c r="I113" s="373"/>
+      <c r="J113" s="373"/>
+      <c r="K113" s="373"/>
+      <c r="L113" s="373"/>
+      <c r="M113" s="373"/>
+      <c r="N113" s="373"/>
+      <c r="O113" s="373"/>
+      <c r="P113" s="373"/>
+      <c r="Q113" s="373"/>
+      <c r="R113" s="373"/>
+      <c r="S113" s="373"/>
+      <c r="T113" s="373"/>
+      <c r="U113" s="373"/>
+      <c r="V113" s="373"/>
+      <c r="W113" s="373"/>
+      <c r="X113" s="373"/>
+    </row>
+    <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="373"/>
+      <c r="B114" s="373"/>
+      <c r="C114" s="373"/>
+      <c r="D114" s="373"/>
+      <c r="E114" s="373"/>
+      <c r="F114" s="373"/>
+      <c r="G114" s="373"/>
+      <c r="H114" s="373"/>
+      <c r="I114" s="373"/>
+      <c r="J114" s="373"/>
+      <c r="K114" s="373"/>
+      <c r="L114" s="373"/>
+      <c r="M114" s="373"/>
+      <c r="N114" s="373"/>
+      <c r="O114" s="373"/>
+      <c r="P114" s="373"/>
+      <c r="Q114" s="373"/>
+      <c r="R114" s="373"/>
+      <c r="S114" s="373"/>
+      <c r="T114" s="373"/>
+      <c r="U114" s="373"/>
+      <c r="V114" s="373"/>
+      <c r="W114" s="373"/>
+      <c r="X114" s="373"/>
     </row>
     <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="352"/>
-      <c r="B115" s="352"/>
-      <c r="C115" s="352"/>
-      <c r="D115" s="352"/>
-      <c r="E115" s="352"/>
-      <c r="F115" s="352"/>
-      <c r="G115" s="352"/>
-      <c r="H115" s="352"/>
-      <c r="I115" s="352"/>
-      <c r="J115" s="352"/>
-      <c r="K115" s="352"/>
-      <c r="L115" s="352"/>
-      <c r="M115" s="352"/>
-      <c r="N115" s="352"/>
-      <c r="O115" s="352"/>
-      <c r="P115" s="352"/>
-      <c r="Q115" s="352"/>
-      <c r="R115" s="352"/>
-      <c r="S115" s="352"/>
-      <c r="T115" s="352"/>
-      <c r="U115" s="352"/>
-      <c r="V115" s="352"/>
-      <c r="W115" s="352"/>
-      <c r="X115" s="352"/>
+      <c r="A115" s="238" t="s">
+        <v>712</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="9"/>
     </row>
     <row r="116" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="238" t="s">
-        <v>712</v>
-      </c>
-      <c r="B116" s="9"/>
+        <v>713</v>
+      </c>
+      <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -39833,37 +39835,37 @@
       <c r="W116" s="16"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="238" t="s">
-        <v>713</v>
-      </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="16"/>
-      <c r="W117" s="16"/>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -39890,8 +39892,9 @@
       <c r="X118" s="9"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>1107</v>
+      <c r="A119" s="9" t="str">
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -39909,8 +39912,8 @@
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
@@ -39918,9 +39921,8 @@
       <c r="X119" s="9"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
-        <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
+      <c r="A120" s="239" t="s">
+        <v>769</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -39940,16 +39942,14 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="16"/>
       <c r="S120" s="16"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="239" t="s">
-        <v>769</v>
-      </c>
+      <c r="A121" s="239"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -40000,84 +40000,202 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" s="239"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-      <c r="U123" s="16"/>
-      <c r="V123" s="16"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I125" s="391" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="391"/>
+      <c r="K125" s="391"/>
+      <c r="L125" s="391"/>
+      <c r="M125" s="391"/>
+      <c r="N125" s="391"/>
+      <c r="O125" s="391"/>
+      <c r="P125" s="391"/>
+      <c r="Y125" s="9"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I126" s="342" t="s">
-        <v>31</v>
-      </c>
-      <c r="J126" s="342"/>
-      <c r="K126" s="342"/>
-      <c r="L126" s="342"/>
-      <c r="M126" s="342"/>
-      <c r="N126" s="342"/>
-      <c r="O126" s="342"/>
-      <c r="P126" s="342"/>
-      <c r="Y126" s="9"/>
+      <c r="I126" s="392" t="str">
+        <f>IF(I125=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
+        <v>Director Técnico</v>
+      </c>
+      <c r="J126" s="392"/>
+      <c r="K126" s="392"/>
+      <c r="L126" s="392"/>
+      <c r="M126" s="392"/>
+      <c r="N126" s="392"/>
+      <c r="O126" s="392"/>
+      <c r="P126" s="392"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I127" s="343" t="str">
-        <f>IF(I126=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
-        <v>Director Técnico</v>
-      </c>
-      <c r="J127" s="343"/>
-      <c r="K127" s="343"/>
-      <c r="L127" s="343"/>
-      <c r="M127" s="343"/>
-      <c r="N127" s="343"/>
-      <c r="O127" s="343"/>
-      <c r="P127" s="343"/>
+      <c r="I127" s="393" t="s">
+        <v>714</v>
+      </c>
+      <c r="J127" s="393"/>
+      <c r="K127" s="393"/>
+      <c r="L127" s="393"/>
+      <c r="M127" s="393"/>
+      <c r="N127" s="393"/>
+      <c r="O127" s="393"/>
+      <c r="P127" s="393"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I128" s="344" t="s">
-        <v>714</v>
-      </c>
-      <c r="J128" s="344"/>
-      <c r="K128" s="344"/>
-      <c r="L128" s="344"/>
-      <c r="M128" s="344"/>
-      <c r="N128" s="344"/>
-      <c r="O128" s="344"/>
-      <c r="P128" s="344"/>
-    </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I129" s="345" t="s">
+      <c r="I128" s="394" t="s">
         <v>715</v>
       </c>
-      <c r="J129" s="345"/>
-      <c r="K129" s="345"/>
-      <c r="L129" s="345"/>
-      <c r="M129" s="345"/>
-      <c r="N129" s="345"/>
-      <c r="O129" s="345"/>
-      <c r="P129" s="345"/>
+      <c r="J128" s="394"/>
+      <c r="K128" s="394"/>
+      <c r="L128" s="394"/>
+      <c r="M128" s="394"/>
+      <c r="N128" s="394"/>
+      <c r="O128" s="394"/>
+      <c r="P128" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="I125:P125"/>
+    <mergeCell ref="I126:P126"/>
+    <mergeCell ref="I127:P127"/>
+    <mergeCell ref="I128:P128"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="J109:N109"/>
+    <mergeCell ref="O109:T109"/>
+    <mergeCell ref="U109:X109"/>
+    <mergeCell ref="A113:X114"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="O107:T107"/>
+    <mergeCell ref="U107:X107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="U108:X108"/>
+    <mergeCell ref="A96:X96"/>
+    <mergeCell ref="A99:X103"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="O106:T106"/>
+    <mergeCell ref="U106:X106"/>
+    <mergeCell ref="N92:X92"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="L64:Q64"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
     <mergeCell ref="L41:Q41"/>
@@ -40102,157 +40220,13 @@
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="R36:W36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="D60:W60"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:Q62"/>
-    <mergeCell ref="R61:W62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="R63:W63"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:K68"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="A96:X96"/>
-    <mergeCell ref="A99:X103"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="O106:T106"/>
-    <mergeCell ref="U106:X106"/>
-    <mergeCell ref="N92:X92"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="O107:T107"/>
-    <mergeCell ref="U107:X107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:T108"/>
-    <mergeCell ref="U108:X108"/>
-    <mergeCell ref="I126:P126"/>
-    <mergeCell ref="I127:P127"/>
-    <mergeCell ref="I128:P128"/>
-    <mergeCell ref="I129:P129"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="J109:N109"/>
-    <mergeCell ref="O109:T109"/>
-    <mergeCell ref="U109:X109"/>
-    <mergeCell ref="A114:X115"/>
   </mergeCells>
-  <conditionalFormatting sqref="A118">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$26</formula>
     </cfRule>
@@ -40274,7 +40248,7 @@
           <x14:formula1>
             <xm:f>'F:\SGC Vigente 2018-07-14\Clientes\Certificados\2018\Dentro de alcance\Presión\[NI-R02-MCIT-P-01 Hoja electrónica para procesamiento de datos manómetros y vacuómetros v2 2018-03-11.xlsx]Generales'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I126:P126</xm:sqref>
+          <xm:sqref>I125:P125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -40332,20 +40306,20 @@
       <c r="K8" s="226"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="382" t="str">
+      <c r="N8" s="360" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="362"/>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
+      <c r="O8" s="361"/>
+      <c r="P8" s="361"/>
+      <c r="Q8" s="361"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="361"/>
+      <c r="T8" s="361"/>
+      <c r="U8" s="361"/>
+      <c r="V8" s="361"/>
+      <c r="W8" s="361"/>
+      <c r="X8" s="361"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="223" t="s">
@@ -40362,20 +40336,20 @@
       <c r="K9" s="226"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="381" t="str">
+      <c r="N9" s="362" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="364"/>
-      <c r="V9" s="364"/>
-      <c r="W9" s="364"/>
-      <c r="X9" s="364"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="363"/>
+      <c r="S9" s="363"/>
+      <c r="T9" s="363"/>
+      <c r="U9" s="363"/>
+      <c r="V9" s="363"/>
+      <c r="W9" s="363"/>
+      <c r="X9" s="363"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="223" t="s">
@@ -40392,20 +40366,20 @@
       <c r="K10" s="226"/>
       <c r="L10" s="227"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="383" t="str">
+      <c r="N10" s="364" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="383"/>
-      <c r="P10" s="383"/>
-      <c r="Q10" s="383"/>
-      <c r="R10" s="383"/>
-      <c r="S10" s="383"/>
-      <c r="T10" s="383"/>
-      <c r="U10" s="383"/>
-      <c r="V10" s="383"/>
-      <c r="W10" s="383"/>
-      <c r="X10" s="383"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
+      <c r="T10" s="364"/>
+      <c r="U10" s="364"/>
+      <c r="V10" s="364"/>
+      <c r="W10" s="364"/>
+      <c r="X10" s="364"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="223" t="s">
@@ -40422,13 +40396,13 @@
       <c r="K11" s="226"/>
       <c r="L11" s="227"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="383">
+      <c r="N11" s="364">
         <f ca="1">NOW()</f>
-        <v>45616.656537499999</v>
-      </c>
-      <c r="O11" s="383"/>
-      <c r="P11" s="383"/>
-      <c r="Q11" s="383"/>
+        <v>45735.950672569445</v>
+      </c>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
       <c r="R11" s="294"/>
       <c r="S11" s="294"/>
       <c r="T11" s="294"/>
@@ -40452,20 +40426,20 @@
       <c r="K12" s="226"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="381" t="str">
+      <c r="N12" s="362" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="364"/>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="364"/>
-      <c r="V12" s="364"/>
-      <c r="W12" s="364"/>
-      <c r="X12" s="364"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="363"/>
+      <c r="U12" s="363"/>
+      <c r="V12" s="363"/>
+      <c r="W12" s="363"/>
+      <c r="X12" s="363"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="223" t="s">
@@ -40482,20 +40456,20 @@
       <c r="K13" s="226"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="381" t="str">
+      <c r="N13" s="362" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="364"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="364"/>
-      <c r="R13" s="364"/>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
-      <c r="V13" s="364"/>
-      <c r="W13" s="364"/>
-      <c r="X13" s="364"/>
+      <c r="O13" s="363"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="363"/>
+      <c r="S13" s="363"/>
+      <c r="T13" s="363"/>
+      <c r="U13" s="363"/>
+      <c r="V13" s="363"/>
+      <c r="W13" s="363"/>
+      <c r="X13" s="363"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="223" t="s">
@@ -40512,20 +40486,20 @@
       <c r="K14" s="226"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="381" t="str">
+      <c r="N14" s="362" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="364"/>
-      <c r="V14" s="364"/>
-      <c r="W14" s="364"/>
-      <c r="X14" s="364"/>
+      <c r="O14" s="363"/>
+      <c r="P14" s="363"/>
+      <c r="Q14" s="363"/>
+      <c r="R14" s="363"/>
+      <c r="S14" s="363"/>
+      <c r="T14" s="363"/>
+      <c r="U14" s="363"/>
+      <c r="V14" s="363"/>
+      <c r="W14" s="363"/>
+      <c r="X14" s="363"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="223" t="s">
@@ -40542,20 +40516,20 @@
       <c r="K15" s="226"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="381" t="str">
+      <c r="N15" s="362" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="364"/>
-      <c r="V15" s="364"/>
-      <c r="W15" s="364"/>
-      <c r="X15" s="364"/>
+      <c r="O15" s="363"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="363"/>
+      <c r="R15" s="363"/>
+      <c r="S15" s="363"/>
+      <c r="T15" s="363"/>
+      <c r="U15" s="363"/>
+      <c r="V15" s="363"/>
+      <c r="W15" s="363"/>
+      <c r="X15" s="363"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="223" t="s">
@@ -40572,20 +40546,20 @@
       <c r="K16" s="226"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="381" t="str">
+      <c r="N16" s="362" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="364"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="364"/>
-      <c r="R16" s="364"/>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="364"/>
-      <c r="V16" s="364"/>
-      <c r="W16" s="364"/>
-      <c r="X16" s="364"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="363"/>
+      <c r="U16" s="363"/>
+      <c r="V16" s="363"/>
+      <c r="W16" s="363"/>
+      <c r="X16" s="363"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="223" t="s">
@@ -40602,16 +40576,16 @@
       <c r="K17" s="226"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="381" t="str">
+      <c r="N17" s="362" t="str">
         <f>General!F15</f>
         <v>0.5</v>
       </c>
-      <c r="O17" s="364"/>
-      <c r="P17" s="381" t="str">
+      <c r="O17" s="363"/>
+      <c r="P17" s="362" t="str">
         <f>General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="364"/>
+      <c r="Q17" s="363"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -40635,20 +40609,20 @@
       <c r="K18" s="226"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="381" t="str">
+      <c r="N18" s="362" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="364"/>
-      <c r="X18" s="364"/>
+      <c r="O18" s="363"/>
+      <c r="P18" s="363"/>
+      <c r="Q18" s="363"/>
+      <c r="R18" s="363"/>
+      <c r="S18" s="363"/>
+      <c r="T18" s="363"/>
+      <c r="U18" s="363"/>
+      <c r="V18" s="363"/>
+      <c r="W18" s="363"/>
+      <c r="X18" s="363"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="223" t="s">
@@ -40665,20 +40639,20 @@
       <c r="K19" s="226"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="381" t="str">
+      <c r="N19" s="362" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="364"/>
-      <c r="X19" s="364"/>
+      <c r="O19" s="363"/>
+      <c r="P19" s="363"/>
+      <c r="Q19" s="363"/>
+      <c r="R19" s="363"/>
+      <c r="S19" s="363"/>
+      <c r="T19" s="363"/>
+      <c r="U19" s="363"/>
+      <c r="V19" s="363"/>
+      <c r="W19" s="363"/>
+      <c r="X19" s="363"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="228" t="s">
@@ -40695,20 +40669,20 @@
       <c r="K20" s="226"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="364" t="str">
+      <c r="N20" s="363" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
+      <c r="O20" s="363"/>
+      <c r="P20" s="363"/>
+      <c r="Q20" s="363"/>
+      <c r="R20" s="363"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="363"/>
+      <c r="U20" s="363"/>
+      <c r="V20" s="363"/>
+      <c r="W20" s="363"/>
+      <c r="X20" s="363"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="223" t="s">
@@ -40725,34 +40699,34 @@
       <c r="K21" s="226"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="384" t="str">
+      <c r="N21" s="365" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="384"/>
-      <c r="P21" s="384"/>
-      <c r="Q21" s="384"/>
-      <c r="R21" s="384"/>
-      <c r="S21" s="384"/>
-      <c r="T21" s="384"/>
-      <c r="U21" s="384"/>
-      <c r="V21" s="384"/>
-      <c r="W21" s="384"/>
-      <c r="X21" s="384"/>
+      <c r="O21" s="365"/>
+      <c r="P21" s="365"/>
+      <c r="Q21" s="365"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="365"/>
+      <c r="T21" s="365"/>
+      <c r="U21" s="365"/>
+      <c r="V21" s="365"/>
+      <c r="W21" s="365"/>
+      <c r="X21" s="365"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="223"/>
-      <c r="N22" s="384"/>
-      <c r="O22" s="384"/>
-      <c r="P22" s="384"/>
-      <c r="Q22" s="384"/>
-      <c r="R22" s="384"/>
-      <c r="S22" s="384"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="384"/>
-      <c r="V22" s="384"/>
-      <c r="W22" s="384"/>
-      <c r="X22" s="384"/>
+      <c r="N22" s="365"/>
+      <c r="O22" s="365"/>
+      <c r="P22" s="365"/>
+      <c r="Q22" s="365"/>
+      <c r="R22" s="365"/>
+      <c r="S22" s="365"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="365"/>
+      <c r="W22" s="365"/>
+      <c r="X22" s="365"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="223" t="s">
@@ -40767,308 +40741,308 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="370" t="s">
+      <c r="D24" s="366" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="370"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="370"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="370"/>
-      <c r="J24" s="370"/>
-      <c r="K24" s="370"/>
-      <c r="L24" s="370"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="370"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="370"/>
-      <c r="U24" s="370"/>
-      <c r="V24" s="370"/>
-      <c r="W24" s="370"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
+      <c r="K24" s="366"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="366"/>
+      <c r="O24" s="366"/>
+      <c r="P24" s="366"/>
+      <c r="Q24" s="366"/>
+      <c r="R24" s="366"/>
+      <c r="S24" s="366"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="366"/>
+      <c r="V24" s="366"/>
+      <c r="W24" s="366"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="371" t="s">
+      <c r="D25" s="367" t="s">
         <v>628</v>
       </c>
-      <c r="E25" s="371"/>
-      <c r="F25" s="372" t="s">
+      <c r="E25" s="367"/>
+      <c r="F25" s="368" t="s">
         <v>693</v>
       </c>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
-      <c r="I25" s="372"/>
-      <c r="J25" s="372"/>
-      <c r="K25" s="372"/>
-      <c r="L25" s="372" t="s">
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
+      <c r="J25" s="368"/>
+      <c r="K25" s="368"/>
+      <c r="L25" s="368" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="372"/>
-      <c r="N25" s="372"/>
-      <c r="O25" s="372"/>
-      <c r="P25" s="372"/>
-      <c r="Q25" s="372"/>
-      <c r="R25" s="371" t="s">
+      <c r="M25" s="368"/>
+      <c r="N25" s="368"/>
+      <c r="O25" s="368"/>
+      <c r="P25" s="368"/>
+      <c r="Q25" s="368"/>
+      <c r="R25" s="367" t="s">
         <v>694</v>
       </c>
-      <c r="S25" s="371"/>
-      <c r="T25" s="371"/>
-      <c r="U25" s="371"/>
-      <c r="V25" s="371"/>
-      <c r="W25" s="371"/>
+      <c r="S25" s="367"/>
+      <c r="T25" s="367"/>
+      <c r="U25" s="367"/>
+      <c r="V25" s="367"/>
+      <c r="W25" s="367"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="371"/>
-      <c r="E26" s="371"/>
-      <c r="F26" s="372"/>
-      <c r="G26" s="372"/>
-      <c r="H26" s="372"/>
-      <c r="I26" s="372"/>
-      <c r="J26" s="372"/>
-      <c r="K26" s="372"/>
-      <c r="L26" s="372"/>
-      <c r="M26" s="372"/>
-      <c r="N26" s="372"/>
-      <c r="O26" s="372"/>
-      <c r="P26" s="372"/>
-      <c r="Q26" s="372"/>
-      <c r="R26" s="371"/>
-      <c r="S26" s="371"/>
-      <c r="T26" s="371"/>
-      <c r="U26" s="371"/>
-      <c r="V26" s="371"/>
-      <c r="W26" s="371"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="368"/>
+      <c r="G26" s="368"/>
+      <c r="H26" s="368"/>
+      <c r="I26" s="368"/>
+      <c r="J26" s="368"/>
+      <c r="K26" s="368"/>
+      <c r="L26" s="368"/>
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="367"/>
+      <c r="S26" s="367"/>
+      <c r="T26" s="367"/>
+      <c r="U26" s="367"/>
+      <c r="V26" s="367"/>
+      <c r="W26" s="367"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="373" t="str">
+      <c r="D27" s="369" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="373"/>
-      <c r="F27" s="374" t="str">
+      <c r="E27" s="369"/>
+      <c r="F27" s="370" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="375"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="375"/>
-      <c r="J27" s="375"/>
-      <c r="K27" s="376"/>
-      <c r="L27" s="374" t="str">
+      <c r="G27" s="371"/>
+      <c r="H27" s="371"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="372"/>
+      <c r="L27" s="370" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="375"/>
-      <c r="N27" s="375"/>
-      <c r="O27" s="375"/>
-      <c r="P27" s="375"/>
-      <c r="Q27" s="376"/>
-      <c r="R27" s="374" t="str">
+      <c r="M27" s="371"/>
+      <c r="N27" s="371"/>
+      <c r="O27" s="371"/>
+      <c r="P27" s="371"/>
+      <c r="Q27" s="372"/>
+      <c r="R27" s="370" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="375"/>
-      <c r="T27" s="375"/>
-      <c r="U27" s="375"/>
-      <c r="V27" s="375"/>
-      <c r="W27" s="376"/>
+      <c r="S27" s="371"/>
+      <c r="T27" s="371"/>
+      <c r="U27" s="371"/>
+      <c r="V27" s="371"/>
+      <c r="W27" s="372"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="377">
+      <c r="D28" s="352">
         <f ca="1">Calibración!C38</f>
         <v>6.9374475000000002</v>
       </c>
-      <c r="E28" s="377"/>
-      <c r="F28" s="378">
+      <c r="E28" s="352"/>
+      <c r="F28" s="353">
         <f ca="1">Calibración!D38</f>
         <v>7</v>
       </c>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="379"/>
-      <c r="K28" s="380"/>
-      <c r="L28" s="378">
+      <c r="G28" s="354"/>
+      <c r="H28" s="354"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="355"/>
+      <c r="L28" s="353">
         <f ca="1">Calibración!E38</f>
         <v>-6.2552499999999789E-2</v>
       </c>
-      <c r="M28" s="379"/>
-      <c r="N28" s="379"/>
-      <c r="O28" s="379"/>
-      <c r="P28" s="379"/>
-      <c r="Q28" s="380"/>
-      <c r="R28" s="378">
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="355"/>
+      <c r="R28" s="353">
         <f ca="1">Calibración!F38</f>
         <v>0.31444462655612504</v>
       </c>
-      <c r="S28" s="379"/>
-      <c r="T28" s="379"/>
-      <c r="U28" s="379"/>
-      <c r="V28" s="379"/>
-      <c r="W28" s="380"/>
+      <c r="S28" s="354"/>
+      <c r="T28" s="354"/>
+      <c r="U28" s="354"/>
+      <c r="V28" s="354"/>
+      <c r="W28" s="355"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="377">
+      <c r="D29" s="352">
         <f ca="1">Calibración!C39</f>
         <v>9.9586176000000002</v>
       </c>
-      <c r="E29" s="377"/>
-      <c r="F29" s="378">
+      <c r="E29" s="352"/>
+      <c r="F29" s="353">
         <f ca="1">Calibración!D39</f>
         <v>10</v>
       </c>
-      <c r="G29" s="379"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="379"/>
-      <c r="J29" s="379"/>
-      <c r="K29" s="380"/>
-      <c r="L29" s="378">
+      <c r="G29" s="354"/>
+      <c r="H29" s="354"/>
+      <c r="I29" s="354"/>
+      <c r="J29" s="354"/>
+      <c r="K29" s="355"/>
+      <c r="L29" s="353">
         <f ca="1">Calibración!E39</f>
         <v>-4.1382399999999819E-2</v>
       </c>
-      <c r="M29" s="379"/>
-      <c r="N29" s="379"/>
-      <c r="O29" s="379"/>
-      <c r="P29" s="379"/>
-      <c r="Q29" s="380"/>
-      <c r="R29" s="378">
+      <c r="M29" s="354"/>
+      <c r="N29" s="354"/>
+      <c r="O29" s="354"/>
+      <c r="P29" s="354"/>
+      <c r="Q29" s="355"/>
+      <c r="R29" s="353">
         <f ca="1">Calibración!F39</f>
         <v>0.3029624617203534</v>
       </c>
-      <c r="S29" s="379"/>
-      <c r="T29" s="379"/>
-      <c r="U29" s="379"/>
-      <c r="V29" s="379"/>
-      <c r="W29" s="380"/>
+      <c r="S29" s="354"/>
+      <c r="T29" s="354"/>
+      <c r="U29" s="354"/>
+      <c r="V29" s="354"/>
+      <c r="W29" s="355"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="377">
+      <c r="D30" s="352">
         <f ca="1">Calibración!C40</f>
         <v>17.942603100000003</v>
       </c>
-      <c r="E30" s="377"/>
-      <c r="F30" s="378">
+      <c r="E30" s="352"/>
+      <c r="F30" s="353">
         <f ca="1">Calibración!D40</f>
         <v>18</v>
       </c>
-      <c r="G30" s="379"/>
-      <c r="H30" s="379"/>
-      <c r="I30" s="379"/>
-      <c r="J30" s="379"/>
-      <c r="K30" s="380"/>
-      <c r="L30" s="378">
+      <c r="G30" s="354"/>
+      <c r="H30" s="354"/>
+      <c r="I30" s="354"/>
+      <c r="J30" s="354"/>
+      <c r="K30" s="355"/>
+      <c r="L30" s="353">
         <f ca="1">Calibración!E40</f>
         <v>-5.7396899999996975E-2</v>
       </c>
-      <c r="M30" s="379"/>
-      <c r="N30" s="379"/>
-      <c r="O30" s="379"/>
-      <c r="P30" s="379"/>
-      <c r="Q30" s="380"/>
-      <c r="R30" s="378">
+      <c r="M30" s="354"/>
+      <c r="N30" s="354"/>
+      <c r="O30" s="354"/>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="355"/>
+      <c r="R30" s="353">
         <f ca="1">Calibración!F40</f>
         <v>0.30169230724994645</v>
       </c>
-      <c r="S30" s="379"/>
-      <c r="T30" s="379"/>
-      <c r="U30" s="379"/>
-      <c r="V30" s="379"/>
-      <c r="W30" s="380"/>
+      <c r="S30" s="354"/>
+      <c r="T30" s="354"/>
+      <c r="U30" s="354"/>
+      <c r="V30" s="354"/>
+      <c r="W30" s="355"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="377">
+      <c r="D31" s="352">
         <f ca="1">Calibración!C41</f>
         <v>24.944520900000001</v>
       </c>
-      <c r="E31" s="377"/>
-      <c r="F31" s="378">
+      <c r="E31" s="352"/>
+      <c r="F31" s="353">
         <f ca="1">Calibración!D41</f>
         <v>25</v>
       </c>
-      <c r="G31" s="379"/>
-      <c r="H31" s="379"/>
-      <c r="I31" s="379"/>
-      <c r="J31" s="379"/>
-      <c r="K31" s="380"/>
-      <c r="L31" s="378">
+      <c r="G31" s="354"/>
+      <c r="H31" s="354"/>
+      <c r="I31" s="354"/>
+      <c r="J31" s="354"/>
+      <c r="K31" s="355"/>
+      <c r="L31" s="353">
         <f ca="1">Calibración!E41</f>
         <v>-5.5479099999999448E-2</v>
       </c>
-      <c r="M31" s="379"/>
-      <c r="N31" s="379"/>
-      <c r="O31" s="379"/>
-      <c r="P31" s="379"/>
-      <c r="Q31" s="380"/>
-      <c r="R31" s="378">
+      <c r="M31" s="354"/>
+      <c r="N31" s="354"/>
+      <c r="O31" s="354"/>
+      <c r="P31" s="354"/>
+      <c r="Q31" s="355"/>
+      <c r="R31" s="353">
         <f ca="1">Calibración!F41</f>
         <v>0.3084262967178707</v>
       </c>
-      <c r="S31" s="379"/>
-      <c r="T31" s="379"/>
-      <c r="U31" s="379"/>
-      <c r="V31" s="379"/>
-      <c r="W31" s="380"/>
+      <c r="S31" s="354"/>
+      <c r="T31" s="354"/>
+      <c r="U31" s="354"/>
+      <c r="V31" s="354"/>
+      <c r="W31" s="355"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="377">
+      <c r="D32" s="352">
         <f ca="1">Calibración!C42</f>
         <v>34.915131899999992</v>
       </c>
-      <c r="E32" s="377"/>
-      <c r="F32" s="378">
+      <c r="E32" s="352"/>
+      <c r="F32" s="353">
         <f ca="1">Calibración!D42</f>
         <v>35</v>
       </c>
-      <c r="G32" s="379"/>
-      <c r="H32" s="379"/>
-      <c r="I32" s="379"/>
-      <c r="J32" s="379"/>
-      <c r="K32" s="380"/>
-      <c r="L32" s="378">
+      <c r="G32" s="354"/>
+      <c r="H32" s="354"/>
+      <c r="I32" s="354"/>
+      <c r="J32" s="354"/>
+      <c r="K32" s="355"/>
+      <c r="L32" s="353">
         <f ca="1">Calibración!E42</f>
         <v>-8.486810000000844E-2</v>
       </c>
-      <c r="M32" s="379"/>
-      <c r="N32" s="379"/>
-      <c r="O32" s="379"/>
-      <c r="P32" s="379"/>
-      <c r="Q32" s="380"/>
-      <c r="R32" s="378">
+      <c r="M32" s="354"/>
+      <c r="N32" s="354"/>
+      <c r="O32" s="354"/>
+      <c r="P32" s="354"/>
+      <c r="Q32" s="355"/>
+      <c r="R32" s="353">
         <f ca="1">Calibración!F42</f>
         <v>0.33362408938287968</v>
       </c>
-      <c r="S32" s="379"/>
-      <c r="T32" s="379"/>
-      <c r="U32" s="379"/>
-      <c r="V32" s="379"/>
-      <c r="W32" s="380"/>
+      <c r="S32" s="354"/>
+      <c r="T32" s="354"/>
+      <c r="U32" s="354"/>
+      <c r="V32" s="354"/>
+      <c r="W32" s="355"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D33" s="229"/>
@@ -41121,308 +41095,308 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="370" t="s">
+      <c r="D35" s="366" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="370"/>
-      <c r="F35" s="370"/>
-      <c r="G35" s="370"/>
-      <c r="H35" s="370"/>
-      <c r="I35" s="370"/>
-      <c r="J35" s="370"/>
-      <c r="K35" s="370"/>
-      <c r="L35" s="370"/>
-      <c r="M35" s="370"/>
-      <c r="N35" s="370"/>
-      <c r="O35" s="370"/>
-      <c r="P35" s="370"/>
-      <c r="Q35" s="370"/>
-      <c r="R35" s="370"/>
-      <c r="S35" s="370"/>
-      <c r="T35" s="370"/>
-      <c r="U35" s="370"/>
-      <c r="V35" s="370"/>
-      <c r="W35" s="370"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="366"/>
+      <c r="G35" s="366"/>
+      <c r="H35" s="366"/>
+      <c r="I35" s="366"/>
+      <c r="J35" s="366"/>
+      <c r="K35" s="366"/>
+      <c r="L35" s="366"/>
+      <c r="M35" s="366"/>
+      <c r="N35" s="366"/>
+      <c r="O35" s="366"/>
+      <c r="P35" s="366"/>
+      <c r="Q35" s="366"/>
+      <c r="R35" s="366"/>
+      <c r="S35" s="366"/>
+      <c r="T35" s="366"/>
+      <c r="U35" s="366"/>
+      <c r="V35" s="366"/>
+      <c r="W35" s="366"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="371" t="s">
+      <c r="D36" s="367" t="s">
         <v>628</v>
       </c>
-      <c r="E36" s="371"/>
-      <c r="F36" s="372" t="s">
+      <c r="E36" s="367"/>
+      <c r="F36" s="368" t="s">
         <v>693</v>
       </c>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
-      <c r="I36" s="372"/>
-      <c r="J36" s="372"/>
-      <c r="K36" s="372"/>
-      <c r="L36" s="372" t="s">
+      <c r="G36" s="368"/>
+      <c r="H36" s="368"/>
+      <c r="I36" s="368"/>
+      <c r="J36" s="368"/>
+      <c r="K36" s="368"/>
+      <c r="L36" s="368" t="s">
         <v>364</v>
       </c>
-      <c r="M36" s="372"/>
-      <c r="N36" s="372"/>
-      <c r="O36" s="372"/>
-      <c r="P36" s="372"/>
-      <c r="Q36" s="372"/>
-      <c r="R36" s="371" t="s">
+      <c r="M36" s="368"/>
+      <c r="N36" s="368"/>
+      <c r="O36" s="368"/>
+      <c r="P36" s="368"/>
+      <c r="Q36" s="368"/>
+      <c r="R36" s="367" t="s">
         <v>694</v>
       </c>
-      <c r="S36" s="371"/>
-      <c r="T36" s="371"/>
-      <c r="U36" s="371"/>
-      <c r="V36" s="371"/>
-      <c r="W36" s="371"/>
+      <c r="S36" s="367"/>
+      <c r="T36" s="367"/>
+      <c r="U36" s="367"/>
+      <c r="V36" s="367"/>
+      <c r="W36" s="367"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="371"/>
-      <c r="E37" s="371"/>
-      <c r="F37" s="372"/>
-      <c r="G37" s="372"/>
-      <c r="H37" s="372"/>
-      <c r="I37" s="372"/>
-      <c r="J37" s="372"/>
-      <c r="K37" s="372"/>
-      <c r="L37" s="372"/>
-      <c r="M37" s="372"/>
-      <c r="N37" s="372"/>
-      <c r="O37" s="372"/>
-      <c r="P37" s="372"/>
-      <c r="Q37" s="372"/>
-      <c r="R37" s="371"/>
-      <c r="S37" s="371"/>
-      <c r="T37" s="371"/>
-      <c r="U37" s="371"/>
-      <c r="V37" s="371"/>
-      <c r="W37" s="371"/>
+      <c r="D37" s="367"/>
+      <c r="E37" s="367"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="368"/>
+      <c r="H37" s="368"/>
+      <c r="I37" s="368"/>
+      <c r="J37" s="368"/>
+      <c r="K37" s="368"/>
+      <c r="L37" s="368"/>
+      <c r="M37" s="368"/>
+      <c r="N37" s="368"/>
+      <c r="O37" s="368"/>
+      <c r="P37" s="368"/>
+      <c r="Q37" s="368"/>
+      <c r="R37" s="367"/>
+      <c r="S37" s="367"/>
+      <c r="T37" s="367"/>
+      <c r="U37" s="367"/>
+      <c r="V37" s="367"/>
+      <c r="W37" s="367"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="373" t="str">
+      <c r="D38" s="369" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E38" s="373"/>
-      <c r="F38" s="374" t="str">
+      <c r="E38" s="369"/>
+      <c r="F38" s="370" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G38" s="375"/>
-      <c r="H38" s="375"/>
-      <c r="I38" s="375"/>
-      <c r="J38" s="375"/>
-      <c r="K38" s="376"/>
-      <c r="L38" s="373" t="str">
+      <c r="G38" s="371"/>
+      <c r="H38" s="371"/>
+      <c r="I38" s="371"/>
+      <c r="J38" s="371"/>
+      <c r="K38" s="372"/>
+      <c r="L38" s="369" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M38" s="373"/>
-      <c r="N38" s="373"/>
-      <c r="O38" s="373"/>
-      <c r="P38" s="373"/>
-      <c r="Q38" s="373"/>
-      <c r="R38" s="373" t="str">
+      <c r="M38" s="369"/>
+      <c r="N38" s="369"/>
+      <c r="O38" s="369"/>
+      <c r="P38" s="369"/>
+      <c r="Q38" s="369"/>
+      <c r="R38" s="369" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S38" s="373"/>
-      <c r="T38" s="373"/>
-      <c r="U38" s="373"/>
-      <c r="V38" s="373"/>
-      <c r="W38" s="373"/>
+      <c r="S38" s="369"/>
+      <c r="T38" s="369"/>
+      <c r="U38" s="369"/>
+      <c r="V38" s="369"/>
+      <c r="W38" s="369"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="366">
+      <c r="D39" s="356">
         <f ca="1">Calibración!G38</f>
         <v>47.832014712757505</v>
       </c>
-      <c r="E39" s="366"/>
-      <c r="F39" s="367">
+      <c r="E39" s="356"/>
+      <c r="F39" s="357">
         <f ca="1">Calibración!H38</f>
         <v>48.263299000000004</v>
       </c>
-      <c r="G39" s="368"/>
-      <c r="H39" s="368"/>
-      <c r="I39" s="368"/>
-      <c r="J39" s="368"/>
-      <c r="K39" s="369"/>
-      <c r="L39" s="366">
+      <c r="G39" s="358"/>
+      <c r="H39" s="358"/>
+      <c r="I39" s="358"/>
+      <c r="J39" s="358"/>
+      <c r="K39" s="359"/>
+      <c r="L39" s="356">
         <f ca="1">Calibración!I38</f>
         <v>-0.43128428724249857</v>
       </c>
-      <c r="M39" s="366"/>
-      <c r="N39" s="366"/>
-      <c r="O39" s="366"/>
-      <c r="P39" s="366"/>
-      <c r="Q39" s="366"/>
-      <c r="R39" s="366">
+      <c r="M39" s="356"/>
+      <c r="N39" s="356"/>
+      <c r="O39" s="356"/>
+      <c r="P39" s="356"/>
+      <c r="Q39" s="356"/>
+      <c r="R39" s="356">
         <f ca="1">Calibración!J38</f>
         <v>2.1680192900602293</v>
       </c>
-      <c r="S39" s="366"/>
-      <c r="T39" s="366"/>
-      <c r="U39" s="366"/>
-      <c r="V39" s="366"/>
-      <c r="W39" s="366"/>
+      <c r="S39" s="356"/>
+      <c r="T39" s="356"/>
+      <c r="U39" s="356"/>
+      <c r="V39" s="356"/>
+      <c r="W39" s="356"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="366">
+      <c r="D40" s="356">
         <f ca="1">Calibración!G39</f>
         <v>68.662248407923201</v>
       </c>
-      <c r="E40" s="366"/>
-      <c r="F40" s="367">
+      <c r="E40" s="356"/>
+      <c r="F40" s="357">
         <f ca="1">Calibración!H39</f>
         <v>68.947569999999999</v>
       </c>
-      <c r="G40" s="368"/>
-      <c r="H40" s="368"/>
-      <c r="I40" s="368"/>
-      <c r="J40" s="368"/>
-      <c r="K40" s="369"/>
-      <c r="L40" s="366">
+      <c r="G40" s="358"/>
+      <c r="H40" s="358"/>
+      <c r="I40" s="358"/>
+      <c r="J40" s="358"/>
+      <c r="K40" s="359"/>
+      <c r="L40" s="356">
         <f ca="1">Calibración!I39</f>
         <v>-0.28532159207679875</v>
       </c>
-      <c r="M40" s="366"/>
-      <c r="N40" s="366"/>
-      <c r="O40" s="366"/>
-      <c r="P40" s="366"/>
-      <c r="Q40" s="366"/>
-      <c r="R40" s="366">
+      <c r="M40" s="356"/>
+      <c r="N40" s="356"/>
+      <c r="O40" s="356"/>
+      <c r="P40" s="356"/>
+      <c r="Q40" s="356"/>
+      <c r="R40" s="356">
         <f ca="1">Calibración!J39</f>
         <v>2.0888525536836386</v>
       </c>
-      <c r="S40" s="366"/>
-      <c r="T40" s="366"/>
-      <c r="U40" s="366"/>
-      <c r="V40" s="366"/>
-      <c r="W40" s="366"/>
+      <c r="S40" s="356"/>
+      <c r="T40" s="356"/>
+      <c r="U40" s="356"/>
+      <c r="V40" s="356"/>
+      <c r="W40" s="356"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="366">
+      <c r="D41" s="356">
         <f ca="1">Calibración!G40</f>
         <v>123.70988832194672</v>
       </c>
-      <c r="E41" s="366"/>
-      <c r="F41" s="367">
+      <c r="E41" s="356"/>
+      <c r="F41" s="357">
         <f ca="1">Calibración!H40</f>
         <v>124.105626</v>
       </c>
-      <c r="G41" s="368"/>
-      <c r="H41" s="368"/>
-      <c r="I41" s="368"/>
-      <c r="J41" s="368"/>
-      <c r="K41" s="369"/>
-      <c r="L41" s="366">
+      <c r="G41" s="358"/>
+      <c r="H41" s="358"/>
+      <c r="I41" s="358"/>
+      <c r="J41" s="358"/>
+      <c r="K41" s="359"/>
+      <c r="L41" s="356">
         <f ca="1">Calibración!I40</f>
         <v>-0.39573767805327914</v>
       </c>
-      <c r="M41" s="366"/>
-      <c r="N41" s="366"/>
-      <c r="O41" s="366"/>
-      <c r="P41" s="366"/>
-      <c r="Q41" s="366"/>
-      <c r="R41" s="366">
+      <c r="M41" s="356"/>
+      <c r="N41" s="356"/>
+      <c r="O41" s="356"/>
+      <c r="P41" s="356"/>
+      <c r="Q41" s="356"/>
+      <c r="R41" s="356">
         <f ca="1">Calibración!J40</f>
         <v>2.0800951472577189</v>
       </c>
-      <c r="S41" s="366"/>
-      <c r="T41" s="366"/>
-      <c r="U41" s="366"/>
-      <c r="V41" s="366"/>
-      <c r="W41" s="366"/>
+      <c r="S41" s="356"/>
+      <c r="T41" s="356"/>
+      <c r="U41" s="356"/>
+      <c r="V41" s="356"/>
+      <c r="W41" s="356"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="366">
+      <c r="D42" s="356">
         <f ca="1">Calibración!G41</f>
         <v>171.9864100869213</v>
       </c>
-      <c r="E42" s="366"/>
-      <c r="F42" s="367">
+      <c r="E42" s="356"/>
+      <c r="F42" s="357">
         <f ca="1">Calibración!H41</f>
         <v>172.36892500000002</v>
       </c>
-      <c r="G42" s="368"/>
-      <c r="H42" s="368"/>
-      <c r="I42" s="368"/>
-      <c r="J42" s="368"/>
-      <c r="K42" s="369"/>
-      <c r="L42" s="366">
+      <c r="G42" s="358"/>
+      <c r="H42" s="358"/>
+      <c r="I42" s="358"/>
+      <c r="J42" s="358"/>
+      <c r="K42" s="359"/>
+      <c r="L42" s="356">
         <f ca="1">Calibración!I41</f>
         <v>-0.38251491307869623</v>
       </c>
-      <c r="M42" s="366"/>
-      <c r="N42" s="366"/>
-      <c r="O42" s="366"/>
-      <c r="P42" s="366"/>
-      <c r="Q42" s="366"/>
-      <c r="R42" s="366">
+      <c r="M42" s="356"/>
+      <c r="N42" s="356"/>
+      <c r="O42" s="356"/>
+      <c r="P42" s="356"/>
+      <c r="Q42" s="356"/>
+      <c r="R42" s="356">
         <f ca="1">Calibración!J41</f>
         <v>2.126524368279616</v>
       </c>
-      <c r="S42" s="366"/>
-      <c r="T42" s="366"/>
-      <c r="U42" s="366"/>
-      <c r="V42" s="366"/>
-      <c r="W42" s="366"/>
+      <c r="S42" s="356"/>
+      <c r="T42" s="356"/>
+      <c r="U42" s="356"/>
+      <c r="V42" s="356"/>
+      <c r="W42" s="356"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="366">
+      <c r="D43" s="356">
         <f ca="1">Calibración!G42</f>
         <v>240.73135007344825</v>
       </c>
-      <c r="E43" s="366"/>
-      <c r="F43" s="367">
+      <c r="E43" s="356"/>
+      <c r="F43" s="357">
         <f ca="1">Calibración!H42</f>
         <v>241.316495</v>
       </c>
-      <c r="G43" s="368"/>
-      <c r="H43" s="368"/>
-      <c r="I43" s="368"/>
-      <c r="J43" s="368"/>
-      <c r="K43" s="369"/>
-      <c r="L43" s="366">
+      <c r="G43" s="358"/>
+      <c r="H43" s="358"/>
+      <c r="I43" s="358"/>
+      <c r="J43" s="358"/>
+      <c r="K43" s="359"/>
+      <c r="L43" s="356">
         <f ca="1">Calibración!I42</f>
         <v>-0.5851449265517582</v>
       </c>
-      <c r="M43" s="366"/>
-      <c r="N43" s="366"/>
-      <c r="O43" s="366"/>
-      <c r="P43" s="366"/>
-      <c r="Q43" s="366"/>
-      <c r="R43" s="366">
+      <c r="M43" s="356"/>
+      <c r="N43" s="356"/>
+      <c r="O43" s="356"/>
+      <c r="P43" s="356"/>
+      <c r="Q43" s="356"/>
+      <c r="R43" s="356">
         <f ca="1">Calibración!J42</f>
         <v>2.3002570256412356</v>
       </c>
-      <c r="S43" s="366"/>
-      <c r="T43" s="366"/>
-      <c r="U43" s="366"/>
-      <c r="V43" s="366"/>
-      <c r="W43" s="366"/>
+      <c r="S43" s="356"/>
+      <c r="T43" s="356"/>
+      <c r="U43" s="356"/>
+      <c r="V43" s="356"/>
+      <c r="W43" s="356"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O44" s="231"/>
@@ -41459,11 +41433,11 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="233"/>
-      <c r="B46" s="363" t="s">
+      <c r="B46" s="380" t="s">
         <v>698</v>
       </c>
-      <c r="C46" s="363"/>
-      <c r="D46" s="363"/>
+      <c r="C46" s="380"/>
+      <c r="D46" s="380"/>
       <c r="E46" s="234">
         <f>CertTempC</f>
         <v>20.25</v>
@@ -41480,8 +41454,8 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="364"/>
-      <c r="L46" s="364"/>
+      <c r="K46" s="363"/>
+      <c r="L46" s="363"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -41491,11 +41465,11 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="365">
+      <c r="T46" s="381">
         <f>General!I18</f>
         <v>1001</v>
       </c>
-      <c r="U46" s="365"/>
+      <c r="U46" s="381"/>
       <c r="V46" s="235" t="s">
         <v>700</v>
       </c>
@@ -41581,20 +41555,20 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="362" t="str">
+      <c r="N56" s="361" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O56" s="362"/>
-      <c r="P56" s="362"/>
-      <c r="Q56" s="362"/>
-      <c r="R56" s="362"/>
-      <c r="S56" s="362"/>
-      <c r="T56" s="362"/>
-      <c r="U56" s="362"/>
-      <c r="V56" s="362"/>
-      <c r="W56" s="362"/>
-      <c r="X56" s="362"/>
+      <c r="O56" s="361"/>
+      <c r="P56" s="361"/>
+      <c r="Q56" s="361"/>
+      <c r="R56" s="361"/>
+      <c r="S56" s="361"/>
+      <c r="T56" s="361"/>
+      <c r="U56" s="361"/>
+      <c r="V56" s="361"/>
+      <c r="W56" s="361"/>
+      <c r="X56" s="361"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O57" s="231"/>
@@ -41631,32 +41605,32 @@
       <c r="W59" s="9"/>
     </row>
     <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="352" t="s">
+      <c r="A60" s="373" t="s">
         <v>1123</v>
       </c>
-      <c r="B60" s="352"/>
-      <c r="C60" s="352"/>
-      <c r="D60" s="352"/>
-      <c r="E60" s="352"/>
-      <c r="F60" s="352"/>
-      <c r="G60" s="352"/>
-      <c r="H60" s="352"/>
-      <c r="I60" s="352"/>
-      <c r="J60" s="352"/>
-      <c r="K60" s="352"/>
-      <c r="L60" s="352"/>
-      <c r="M60" s="352"/>
-      <c r="N60" s="352"/>
-      <c r="O60" s="352"/>
-      <c r="P60" s="352"/>
-      <c r="Q60" s="352"/>
-      <c r="R60" s="352"/>
-      <c r="S60" s="352"/>
-      <c r="T60" s="352"/>
-      <c r="U60" s="352"/>
-      <c r="V60" s="352"/>
-      <c r="W60" s="352"/>
-      <c r="X60" s="352"/>
+      <c r="B60" s="373"/>
+      <c r="C60" s="373"/>
+      <c r="D60" s="373"/>
+      <c r="E60" s="373"/>
+      <c r="F60" s="373"/>
+      <c r="G60" s="373"/>
+      <c r="H60" s="373"/>
+      <c r="I60" s="373"/>
+      <c r="J60" s="373"/>
+      <c r="K60" s="373"/>
+      <c r="L60" s="373"/>
+      <c r="M60" s="373"/>
+      <c r="N60" s="373"/>
+      <c r="O60" s="373"/>
+      <c r="P60" s="373"/>
+      <c r="Q60" s="373"/>
+      <c r="R60" s="373"/>
+      <c r="S60" s="373"/>
+      <c r="T60" s="373"/>
+      <c r="U60" s="373"/>
+      <c r="V60" s="373"/>
+      <c r="W60" s="373"/>
+      <c r="X60" s="373"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
@@ -41711,136 +41685,136 @@
       <c r="X62" s="16"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="352" t="s">
+      <c r="A63" s="373" t="s">
         <v>706</v>
       </c>
-      <c r="B63" s="352"/>
-      <c r="C63" s="352"/>
-      <c r="D63" s="352"/>
-      <c r="E63" s="352"/>
-      <c r="F63" s="352"/>
-      <c r="G63" s="352"/>
-      <c r="H63" s="352"/>
-      <c r="I63" s="352"/>
-      <c r="J63" s="352"/>
-      <c r="K63" s="352"/>
-      <c r="L63" s="352"/>
-      <c r="M63" s="352"/>
-      <c r="N63" s="352"/>
-      <c r="O63" s="352"/>
-      <c r="P63" s="352"/>
-      <c r="Q63" s="352"/>
-      <c r="R63" s="352"/>
-      <c r="S63" s="352"/>
-      <c r="T63" s="352"/>
-      <c r="U63" s="352"/>
-      <c r="V63" s="352"/>
-      <c r="W63" s="352"/>
-      <c r="X63" s="352"/>
+      <c r="B63" s="373"/>
+      <c r="C63" s="373"/>
+      <c r="D63" s="373"/>
+      <c r="E63" s="373"/>
+      <c r="F63" s="373"/>
+      <c r="G63" s="373"/>
+      <c r="H63" s="373"/>
+      <c r="I63" s="373"/>
+      <c r="J63" s="373"/>
+      <c r="K63" s="373"/>
+      <c r="L63" s="373"/>
+      <c r="M63" s="373"/>
+      <c r="N63" s="373"/>
+      <c r="O63" s="373"/>
+      <c r="P63" s="373"/>
+      <c r="Q63" s="373"/>
+      <c r="R63" s="373"/>
+      <c r="S63" s="373"/>
+      <c r="T63" s="373"/>
+      <c r="U63" s="373"/>
+      <c r="V63" s="373"/>
+      <c r="W63" s="373"/>
+      <c r="X63" s="373"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="352"/>
-      <c r="B64" s="352"/>
-      <c r="C64" s="352"/>
-      <c r="D64" s="352"/>
-      <c r="E64" s="352"/>
-      <c r="F64" s="352"/>
-      <c r="G64" s="352"/>
-      <c r="H64" s="352"/>
-      <c r="I64" s="352"/>
-      <c r="J64" s="352"/>
-      <c r="K64" s="352"/>
-      <c r="L64" s="352"/>
-      <c r="M64" s="352"/>
-      <c r="N64" s="352"/>
-      <c r="O64" s="352"/>
-      <c r="P64" s="352"/>
-      <c r="Q64" s="352"/>
-      <c r="R64" s="352"/>
-      <c r="S64" s="352"/>
-      <c r="T64" s="352"/>
-      <c r="U64" s="352"/>
-      <c r="V64" s="352"/>
-      <c r="W64" s="352"/>
-      <c r="X64" s="352"/>
+      <c r="A64" s="373"/>
+      <c r="B64" s="373"/>
+      <c r="C64" s="373"/>
+      <c r="D64" s="373"/>
+      <c r="E64" s="373"/>
+      <c r="F64" s="373"/>
+      <c r="G64" s="373"/>
+      <c r="H64" s="373"/>
+      <c r="I64" s="373"/>
+      <c r="J64" s="373"/>
+      <c r="K64" s="373"/>
+      <c r="L64" s="373"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="373"/>
+      <c r="O64" s="373"/>
+      <c r="P64" s="373"/>
+      <c r="Q64" s="373"/>
+      <c r="R64" s="373"/>
+      <c r="S64" s="373"/>
+      <c r="T64" s="373"/>
+      <c r="U64" s="373"/>
+      <c r="V64" s="373"/>
+      <c r="W64" s="373"/>
+      <c r="X64" s="373"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="352"/>
-      <c r="B65" s="352"/>
-      <c r="C65" s="352"/>
-      <c r="D65" s="352"/>
-      <c r="E65" s="352"/>
-      <c r="F65" s="352"/>
-      <c r="G65" s="352"/>
-      <c r="H65" s="352"/>
-      <c r="I65" s="352"/>
-      <c r="J65" s="352"/>
-      <c r="K65" s="352"/>
-      <c r="L65" s="352"/>
-      <c r="M65" s="352"/>
-      <c r="N65" s="352"/>
-      <c r="O65" s="352"/>
-      <c r="P65" s="352"/>
-      <c r="Q65" s="352"/>
-      <c r="R65" s="352"/>
-      <c r="S65" s="352"/>
-      <c r="T65" s="352"/>
-      <c r="U65" s="352"/>
-      <c r="V65" s="352"/>
-      <c r="W65" s="352"/>
-      <c r="X65" s="352"/>
+      <c r="A65" s="373"/>
+      <c r="B65" s="373"/>
+      <c r="C65" s="373"/>
+      <c r="D65" s="373"/>
+      <c r="E65" s="373"/>
+      <c r="F65" s="373"/>
+      <c r="G65" s="373"/>
+      <c r="H65" s="373"/>
+      <c r="I65" s="373"/>
+      <c r="J65" s="373"/>
+      <c r="K65" s="373"/>
+      <c r="L65" s="373"/>
+      <c r="M65" s="373"/>
+      <c r="N65" s="373"/>
+      <c r="O65" s="373"/>
+      <c r="P65" s="373"/>
+      <c r="Q65" s="373"/>
+      <c r="R65" s="373"/>
+      <c r="S65" s="373"/>
+      <c r="T65" s="373"/>
+      <c r="U65" s="373"/>
+      <c r="V65" s="373"/>
+      <c r="W65" s="373"/>
+      <c r="X65" s="373"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" s="352"/>
-      <c r="B66" s="352"/>
-      <c r="C66" s="352"/>
-      <c r="D66" s="352"/>
-      <c r="E66" s="352"/>
-      <c r="F66" s="352"/>
-      <c r="G66" s="352"/>
-      <c r="H66" s="352"/>
-      <c r="I66" s="352"/>
-      <c r="J66" s="352"/>
-      <c r="K66" s="352"/>
-      <c r="L66" s="352"/>
-      <c r="M66" s="352"/>
-      <c r="N66" s="352"/>
-      <c r="O66" s="352"/>
-      <c r="P66" s="352"/>
-      <c r="Q66" s="352"/>
-      <c r="R66" s="352"/>
-      <c r="S66" s="352"/>
-      <c r="T66" s="352"/>
-      <c r="U66" s="352"/>
-      <c r="V66" s="352"/>
-      <c r="W66" s="352"/>
-      <c r="X66" s="352"/>
+      <c r="A66" s="373"/>
+      <c r="B66" s="373"/>
+      <c r="C66" s="373"/>
+      <c r="D66" s="373"/>
+      <c r="E66" s="373"/>
+      <c r="F66" s="373"/>
+      <c r="G66" s="373"/>
+      <c r="H66" s="373"/>
+      <c r="I66" s="373"/>
+      <c r="J66" s="373"/>
+      <c r="K66" s="373"/>
+      <c r="L66" s="373"/>
+      <c r="M66" s="373"/>
+      <c r="N66" s="373"/>
+      <c r="O66" s="373"/>
+      <c r="P66" s="373"/>
+      <c r="Q66" s="373"/>
+      <c r="R66" s="373"/>
+      <c r="S66" s="373"/>
+      <c r="T66" s="373"/>
+      <c r="U66" s="373"/>
+      <c r="V66" s="373"/>
+      <c r="W66" s="373"/>
+      <c r="X66" s="373"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" s="352"/>
-      <c r="B67" s="352"/>
-      <c r="C67" s="352"/>
-      <c r="D67" s="352"/>
-      <c r="E67" s="352"/>
-      <c r="F67" s="352"/>
-      <c r="G67" s="352"/>
-      <c r="H67" s="352"/>
-      <c r="I67" s="352"/>
-      <c r="J67" s="352"/>
-      <c r="K67" s="352"/>
-      <c r="L67" s="352"/>
-      <c r="M67" s="352"/>
-      <c r="N67" s="352"/>
-      <c r="O67" s="352"/>
-      <c r="P67" s="352"/>
-      <c r="Q67" s="352"/>
-      <c r="R67" s="352"/>
-      <c r="S67" s="352"/>
-      <c r="T67" s="352"/>
-      <c r="U67" s="352"/>
-      <c r="V67" s="352"/>
-      <c r="W67" s="352"/>
-      <c r="X67" s="352"/>
+      <c r="A67" s="373"/>
+      <c r="B67" s="373"/>
+      <c r="C67" s="373"/>
+      <c r="D67" s="373"/>
+      <c r="E67" s="373"/>
+      <c r="F67" s="373"/>
+      <c r="G67" s="373"/>
+      <c r="H67" s="373"/>
+      <c r="I67" s="373"/>
+      <c r="J67" s="373"/>
+      <c r="K67" s="373"/>
+      <c r="L67" s="373"/>
+      <c r="M67" s="373"/>
+      <c r="N67" s="373"/>
+      <c r="O67" s="373"/>
+      <c r="P67" s="373"/>
+      <c r="Q67" s="373"/>
+      <c r="R67" s="373"/>
+      <c r="S67" s="373"/>
+      <c r="T67" s="373"/>
+      <c r="U67" s="373"/>
+      <c r="V67" s="373"/>
+      <c r="W67" s="373"/>
+      <c r="X67" s="373"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -41894,118 +41868,118 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="356" t="s">
+      <c r="A70" s="374" t="s">
         <v>366</v>
       </c>
-      <c r="B70" s="357"/>
-      <c r="C70" s="357"/>
-      <c r="D70" s="357"/>
-      <c r="E70" s="357"/>
-      <c r="F70" s="358"/>
-      <c r="G70" s="356" t="s">
+      <c r="B70" s="375"/>
+      <c r="C70" s="375"/>
+      <c r="D70" s="375"/>
+      <c r="E70" s="375"/>
+      <c r="F70" s="376"/>
+      <c r="G70" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="357"/>
-      <c r="I70" s="358"/>
-      <c r="J70" s="359" t="s">
+      <c r="H70" s="375"/>
+      <c r="I70" s="376"/>
+      <c r="J70" s="377" t="s">
         <v>369</v>
       </c>
-      <c r="K70" s="360"/>
-      <c r="L70" s="360"/>
-      <c r="M70" s="360"/>
-      <c r="N70" s="361"/>
-      <c r="O70" s="356" t="s">
+      <c r="K70" s="378"/>
+      <c r="L70" s="378"/>
+      <c r="M70" s="378"/>
+      <c r="N70" s="379"/>
+      <c r="O70" s="374" t="s">
         <v>708</v>
       </c>
-      <c r="P70" s="357"/>
-      <c r="Q70" s="357"/>
-      <c r="R70" s="357"/>
-      <c r="S70" s="357"/>
-      <c r="T70" s="358"/>
-      <c r="U70" s="359" t="s">
+      <c r="P70" s="375"/>
+      <c r="Q70" s="375"/>
+      <c r="R70" s="375"/>
+      <c r="S70" s="375"/>
+      <c r="T70" s="376"/>
+      <c r="U70" s="377" t="s">
         <v>709</v>
       </c>
-      <c r="V70" s="360"/>
-      <c r="W70" s="360"/>
-      <c r="X70" s="361"/>
+      <c r="V70" s="378"/>
+      <c r="W70" s="378"/>
+      <c r="X70" s="379"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="346"/>
-      <c r="B71" s="347"/>
-      <c r="C71" s="347"/>
-      <c r="D71" s="347"/>
-      <c r="E71" s="347"/>
-      <c r="F71" s="348"/>
-      <c r="G71" s="346"/>
-      <c r="H71" s="347"/>
-      <c r="I71" s="348"/>
-      <c r="J71" s="349"/>
-      <c r="K71" s="350"/>
-      <c r="L71" s="350"/>
-      <c r="M71" s="350"/>
-      <c r="N71" s="351"/>
-      <c r="O71" s="353"/>
-      <c r="P71" s="354"/>
-      <c r="Q71" s="354"/>
-      <c r="R71" s="354"/>
-      <c r="S71" s="354"/>
-      <c r="T71" s="355"/>
-      <c r="U71" s="349"/>
-      <c r="V71" s="350"/>
-      <c r="W71" s="350"/>
-      <c r="X71" s="351"/>
+      <c r="A71" s="382"/>
+      <c r="B71" s="383"/>
+      <c r="C71" s="383"/>
+      <c r="D71" s="383"/>
+      <c r="E71" s="383"/>
+      <c r="F71" s="384"/>
+      <c r="G71" s="382"/>
+      <c r="H71" s="383"/>
+      <c r="I71" s="384"/>
+      <c r="J71" s="385"/>
+      <c r="K71" s="386"/>
+      <c r="L71" s="386"/>
+      <c r="M71" s="386"/>
+      <c r="N71" s="387"/>
+      <c r="O71" s="388"/>
+      <c r="P71" s="389"/>
+      <c r="Q71" s="389"/>
+      <c r="R71" s="389"/>
+      <c r="S71" s="389"/>
+      <c r="T71" s="390"/>
+      <c r="U71" s="385"/>
+      <c r="V71" s="386"/>
+      <c r="W71" s="386"/>
+      <c r="X71" s="387"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="346"/>
-      <c r="B72" s="347"/>
-      <c r="C72" s="347"/>
-      <c r="D72" s="347"/>
-      <c r="E72" s="347"/>
-      <c r="F72" s="348"/>
-      <c r="G72" s="346"/>
-      <c r="H72" s="347"/>
-      <c r="I72" s="348"/>
-      <c r="J72" s="349"/>
-      <c r="K72" s="350"/>
-      <c r="L72" s="350"/>
-      <c r="M72" s="350"/>
-      <c r="N72" s="351"/>
-      <c r="O72" s="346"/>
-      <c r="P72" s="347"/>
-      <c r="Q72" s="347"/>
-      <c r="R72" s="347"/>
-      <c r="S72" s="347"/>
-      <c r="T72" s="348"/>
-      <c r="U72" s="349"/>
-      <c r="V72" s="350"/>
-      <c r="W72" s="350"/>
-      <c r="X72" s="351"/>
+      <c r="A72" s="382"/>
+      <c r="B72" s="383"/>
+      <c r="C72" s="383"/>
+      <c r="D72" s="383"/>
+      <c r="E72" s="383"/>
+      <c r="F72" s="384"/>
+      <c r="G72" s="382"/>
+      <c r="H72" s="383"/>
+      <c r="I72" s="384"/>
+      <c r="J72" s="385"/>
+      <c r="K72" s="386"/>
+      <c r="L72" s="386"/>
+      <c r="M72" s="386"/>
+      <c r="N72" s="387"/>
+      <c r="O72" s="382"/>
+      <c r="P72" s="383"/>
+      <c r="Q72" s="383"/>
+      <c r="R72" s="383"/>
+      <c r="S72" s="383"/>
+      <c r="T72" s="384"/>
+      <c r="U72" s="385"/>
+      <c r="V72" s="386"/>
+      <c r="W72" s="386"/>
+      <c r="X72" s="387"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="346"/>
-      <c r="B73" s="347"/>
-      <c r="C73" s="347"/>
-      <c r="D73" s="347"/>
-      <c r="E73" s="347"/>
-      <c r="F73" s="348"/>
-      <c r="G73" s="346"/>
-      <c r="H73" s="347"/>
-      <c r="I73" s="348"/>
-      <c r="J73" s="349"/>
-      <c r="K73" s="350"/>
-      <c r="L73" s="350"/>
-      <c r="M73" s="350"/>
-      <c r="N73" s="351"/>
-      <c r="O73" s="346"/>
-      <c r="P73" s="347"/>
-      <c r="Q73" s="347"/>
-      <c r="R73" s="347"/>
-      <c r="S73" s="347"/>
-      <c r="T73" s="348"/>
-      <c r="U73" s="349"/>
-      <c r="V73" s="350"/>
-      <c r="W73" s="350"/>
-      <c r="X73" s="351"/>
+      <c r="A73" s="382"/>
+      <c r="B73" s="383"/>
+      <c r="C73" s="383"/>
+      <c r="D73" s="383"/>
+      <c r="E73" s="383"/>
+      <c r="F73" s="384"/>
+      <c r="G73" s="382"/>
+      <c r="H73" s="383"/>
+      <c r="I73" s="384"/>
+      <c r="J73" s="385"/>
+      <c r="K73" s="386"/>
+      <c r="L73" s="386"/>
+      <c r="M73" s="386"/>
+      <c r="N73" s="387"/>
+      <c r="O73" s="382"/>
+      <c r="P73" s="383"/>
+      <c r="Q73" s="383"/>
+      <c r="R73" s="383"/>
+      <c r="S73" s="383"/>
+      <c r="T73" s="384"/>
+      <c r="U73" s="385"/>
+      <c r="V73" s="386"/>
+      <c r="W73" s="386"/>
+      <c r="X73" s="387"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="237"/>
@@ -42117,59 +42091,59 @@
       <c r="X77" s="9"/>
     </row>
     <row r="78" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="352" t="str">
+      <c r="A78" s="373" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B78" s="352"/>
-      <c r="C78" s="352"/>
-      <c r="D78" s="352"/>
-      <c r="E78" s="352"/>
-      <c r="F78" s="352"/>
-      <c r="G78" s="352"/>
-      <c r="H78" s="352"/>
-      <c r="I78" s="352"/>
-      <c r="J78" s="352"/>
-      <c r="K78" s="352"/>
-      <c r="L78" s="352"/>
-      <c r="M78" s="352"/>
-      <c r="N78" s="352"/>
-      <c r="O78" s="352"/>
-      <c r="P78" s="352"/>
-      <c r="Q78" s="352"/>
-      <c r="R78" s="352"/>
-      <c r="S78" s="352"/>
-      <c r="T78" s="352"/>
-      <c r="U78" s="352"/>
-      <c r="V78" s="352"/>
-      <c r="W78" s="352"/>
-      <c r="X78" s="352"/>
+      <c r="B78" s="373"/>
+      <c r="C78" s="373"/>
+      <c r="D78" s="373"/>
+      <c r="E78" s="373"/>
+      <c r="F78" s="373"/>
+      <c r="G78" s="373"/>
+      <c r="H78" s="373"/>
+      <c r="I78" s="373"/>
+      <c r="J78" s="373"/>
+      <c r="K78" s="373"/>
+      <c r="L78" s="373"/>
+      <c r="M78" s="373"/>
+      <c r="N78" s="373"/>
+      <c r="O78" s="373"/>
+      <c r="P78" s="373"/>
+      <c r="Q78" s="373"/>
+      <c r="R78" s="373"/>
+      <c r="S78" s="373"/>
+      <c r="T78" s="373"/>
+      <c r="U78" s="373"/>
+      <c r="V78" s="373"/>
+      <c r="W78" s="373"/>
+      <c r="X78" s="373"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="352"/>
-      <c r="B79" s="352"/>
-      <c r="C79" s="352"/>
-      <c r="D79" s="352"/>
-      <c r="E79" s="352"/>
-      <c r="F79" s="352"/>
-      <c r="G79" s="352"/>
-      <c r="H79" s="352"/>
-      <c r="I79" s="352"/>
-      <c r="J79" s="352"/>
-      <c r="K79" s="352"/>
-      <c r="L79" s="352"/>
-      <c r="M79" s="352"/>
-      <c r="N79" s="352"/>
-      <c r="O79" s="352"/>
-      <c r="P79" s="352"/>
-      <c r="Q79" s="352"/>
-      <c r="R79" s="352"/>
-      <c r="S79" s="352"/>
-      <c r="T79" s="352"/>
-      <c r="U79" s="352"/>
-      <c r="V79" s="352"/>
-      <c r="W79" s="352"/>
-      <c r="X79" s="352"/>
+      <c r="A79" s="373"/>
+      <c r="B79" s="373"/>
+      <c r="C79" s="373"/>
+      <c r="D79" s="373"/>
+      <c r="E79" s="373"/>
+      <c r="F79" s="373"/>
+      <c r="G79" s="373"/>
+      <c r="H79" s="373"/>
+      <c r="I79" s="373"/>
+      <c r="J79" s="373"/>
+      <c r="K79" s="373"/>
+      <c r="L79" s="373"/>
+      <c r="M79" s="373"/>
+      <c r="N79" s="373"/>
+      <c r="O79" s="373"/>
+      <c r="P79" s="373"/>
+      <c r="Q79" s="373"/>
+      <c r="R79" s="373"/>
+      <c r="S79" s="373"/>
+      <c r="T79" s="373"/>
+      <c r="U79" s="373"/>
+      <c r="V79" s="373"/>
+      <c r="W79" s="373"/>
+      <c r="X79" s="373"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="238" t="s">
@@ -42344,141 +42318,57 @@
       <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I89" s="342" t="s">
+      <c r="I89" s="391" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="342"/>
-      <c r="K89" s="342"/>
-      <c r="L89" s="342"/>
-      <c r="M89" s="342"/>
-      <c r="N89" s="342"/>
-      <c r="O89" s="342"/>
-      <c r="P89" s="342"/>
+      <c r="J89" s="391"/>
+      <c r="K89" s="391"/>
+      <c r="L89" s="391"/>
+      <c r="M89" s="391"/>
+      <c r="N89" s="391"/>
+      <c r="O89" s="391"/>
+      <c r="P89" s="391"/>
       <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I90" s="343" t="str">
+      <c r="I90" s="392" t="str">
         <f>IF(I89=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J90" s="343"/>
-      <c r="K90" s="343"/>
-      <c r="L90" s="343"/>
-      <c r="M90" s="343"/>
-      <c r="N90" s="343"/>
-      <c r="O90" s="343"/>
-      <c r="P90" s="343"/>
+      <c r="J90" s="392"/>
+      <c r="K90" s="392"/>
+      <c r="L90" s="392"/>
+      <c r="M90" s="392"/>
+      <c r="N90" s="392"/>
+      <c r="O90" s="392"/>
+      <c r="P90" s="392"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I91" s="344" t="s">
+      <c r="I91" s="393" t="s">
         <v>714</v>
       </c>
-      <c r="J91" s="344"/>
-      <c r="K91" s="344"/>
-      <c r="L91" s="344"/>
-      <c r="M91" s="344"/>
-      <c r="N91" s="344"/>
-      <c r="O91" s="344"/>
-      <c r="P91" s="344"/>
+      <c r="J91" s="393"/>
+      <c r="K91" s="393"/>
+      <c r="L91" s="393"/>
+      <c r="M91" s="393"/>
+      <c r="N91" s="393"/>
+      <c r="O91" s="393"/>
+      <c r="P91" s="393"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="345" t="s">
+      <c r="I92" s="394" t="s">
         <v>715</v>
       </c>
-      <c r="J92" s="345"/>
-      <c r="K92" s="345"/>
-      <c r="L92" s="345"/>
-      <c r="M92" s="345"/>
-      <c r="N92" s="345"/>
-      <c r="O92" s="345"/>
-      <c r="P92" s="345"/>
+      <c r="J92" s="394"/>
+      <c r="K92" s="394"/>
+      <c r="L92" s="394"/>
+      <c r="M92" s="394"/>
+      <c r="N92" s="394"/>
+      <c r="O92" s="394"/>
+      <c r="P92" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D35:W35"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:K37"/>
-    <mergeCell ref="L36:Q37"/>
-    <mergeCell ref="R36:W37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A63:X67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="O70:T70"/>
-    <mergeCell ref="U70:X70"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="N56:X56"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="I89:P89"/>
     <mergeCell ref="I90:P90"/>
     <mergeCell ref="I91:P91"/>
@@ -42499,6 +42389,90 @@
     <mergeCell ref="J73:N73"/>
     <mergeCell ref="O73:T73"/>
     <mergeCell ref="U73:X73"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="A63:X67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="O70:T70"/>
+    <mergeCell ref="U70:X70"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="N56:X56"/>
+    <mergeCell ref="D35:W35"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:K37"/>
+    <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="R36:W37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -42550,14 +42524,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="395" t="s">
+      <c r="B2" s="396" t="s">
         <v>788</v>
       </c>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="395"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
       <c r="I2" s="275"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -42569,22 +42543,22 @@
       <c r="G3" s="276"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="387" t="s">
+      <c r="B4" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="C4" s="387"/>
+      <c r="C4" s="397"/>
       <c r="D4" s="276"/>
       <c r="E4" s="276"/>
       <c r="F4" s="276"/>
       <c r="G4" s="276"/>
-      <c r="I4" s="396" t="s">
+      <c r="I4" s="398" t="s">
         <v>790</v>
       </c>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396" t="s">
+      <c r="J4" s="398"/>
+      <c r="K4" s="398" t="s">
         <v>791</v>
       </c>
-      <c r="L4" s="396"/>
+      <c r="L4" s="398"/>
       <c r="N4" s="17" t="s">
         <v>792</v>
       </c>
@@ -42597,12 +42571,12 @@
       <c r="C5" s="278" t="s">
         <v>794</v>
       </c>
-      <c r="D5" s="388" t="s">
+      <c r="D5" s="399" t="s">
         <v>795</v>
       </c>
-      <c r="E5" s="389"/>
-      <c r="F5" s="389"/>
-      <c r="G5" s="390"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="401"/>
       <c r="I5" s="279" t="s">
         <v>403</v>
       </c>
@@ -42630,32 +42604,32 @@
       <c r="Q5" s="279" t="s">
         <v>800</v>
       </c>
-      <c r="W5" s="394" t="s">
+      <c r="W5" s="395" t="s">
         <v>1510</v>
       </c>
-      <c r="X5" s="394"/>
-      <c r="Y5" s="394"/>
-      <c r="Z5" s="394"/>
-      <c r="AA5" s="394"/>
-      <c r="AB5" s="394"/>
-      <c r="AC5" s="394"/>
-      <c r="AD5" s="394"/>
+      <c r="X5" s="395"/>
+      <c r="Y5" s="395"/>
+      <c r="Z5" s="395"/>
+      <c r="AA5" s="395"/>
+      <c r="AB5" s="395"/>
+      <c r="AC5" s="395"/>
+      <c r="AD5" s="395"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="385">
+      <c r="B6" s="402">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="385">
+      <c r="C6" s="402">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="393" t="s">
+      <c r="D6" s="404" t="s">
         <v>1501</v>
       </c>
-      <c r="E6" s="390"/>
-      <c r="F6" s="388" t="s">
+      <c r="E6" s="401"/>
+      <c r="F6" s="399" t="s">
         <v>1502</v>
       </c>
-      <c r="G6" s="390"/>
+      <c r="G6" s="401"/>
       <c r="I6" s="29">
         <v>-82.74</v>
       </c>
@@ -42691,16 +42665,16 @@
       <c r="AD6" s="303"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="386"/>
-      <c r="C7" s="386"/>
-      <c r="D7" s="388" t="s">
+      <c r="B7" s="403"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="399" t="s">
         <v>801</v>
       </c>
-      <c r="E7" s="390"/>
-      <c r="F7" s="388" t="s">
+      <c r="E7" s="401"/>
+      <c r="F7" s="399" t="s">
         <v>802</v>
       </c>
-      <c r="G7" s="390"/>
+      <c r="G7" s="401"/>
       <c r="I7" s="29">
         <v>0.01</v>
       </c>
@@ -42777,10 +42751,10 @@
       <c r="AD8" s="303"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="387" t="s">
+      <c r="B9" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="C9" s="387"/>
+      <c r="C9" s="397"/>
       <c r="D9" s="276"/>
       <c r="E9" s="276"/>
       <c r="F9" s="276"/>
@@ -42826,40 +42800,40 @@
       <c r="C10" s="278" t="s">
         <v>794</v>
       </c>
-      <c r="D10" s="388" t="s">
+      <c r="D10" s="399" t="s">
         <v>795</v>
       </c>
-      <c r="E10" s="389"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="390"/>
+      <c r="E10" s="400"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="385">
+      <c r="B11" s="402">
         <v>0.01</v>
       </c>
-      <c r="C11" s="385">
+      <c r="C11" s="402">
         <v>699.75</v>
       </c>
-      <c r="D11" s="393" t="s">
+      <c r="D11" s="404" t="s">
         <v>1503</v>
       </c>
-      <c r="E11" s="390"/>
-      <c r="F11" s="388" t="s">
+      <c r="E11" s="401"/>
+      <c r="F11" s="399" t="s">
         <v>1504</v>
       </c>
-      <c r="G11" s="390"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="386"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="388" t="s">
+      <c r="B12" s="403"/>
+      <c r="C12" s="403"/>
+      <c r="D12" s="399" t="s">
         <v>801</v>
       </c>
-      <c r="E12" s="390"/>
-      <c r="F12" s="388" t="s">
+      <c r="E12" s="401"/>
+      <c r="F12" s="399" t="s">
         <v>802</v>
       </c>
-      <c r="G12" s="390"/>
+      <c r="G12" s="401"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="276"/>
@@ -42870,10 +42844,10 @@
       <c r="G13" s="276"/>
     </row>
     <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="387" t="s">
+      <c r="B14" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="C14" s="387"/>
+      <c r="C14" s="397"/>
       <c r="D14" s="276"/>
       <c r="E14" s="276"/>
       <c r="F14" s="276"/>
@@ -42882,38 +42856,38 @@
         <v>792</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="391" t="s">
+      <c r="K14" s="405" t="s">
         <v>1507</v>
       </c>
-      <c r="L14" s="391"/>
-      <c r="M14" s="391"/>
+      <c r="L14" s="405"/>
+      <c r="M14" s="405"/>
       <c r="P14" s="17" t="s">
         <v>792</v>
       </c>
       <c r="Q14" s="17"/>
-      <c r="R14" s="391" t="s">
+      <c r="R14" s="405" t="s">
         <v>1508</v>
       </c>
-      <c r="S14" s="391"/>
-      <c r="T14" s="391"/>
+      <c r="S14" s="405"/>
+      <c r="T14" s="405"/>
       <c r="W14" s="17" t="s">
         <v>792</v>
       </c>
       <c r="X14" s="17"/>
-      <c r="Y14" s="392" t="s">
+      <c r="Y14" s="406" t="s">
         <v>1509</v>
       </c>
-      <c r="Z14" s="392"/>
-      <c r="AA14" s="392"/>
+      <c r="Z14" s="406"/>
+      <c r="AA14" s="406"/>
       <c r="AD14" s="17" t="s">
         <v>792</v>
       </c>
       <c r="AE14" s="17"/>
-      <c r="AF14" s="392" t="s">
+      <c r="AF14" s="406" t="s">
         <v>1506</v>
       </c>
-      <c r="AG14" s="392"/>
-      <c r="AH14" s="392"/>
+      <c r="AG14" s="406"/>
+      <c r="AH14" s="406"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="277" t="s">
@@ -42922,12 +42896,12 @@
       <c r="C15" s="278" t="s">
         <v>794</v>
       </c>
-      <c r="D15" s="388" t="s">
+      <c r="D15" s="399" t="s">
         <v>795</v>
       </c>
-      <c r="E15" s="389"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="390"/>
+      <c r="E15" s="400"/>
+      <c r="F15" s="400"/>
+      <c r="G15" s="401"/>
       <c r="I15" s="281" t="s">
         <v>803</v>
       </c>
@@ -42990,20 +42964,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="385">
+      <c r="B16" s="402">
         <v>700</v>
       </c>
-      <c r="C16" s="385">
+      <c r="C16" s="402">
         <v>7000</v>
       </c>
-      <c r="D16" s="388" t="s">
+      <c r="D16" s="399" t="s">
         <v>807</v>
       </c>
-      <c r="E16" s="390"/>
-      <c r="F16" s="388" t="s">
+      <c r="E16" s="401"/>
+      <c r="F16" s="399" t="s">
         <v>1505</v>
       </c>
-      <c r="G16" s="390"/>
+      <c r="G16" s="401"/>
       <c r="I16" s="22" t="s">
         <v>808</v>
       </c>
@@ -43082,16 +43056,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="386"/>
-      <c r="C17" s="386"/>
-      <c r="D17" s="388" t="s">
+      <c r="B17" s="403"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="399" t="s">
         <v>801</v>
       </c>
-      <c r="E17" s="390"/>
-      <c r="F17" s="388" t="s">
+      <c r="E17" s="401"/>
+      <c r="F17" s="399" t="s">
         <v>802</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="401"/>
       <c r="I17" s="22" t="s">
         <v>809</v>
       </c>
@@ -43249,10 +43223,10 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="387" t="s">
+      <c r="B19" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="C19" s="387"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="276"/>
       <c r="E19" s="276"/>
       <c r="F19" s="276"/>
@@ -43341,12 +43315,12 @@
       <c r="C20" s="278" t="s">
         <v>794</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D20" s="399" t="s">
         <v>795</v>
       </c>
-      <c r="E20" s="389"/>
-      <c r="F20" s="389"/>
-      <c r="G20" s="390"/>
+      <c r="E20" s="400"/>
+      <c r="F20" s="400"/>
+      <c r="G20" s="401"/>
       <c r="I20" s="22" t="s">
         <v>812</v>
       </c>
@@ -43425,20 +43399,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="385">
+      <c r="B21" s="402">
         <v>7001</v>
       </c>
-      <c r="C21" s="385">
+      <c r="C21" s="402">
         <v>34500</v>
       </c>
-      <c r="D21" s="388" t="s">
+      <c r="D21" s="399" t="s">
         <v>813</v>
       </c>
-      <c r="E21" s="390"/>
-      <c r="F21" s="388" t="s">
+      <c r="E21" s="401"/>
+      <c r="F21" s="399" t="s">
         <v>1506</v>
       </c>
-      <c r="G21" s="390"/>
+      <c r="G21" s="401"/>
       <c r="I21" s="22" t="s">
         <v>814</v>
       </c>
@@ -43517,16 +43491,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="386"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="388" t="s">
+      <c r="B22" s="403"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="399" t="s">
         <v>801</v>
       </c>
-      <c r="E22" s="390"/>
-      <c r="F22" s="388" t="s">
+      <c r="E22" s="401"/>
+      <c r="F22" s="399" t="s">
         <v>802</v>
       </c>
-      <c r="G22" s="390"/>
+      <c r="G22" s="401"/>
       <c r="I22" s="22" t="s">
         <v>815</v>
       </c>
@@ -43839,22 +43813,22 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="387" t="s">
+      <c r="I26" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="J26" s="387"/>
-      <c r="P26" s="387" t="s">
+      <c r="J26" s="397"/>
+      <c r="P26" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="Q26" s="387"/>
-      <c r="W26" s="387" t="s">
+      <c r="Q26" s="397"/>
+      <c r="W26" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="X26" s="387"/>
-      <c r="AD26" s="387" t="s">
+      <c r="X26" s="397"/>
+      <c r="AD26" s="397" t="s">
         <v>789</v>
       </c>
-      <c r="AE26" s="387"/>
+      <c r="AE26" s="397"/>
     </row>
     <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="277" t="s">
@@ -43883,49 +43857,75 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="385">
+      <c r="I28" s="402">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="385">
+      <c r="J28" s="402">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="385">
+      <c r="P28" s="402">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="385">
+      <c r="Q28" s="402">
         <v>699.75</v>
       </c>
-      <c r="W28" s="385">
+      <c r="W28" s="402">
         <v>700</v>
       </c>
-      <c r="X28" s="385">
+      <c r="X28" s="402">
         <v>7000</v>
       </c>
-      <c r="AD28" s="385">
+      <c r="AD28" s="402">
         <v>7001</v>
       </c>
-      <c r="AE28" s="385">
+      <c r="AE28" s="402">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="386"/>
-      <c r="J29" s="386"/>
-      <c r="P29" s="386"/>
-      <c r="Q29" s="386"/>
-      <c r="W29" s="386"/>
-      <c r="X29" s="386"/>
-      <c r="AD29" s="386"/>
-      <c r="AE29" s="386"/>
+      <c r="I29" s="403"/>
+      <c r="J29" s="403"/>
+      <c r="P29" s="403"/>
+      <c r="Q29" s="403"/>
+      <c r="W29" s="403"/>
+      <c r="X29" s="403"/>
+      <c r="AD29" s="403"/>
+      <c r="AE29" s="403"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43940,38 +43940,12 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44014,32 +43988,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="397" t="s">
+      <c r="A5" s="407" t="s">
         <v>722</v>
       </c>
-      <c r="B5" s="397"/>
-      <c r="C5" s="397"/>
-      <c r="D5" s="397"/>
-      <c r="E5" s="397"/>
-      <c r="F5" s="397"/>
-      <c r="G5" s="397"/>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="397"/>
-      <c r="N5" s="397"/>
-      <c r="O5" s="397"/>
-      <c r="P5" s="397"/>
-      <c r="Q5" s="397"/>
-      <c r="R5" s="397"/>
-      <c r="S5" s="397"/>
-      <c r="T5" s="397"/>
-      <c r="U5" s="397"/>
-      <c r="V5" s="397"/>
-      <c r="W5" s="397"/>
-      <c r="X5" s="397"/>
+      <c r="B5" s="407"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
+      <c r="F5" s="407"/>
+      <c r="G5" s="407"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="407"/>
+      <c r="J5" s="407"/>
+      <c r="K5" s="407"/>
+      <c r="L5" s="407"/>
+      <c r="M5" s="407"/>
+      <c r="N5" s="407"/>
+      <c r="O5" s="407"/>
+      <c r="P5" s="407"/>
+      <c r="Q5" s="407"/>
+      <c r="R5" s="407"/>
+      <c r="S5" s="407"/>
+      <c r="T5" s="407"/>
+      <c r="U5" s="407"/>
+      <c r="V5" s="407"/>
+      <c r="W5" s="407"/>
+      <c r="X5" s="407"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -44093,699 +44067,674 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="374" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="357"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="356" t="s">
+      <c r="B8" s="375"/>
+      <c r="C8" s="375"/>
+      <c r="D8" s="375"/>
+      <c r="E8" s="375"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="357"/>
-      <c r="I8" s="358"/>
-      <c r="J8" s="359" t="s">
+      <c r="H8" s="375"/>
+      <c r="I8" s="376"/>
+      <c r="J8" s="377" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="360"/>
-      <c r="L8" s="360"/>
-      <c r="M8" s="360"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="356" t="s">
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="378"/>
+      <c r="N8" s="379"/>
+      <c r="O8" s="374" t="s">
         <v>708</v>
       </c>
-      <c r="P8" s="357"/>
-      <c r="Q8" s="357"/>
-      <c r="R8" s="357"/>
-      <c r="S8" s="357"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="359" t="s">
+      <c r="P8" s="375"/>
+      <c r="Q8" s="375"/>
+      <c r="R8" s="375"/>
+      <c r="S8" s="375"/>
+      <c r="T8" s="376"/>
+      <c r="U8" s="377" t="s">
         <v>709</v>
       </c>
-      <c r="V8" s="360"/>
-      <c r="W8" s="360"/>
-      <c r="X8" s="361"/>
+      <c r="V8" s="378"/>
+      <c r="W8" s="378"/>
+      <c r="X8" s="379"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="346" t="s">
+      <c r="A9" s="382" t="s">
         <v>717</v>
       </c>
-      <c r="B9" s="347" t="s">
+      <c r="B9" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="D9" s="347" t="s">
+      <c r="D9" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="E9" s="347" t="s">
+      <c r="E9" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="F9" s="348" t="s">
+      <c r="F9" s="384" t="s">
         <v>717</v>
       </c>
-      <c r="G9" s="346" t="s">
+      <c r="G9" s="382" t="s">
         <v>553</v>
       </c>
-      <c r="H9" s="347" t="s">
+      <c r="H9" s="383" t="s">
         <v>553</v>
       </c>
-      <c r="I9" s="348" t="s">
+      <c r="I9" s="384" t="s">
         <v>553</v>
       </c>
-      <c r="J9" s="349" t="s">
+      <c r="J9" s="385" t="s">
         <v>1115</v>
       </c>
-      <c r="K9" s="350" t="s">
+      <c r="K9" s="386" t="s">
         <v>719</v>
       </c>
-      <c r="L9" s="350">
+      <c r="L9" s="386">
         <v>43368</v>
       </c>
-      <c r="M9" s="350" t="s">
+      <c r="M9" s="386" t="s">
         <v>718</v>
       </c>
-      <c r="N9" s="351" t="s">
+      <c r="N9" s="387" t="s">
         <v>719</v>
       </c>
-      <c r="O9" s="346" t="s">
+      <c r="O9" s="382" t="s">
         <v>719</v>
       </c>
-      <c r="P9" s="347" t="s">
+      <c r="P9" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="Q9" s="347" t="s">
+      <c r="Q9" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="R9" s="347" t="s">
+      <c r="R9" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="S9" s="347" t="s">
+      <c r="S9" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="T9" s="348" t="s">
+      <c r="T9" s="384" t="s">
         <v>719</v>
       </c>
-      <c r="U9" s="349">
+      <c r="U9" s="385">
         <v>44096</v>
       </c>
-      <c r="V9" s="350" t="s">
+      <c r="V9" s="386" t="s">
         <v>718</v>
       </c>
-      <c r="W9" s="350" t="s">
+      <c r="W9" s="386" t="s">
         <v>719</v>
       </c>
-      <c r="X9" s="351">
+      <c r="X9" s="387">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="346" t="s">
+      <c r="A10" s="382" t="s">
         <v>717</v>
       </c>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="C10" s="347" t="s">
+      <c r="C10" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="D10" s="347" t="s">
+      <c r="D10" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="E10" s="347" t="s">
+      <c r="E10" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="F10" s="348" t="s">
+      <c r="F10" s="384" t="s">
         <v>717</v>
       </c>
-      <c r="G10" s="346" t="s">
+      <c r="G10" s="382" t="s">
         <v>559</v>
       </c>
-      <c r="H10" s="347" t="s">
+      <c r="H10" s="383" t="s">
         <v>559</v>
       </c>
-      <c r="I10" s="348" t="s">
+      <c r="I10" s="384" t="s">
         <v>559</v>
       </c>
-      <c r="J10" s="349" t="s">
+      <c r="J10" s="385" t="s">
         <v>1116</v>
       </c>
-      <c r="K10" s="350" t="s">
+      <c r="K10" s="386" t="s">
         <v>719</v>
       </c>
-      <c r="L10" s="350">
+      <c r="L10" s="386">
         <v>43369</v>
       </c>
-      <c r="M10" s="350" t="s">
+      <c r="M10" s="386" t="s">
         <v>1117</v>
       </c>
-      <c r="N10" s="351" t="s">
+      <c r="N10" s="387" t="s">
         <v>719</v>
       </c>
-      <c r="O10" s="346" t="s">
+      <c r="O10" s="382" t="s">
         <v>719</v>
       </c>
-      <c r="P10" s="347" t="s">
+      <c r="P10" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="Q10" s="347" t="s">
+      <c r="Q10" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="R10" s="347" t="s">
+      <c r="R10" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="S10" s="347" t="s">
+      <c r="S10" s="383" t="s">
         <v>719</v>
       </c>
-      <c r="T10" s="348" t="s">
+      <c r="T10" s="384" t="s">
         <v>719</v>
       </c>
-      <c r="U10" s="349">
+      <c r="U10" s="385">
         <v>44431</v>
       </c>
-      <c r="V10" s="350" t="s">
+      <c r="V10" s="386" t="s">
         <v>1117</v>
       </c>
-      <c r="W10" s="350" t="s">
+      <c r="W10" s="386" t="s">
         <v>719</v>
       </c>
-      <c r="X10" s="351">
+      <c r="X10" s="387">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="346" t="s">
+      <c r="A11" s="382" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="347" t="s">
+      <c r="B11" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="C11" s="347" t="s">
+      <c r="C11" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="D11" s="347" t="s">
+      <c r="D11" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="E11" s="347" t="s">
+      <c r="E11" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="F11" s="348" t="s">
+      <c r="F11" s="384" t="s">
         <v>717</v>
       </c>
-      <c r="G11" s="346" t="s">
+      <c r="G11" s="382" t="s">
         <v>560</v>
       </c>
-      <c r="H11" s="347" t="s">
+      <c r="H11" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J11" s="349" t="s">
+      <c r="J11" s="385" t="s">
         <v>765</v>
       </c>
-      <c r="K11" s="350" t="s">
+      <c r="K11" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L11" s="350">
+      <c r="L11" s="386">
         <v>43392</v>
       </c>
-      <c r="M11" s="350" t="s">
+      <c r="M11" s="386" t="s">
         <v>720</v>
       </c>
-      <c r="N11" s="351" t="s">
+      <c r="N11" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O11" s="346" t="s">
+      <c r="O11" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P11" s="347" t="s">
+      <c r="P11" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q11" s="347" t="s">
+      <c r="Q11" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R11" s="347" t="s">
+      <c r="R11" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S11" s="347" t="s">
+      <c r="S11" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T11" s="348" t="s">
+      <c r="T11" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U11" s="349">
+      <c r="U11" s="385">
         <v>44243</v>
       </c>
-      <c r="V11" s="350" t="s">
+      <c r="V11" s="386" t="s">
         <v>720</v>
       </c>
-      <c r="W11" s="350" t="s">
+      <c r="W11" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X11" s="351">
+      <c r="X11" s="387">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="346" t="s">
+      <c r="A12" s="382" t="s">
         <v>729</v>
       </c>
-      <c r="B12" s="347" t="s">
+      <c r="B12" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="347" t="s">
+      <c r="C12" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="D12" s="347" t="s">
+      <c r="D12" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="E12" s="347" t="s">
+      <c r="E12" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="F12" s="348" t="s">
+      <c r="F12" s="384" t="s">
         <v>717</v>
       </c>
-      <c r="G12" s="346" t="s">
+      <c r="G12" s="382" t="s">
         <v>727</v>
       </c>
-      <c r="H12" s="347" t="s">
+      <c r="H12" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I12" s="348" t="s">
+      <c r="I12" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J12" s="349" t="s">
+      <c r="J12" s="385" t="s">
         <v>1125</v>
       </c>
-      <c r="K12" s="350" t="s">
+      <c r="K12" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L12" s="350">
+      <c r="L12" s="386">
         <v>43393</v>
       </c>
-      <c r="M12" s="350" t="s">
+      <c r="M12" s="386" t="s">
         <v>730</v>
       </c>
-      <c r="N12" s="351" t="s">
+      <c r="N12" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O12" s="346" t="s">
+      <c r="O12" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P12" s="347" t="s">
+      <c r="P12" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q12" s="347" t="s">
+      <c r="Q12" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R12" s="347" t="s">
+      <c r="R12" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S12" s="347" t="s">
+      <c r="S12" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T12" s="348" t="s">
+      <c r="T12" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U12" s="349">
+      <c r="U12" s="385">
         <v>44542</v>
       </c>
-      <c r="V12" s="350" t="s">
+      <c r="V12" s="386" t="s">
         <v>730</v>
       </c>
-      <c r="W12" s="350" t="s">
+      <c r="W12" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X12" s="351">
+      <c r="X12" s="387">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="346" t="s">
+      <c r="A13" s="382" t="s">
         <v>1118</v>
       </c>
-      <c r="B13" s="347"/>
-      <c r="C13" s="347"/>
-      <c r="D13" s="347"/>
-      <c r="E13" s="347"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="346" t="s">
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="383"/>
+      <c r="F13" s="384"/>
+      <c r="G13" s="382" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="347" t="s">
+      <c r="H13" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I13" s="348" t="s">
+      <c r="I13" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J13" s="349" t="s">
+      <c r="J13" s="385" t="s">
         <v>1119</v>
       </c>
-      <c r="K13" s="350" t="s">
+      <c r="K13" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L13" s="350">
+      <c r="L13" s="386">
         <v>43394</v>
       </c>
-      <c r="M13" s="350" t="s">
+      <c r="M13" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="N13" s="351" t="s">
+      <c r="N13" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O13" s="346" t="s">
+      <c r="O13" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P13" s="347" t="s">
+      <c r="P13" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q13" s="347" t="s">
+      <c r="Q13" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R13" s="347" t="s">
+      <c r="R13" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S13" s="347" t="s">
+      <c r="S13" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T13" s="348" t="s">
+      <c r="T13" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U13" s="349">
+      <c r="U13" s="385">
         <v>44158</v>
       </c>
-      <c r="V13" s="350" t="s">
+      <c r="V13" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="W13" s="350" t="s">
+      <c r="W13" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X13" s="351">
+      <c r="X13" s="387">
         <v>43394</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="346" t="s">
+      <c r="A14" s="382" t="s">
         <v>1118</v>
       </c>
-      <c r="B14" s="347"/>
-      <c r="C14" s="347"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="347"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="346" t="s">
+      <c r="B14" s="383"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="383"/>
+      <c r="F14" s="384"/>
+      <c r="G14" s="382" t="s">
         <v>377</v>
       </c>
-      <c r="H14" s="347" t="s">
+      <c r="H14" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I14" s="348" t="s">
+      <c r="I14" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J14" s="349" t="s">
+      <c r="J14" s="385" t="s">
         <v>1120</v>
       </c>
-      <c r="K14" s="350" t="s">
+      <c r="K14" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L14" s="350">
+      <c r="L14" s="386">
         <v>43394</v>
       </c>
-      <c r="M14" s="350" t="s">
+      <c r="M14" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="N14" s="351" t="s">
+      <c r="N14" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O14" s="346" t="s">
+      <c r="O14" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P14" s="347" t="s">
+      <c r="P14" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q14" s="347" t="s">
+      <c r="Q14" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R14" s="347" t="s">
+      <c r="R14" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S14" s="347" t="s">
+      <c r="S14" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T14" s="348" t="s">
+      <c r="T14" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U14" s="349">
+      <c r="U14" s="385">
         <v>44331</v>
       </c>
-      <c r="V14" s="350" t="s">
+      <c r="V14" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="W14" s="350" t="s">
+      <c r="W14" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X14" s="351">
+      <c r="X14" s="387">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="346" t="s">
+      <c r="A15" s="382" t="s">
         <v>1118</v>
       </c>
-      <c r="B15" s="347"/>
-      <c r="C15" s="347"/>
-      <c r="D15" s="347"/>
-      <c r="E15" s="347"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="346" t="s">
+      <c r="B15" s="383"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="382" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="347" t="s">
+      <c r="H15" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I15" s="348" t="s">
+      <c r="I15" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J15" s="349" t="s">
+      <c r="J15" s="385" t="s">
         <v>1121</v>
       </c>
-      <c r="K15" s="350" t="s">
+      <c r="K15" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L15" s="350">
+      <c r="L15" s="386">
         <v>43394</v>
       </c>
-      <c r="M15" s="350" t="s">
+      <c r="M15" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="N15" s="351" t="s">
+      <c r="N15" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O15" s="346" t="s">
+      <c r="O15" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P15" s="347" t="s">
+      <c r="P15" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q15" s="347" t="s">
+      <c r="Q15" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R15" s="347" t="s">
+      <c r="R15" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S15" s="347" t="s">
+      <c r="S15" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T15" s="348" t="s">
+      <c r="T15" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U15" s="349">
+      <c r="U15" s="385">
         <v>44331</v>
       </c>
-      <c r="V15" s="350" t="s">
+      <c r="V15" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="W15" s="350" t="s">
+      <c r="W15" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X15" s="351">
+      <c r="X15" s="387">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="346" t="s">
+      <c r="A16" s="382" t="s">
         <v>1118</v>
       </c>
-      <c r="B16" s="347"/>
-      <c r="C16" s="347"/>
-      <c r="D16" s="347"/>
-      <c r="E16" s="347"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="346" t="s">
+      <c r="B16" s="383"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="383"/>
+      <c r="F16" s="384"/>
+      <c r="G16" s="382" t="s">
         <v>579</v>
       </c>
-      <c r="H16" s="347" t="s">
+      <c r="H16" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I16" s="348" t="s">
+      <c r="I16" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J16" s="349" t="s">
+      <c r="J16" s="385" t="s">
         <v>1122</v>
       </c>
-      <c r="K16" s="350" t="s">
+      <c r="K16" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L16" s="350">
+      <c r="L16" s="386">
         <v>43394</v>
       </c>
-      <c r="M16" s="350" t="s">
+      <c r="M16" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="N16" s="351" t="s">
+      <c r="N16" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O16" s="346" t="s">
+      <c r="O16" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P16" s="347" t="s">
+      <c r="P16" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q16" s="347" t="s">
+      <c r="Q16" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R16" s="347" t="s">
+      <c r="R16" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S16" s="347" t="s">
+      <c r="S16" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T16" s="348" t="s">
+      <c r="T16" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U16" s="349">
+      <c r="U16" s="385">
         <v>44331</v>
       </c>
-      <c r="V16" s="350" t="s">
+      <c r="V16" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="W16" s="350" t="s">
+      <c r="W16" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X16" s="351">
+      <c r="X16" s="387">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="346" t="s">
+      <c r="A17" s="382" t="s">
         <v>734</v>
       </c>
-      <c r="B17" s="347" t="s">
+      <c r="B17" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="C17" s="347" t="s">
+      <c r="C17" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="D17" s="347" t="s">
+      <c r="D17" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="E17" s="347" t="s">
+      <c r="E17" s="383" t="s">
         <v>717</v>
       </c>
-      <c r="F17" s="348" t="s">
+      <c r="F17" s="384" t="s">
         <v>717</v>
       </c>
-      <c r="G17" s="346" t="s">
+      <c r="G17" s="382" t="s">
         <v>731</v>
       </c>
-      <c r="H17" s="347" t="s">
+      <c r="H17" s="383" t="s">
         <v>560</v>
       </c>
-      <c r="I17" s="348" t="s">
+      <c r="I17" s="384" t="s">
         <v>560</v>
       </c>
-      <c r="J17" s="349" t="s">
+      <c r="J17" s="385" t="s">
         <v>1109</v>
       </c>
-      <c r="K17" s="350" t="s">
+      <c r="K17" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="L17" s="350">
+      <c r="L17" s="386">
         <v>43394</v>
       </c>
-      <c r="M17" s="350" t="s">
+      <c r="M17" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="N17" s="351" t="s">
+      <c r="N17" s="387" t="s">
         <v>721</v>
       </c>
-      <c r="O17" s="346" t="s">
+      <c r="O17" s="382" t="s">
         <v>721</v>
       </c>
-      <c r="P17" s="347" t="s">
+      <c r="P17" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="Q17" s="347" t="s">
+      <c r="Q17" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="R17" s="347" t="s">
+      <c r="R17" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="S17" s="347" t="s">
+      <c r="S17" s="383" t="s">
         <v>721</v>
       </c>
-      <c r="T17" s="348" t="s">
+      <c r="T17" s="384" t="s">
         <v>721</v>
       </c>
-      <c r="U17" s="349">
+      <c r="U17" s="385">
         <v>44331</v>
       </c>
-      <c r="V17" s="350" t="s">
+      <c r="V17" s="386" t="s">
         <v>735</v>
       </c>
-      <c r="W17" s="350" t="s">
+      <c r="W17" s="386" t="s">
         <v>721</v>
       </c>
-      <c r="X17" s="351">
+      <c r="X17" s="387">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44802,11 +44751,36 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51" right="0.51" top="0.51" bottom="0.51" header="0" footer="0.31"/>
@@ -44901,23 +44875,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="400" t="s">
+      <c r="H4" s="413" t="s">
         <v>368</v>
       </c>
-      <c r="I4" s="401"/>
-      <c r="J4" s="400" t="s">
+      <c r="I4" s="414"/>
+      <c r="J4" s="413" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="401"/>
-      <c r="L4" s="402" t="s">
+      <c r="K4" s="414"/>
+      <c r="L4" s="415" t="s">
         <v>526</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="M4" s="417" t="s">
         <v>384</v>
       </c>
-      <c r="N4" s="405"/>
-      <c r="O4" s="405"/>
-      <c r="P4" s="406"/>
+      <c r="N4" s="418"/>
+      <c r="O4" s="418"/>
+      <c r="P4" s="419"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44950,11 +44924,11 @@
       <c r="K5" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="403"/>
-      <c r="M5" s="407"/>
-      <c r="N5" s="408"/>
-      <c r="O5" s="408"/>
-      <c r="P5" s="409"/>
+      <c r="L5" s="416"/>
+      <c r="M5" s="420"/>
+      <c r="N5" s="421"/>
+      <c r="O5" s="421"/>
+      <c r="P5" s="422"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
@@ -45198,26 +45172,26 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="398" t="s">
+      <c r="H13" s="411" t="s">
         <v>383</v>
       </c>
-      <c r="I13" s="399"/>
-      <c r="J13" s="398" t="s">
+      <c r="I13" s="412"/>
+      <c r="J13" s="411" t="s">
         <v>558</v>
       </c>
-      <c r="K13" s="399"/>
-      <c r="L13" s="398" t="s">
+      <c r="K13" s="412"/>
+      <c r="L13" s="411" t="s">
         <v>405</v>
       </c>
-      <c r="M13" s="399"/>
-      <c r="N13" s="398" t="s">
+      <c r="M13" s="412"/>
+      <c r="N13" s="411" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="399"/>
-      <c r="P13" s="398" t="s">
+      <c r="O13" s="412"/>
+      <c r="P13" s="411" t="s">
         <v>567</v>
       </c>
-      <c r="Q13" s="399"/>
+      <c r="Q13" s="412"/>
       <c r="T13" s="184" t="s">
         <v>598</v>
       </c>
@@ -47661,12 +47635,12 @@
       <c r="L96"/>
     </row>
     <row r="97" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D97" s="410" t="s">
+      <c r="D97" s="408" t="s">
         <v>741</v>
       </c>
-      <c r="E97" s="411"/>
-      <c r="F97" s="411"/>
-      <c r="G97" s="412"/>
+      <c r="E97" s="409"/>
+      <c r="F97" s="409"/>
+      <c r="G97" s="410"/>
       <c r="L97"/>
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.3">
@@ -47861,6 +47835,30 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="m5bI7bqDHKgR3i3C8VX9M0ZNjcFWh0nn149aj6hGtMKU42pj0xyGJ0IaThzvbr+t4HEsVo2uJ00nw/DHVCIWmw==" saltValue="g9lyjMP963BGnGYQfvY3vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="33">
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
     <mergeCell ref="D117:G117"/>
     <mergeCell ref="D118:G118"/>
     <mergeCell ref="D119:G119"/>
@@ -47870,30 +47868,6 @@
     <mergeCell ref="D114:G114"/>
     <mergeCell ref="D115:G115"/>
     <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
